--- a/framfriend/data/TestData/elementDate.xlsx
+++ b/framfriend/data/TestData/elementDate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17310" windowHeight="5730"/>
+    <workbookView windowWidth="22800" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="elementsInfo" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="queryData" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="B452:F552"/>
+  <oleSize ref="A756:E856"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="1197">
   <si>
     <t>模块</t>
   </si>
@@ -1334,46 +1334,52 @@
     <t>批量转账查询</t>
   </si>
   <si>
-    <t>//*[@id="sidebarTree_30"]</t>
-  </si>
-  <si>
-    <t>母账号代付</t>
-  </si>
-  <si>
-    <t>//*[@id="sidebarTree_31"]</t>
-  </si>
-  <si>
-    <t>子账号代付</t>
-  </si>
-  <si>
-    <t>//*[@id="sidebarTree_32"]</t>
-  </si>
-  <si>
-    <t>综合查询</t>
+    <t>//*[@id="sidebarTree_33"]</t>
+  </si>
+  <si>
+    <t>母子账号代付</t>
   </si>
   <si>
     <t>//*[@id="sidebarTree_34"]</t>
   </si>
   <si>
+    <t>代付结果查询</t>
+  </si>
+  <si>
+    <t>//*[@id="sidebarTree_36"]</t>
+  </si>
+  <si>
+    <t>银行流水查询</t>
+  </si>
+  <si>
+    <t>//*[@id="sidebarTree_38"]</t>
+  </si>
+  <si>
     <t>己方银行</t>
   </si>
   <si>
+    <t>//*[@id="sidebarTree_39"]</t>
+  </si>
+  <si>
+    <t>对方银行</t>
+  </si>
+  <si>
+    <t>//*[@id="sidebarTree_40"]</t>
+  </si>
+  <si>
+    <t>己方银行综合</t>
+  </si>
+  <si>
+    <t>//*[@id="sidebarTree_341"]</t>
+  </si>
+  <si>
+    <t>短信接收人</t>
+  </si>
+  <si>
     <t>//*[@id="sidebarTree_35"]</t>
   </si>
   <si>
-    <t>对方银行</t>
-  </si>
-  <si>
-    <t>//*[@id="sidebarTree_36"]</t>
-  </si>
-  <si>
-    <t>己方银行综合</t>
-  </si>
-  <si>
-    <t>//*[@id="sidebarTree_37"]</t>
-  </si>
-  <si>
-    <t>短信接收人</t>
+    <t>代付明细查询</t>
   </si>
   <si>
     <t>singlePay</t>
@@ -1403,7 +1409,7 @@
     <t>选择一项收款方</t>
   </si>
   <si>
-    <t>//*[@id="hasOtherBank"]/div[1]/a</t>
+    <t>//*[@id="defaultForm"]/div[3]/a</t>
   </si>
   <si>
     <t>添加新收款方</t>
@@ -1490,13 +1496,13 @@
     <t>收款账号为空提示</t>
   </si>
   <si>
-    <t>//*[@id="defaultForm"]/div[6]/div[1]/small</t>
+    <t>//*[@id="defaultForm"]/div[7]/div[1]/small</t>
   </si>
   <si>
     <t>金额为空错误提示</t>
   </si>
   <si>
-    <t>//*[@id="defaultForm"]/div[6]/div[2]/small</t>
+    <t>//*[@id="defaultForm"]/div[7]/div[2]/small</t>
   </si>
   <si>
     <t>摘要为空提示</t>
@@ -1676,6 +1682,9 @@
     <t>账号（查询）</t>
   </si>
   <si>
+    <t>//*[@id="searchForm"]/div[4]/input</t>
+  </si>
+  <si>
     <t>开户机构（查询）</t>
   </si>
   <si>
@@ -1736,13 +1745,13 @@
     <t>导出模板</t>
   </si>
   <si>
-    <t>//*[@id="defaultForm"]/div[1]/div/div/button/span[1]</t>
+    <t>//*[@id="defaultForm"]/div[1]/div/div/button</t>
   </si>
   <si>
     <t>打开选择银行（新增、修改）</t>
   </si>
   <si>
-    <t>//*[@id="defaultForm"]/div[1]/div/div/div/ul/li[2]/a/span[1]</t>
+    <t>//*[@id="defaultForm"]/div[1]/div/div/div/ul/li[2]/a</t>
   </si>
   <si>
     <t>选择银行（新增）</t>
@@ -1871,16 +1880,13 @@
     <t>pueryinput</t>
   </si>
   <si>
-    <t>//*[@id="searchForm"]/div[4]/input</t>
-  </si>
-  <si>
-    <t>//*[@id="searchForm"]/div[3]/input[1]</t>
+    <t>//*[@id="searchForm"]/div/input[1]</t>
   </si>
   <si>
     <t>开始时间1</t>
   </si>
   <si>
-    <t>//*[@id="searchForm"]/div[3]/input[2]</t>
+    <t>//*[@id="searchForm"]/div/input[2]</t>
   </si>
   <si>
     <t>开始时间2</t>
@@ -1988,15 +1994,9 @@
     <t>batchResultsPage</t>
   </si>
   <si>
-    <t>//*[@id="searchForm"]/div/input[1]</t>
-  </si>
-  <si>
     <t>查询日期始</t>
   </si>
   <si>
-    <t>//*[@id="searchForm"]/div/input[2]</t>
-  </si>
-  <si>
     <t>查询日期止</t>
   </si>
   <si>
@@ -3344,9 +3344,111 @@
     <t>//*[@id="searchForm"]/div[4]/select/option[5]</t>
   </si>
   <si>
+    <t>issuing</t>
+  </si>
+  <si>
+    <t>//*[@id="searchForm"]/div[1]/div/button</t>
+  </si>
+  <si>
+    <t>//*[@id="searchBankBatchAgentInfo"]</t>
+  </si>
+  <si>
+    <t>//*[@id="addBankBatchAgent"]</t>
+  </si>
+  <si>
+    <t>//*[@id="editBankBatchAgent"]</t>
+  </si>
+  <si>
+    <t>//*[@id="deleteBankBatchAgent"]</t>
+  </si>
+  <si>
+    <t>//*[@id="importBankBatchAgent"]</t>
+  </si>
+  <si>
+    <t>//*[@id="submissionAgent"]</t>
+  </si>
+  <si>
+    <t>批量代付</t>
+  </si>
+  <si>
+    <t>//*[@id="exportBankBatchAgent"]</t>
+  </si>
+  <si>
+    <t>新增内银行</t>
+  </si>
+  <si>
+    <t>//*[@id="defaultForm"]/div[7]/div/select</t>
+  </si>
+  <si>
+    <t>卡、折</t>
+  </si>
+  <si>
+    <t>//*[@id="editRoleInfoConfig"]</t>
+  </si>
+  <si>
+    <t>提交数据导入</t>
+  </si>
+  <si>
+    <t>取消数据导入</t>
+  </si>
+  <si>
+    <t>关闭支付</t>
+  </si>
+  <si>
+    <t>确定支付</t>
+  </si>
+  <si>
+    <t>收款人</t>
+  </si>
+  <si>
+    <t>收款账号</t>
+  </si>
+  <si>
+    <t>第一项</t>
+  </si>
+  <si>
+    <t>支付输入</t>
+  </si>
+  <si>
+    <t>查询失败</t>
+  </si>
+  <si>
+    <t>新增银行不能为空</t>
+  </si>
+  <si>
+    <t>新增收款人不能为空</t>
+  </si>
+  <si>
+    <t>新增增金额不能为空</t>
+  </si>
+  <si>
+    <t>新增摘要不能为空</t>
+  </si>
+  <si>
+    <t>//*[@id="defaultForm"]/div[4]/div/small[1]</t>
+  </si>
+  <si>
+    <t>修改账号不能为空</t>
+  </si>
+  <si>
+    <t>修改金额不能为空</t>
+  </si>
+  <si>
+    <t>//*[@id="defaultForm"]/div[4]/div/small[2]</t>
+  </si>
+  <si>
+    <t>修改账号非数字</t>
+  </si>
+  <si>
+    <t>新增账号非数字</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
+    <t>wtxxkj123</t>
+  </si>
+  <si>
     <t>正确的用户名和正确的密码</t>
   </si>
   <si>
@@ -3401,49 +3503,52 @@
     <t>角色管理查询，角色，表示位，描述单一查询数据（每一个输入框会循环输入这个3个数据，数据不够可以直接下面添加）</t>
   </si>
   <si>
+    <t>黄岛一</t>
+  </si>
+  <si>
     <t>批量转账 户名，账号，开户机构 单一查询数据（每一个输入框会循环输入这个3个数据，数据不够可以直接下面添加）</t>
   </si>
   <si>
-    <t>23432523652346</t>
+    <t>6215210200005034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">沂南农商银行蒲汪支行 </t>
+  </si>
+  <si>
+    <t>IntegratedQuerypage</t>
+  </si>
+  <si>
+    <t>沂南县蒲汪镇经管统计站</t>
+  </si>
+  <si>
+    <t>转账查询 己方银行，对方银行，摘要单一查询数据（每一个输入框会循环输入这个3个数据，数据不够可以直接下面添加）</t>
+  </si>
+  <si>
+    <t>山东临沂</t>
+  </si>
+  <si>
+    <t>己方银行设置 开户机构，户名，账号、银行名称单一查询数据（每一个输入框会循环输入这个4个数据，数据不够可以直接下面添加）</t>
+  </si>
+  <si>
+    <t>临沂市罗庄区册山街道义和村股份经济合作社</t>
+  </si>
+  <si>
+    <t>2930055804205000010002</t>
+  </si>
+  <si>
+    <t>罗庄农商分行2</t>
+  </si>
+  <si>
+    <t>otherBankpage</t>
   </si>
   <si>
     <t>测试机构</t>
   </si>
   <si>
-    <t>IntegratedQuerypage</t>
+    <t>对方银行设置 开户机构，户名，账号、银行名称单一查询数据（每一个输入框会循环输入这个4个数据，数据不够可以直接下面添加）</t>
   </si>
   <si>
     <t>临沂市罗庄区册山街道刘沙沟村股份经济合作社</t>
-  </si>
-  <si>
-    <t>转账查询 己方银行，对方银行，摘要单一查询数据（每一个输入框会循环输入这个3个数据，数据不够可以直接下面添加）</t>
-  </si>
-  <si>
-    <t>分公司个十多个</t>
-  </si>
-  <si>
-    <t>哈哈哈哈</t>
-  </si>
-  <si>
-    <t>山东临沂</t>
-  </si>
-  <si>
-    <t>己方银行设置 开户机构，户名，账号、银行名称单一查询数据（每一个输入框会循环输入这个4个数据，数据不够可以直接下面添加）</t>
-  </si>
-  <si>
-    <t>临沂市罗庄区册山街道义和村股份经济合作社</t>
-  </si>
-  <si>
-    <t>2930055804205000010002</t>
-  </si>
-  <si>
-    <t>罗庄农商分行2</t>
-  </si>
-  <si>
-    <t>otherBankpage</t>
-  </si>
-  <si>
-    <t>对方银行设置 开户机构，户名，账号、银行名称单一查询数据（每一个输入框会循环输入这个4个数据，数据不够可以直接下面添加）</t>
   </si>
   <si>
     <t>2930055824205000010008</t>
@@ -3561,7 +3666,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3574,10 +3694,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3598,9 +3735,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3608,14 +3760,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3628,7 +3772,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3637,36 +3781,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3688,19 +3802,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3713,13 +3818,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3731,7 +3836,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3743,91 +3956,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3845,55 +3974,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3974,44 +4079,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4040,17 +4127,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4077,10 +4182,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4089,137 +4194,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4348,6 +4453,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4697,10 +4811,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E753"/>
+  <dimension ref="A1:E1074"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="B452" workbookViewId="0">
-      <selection activeCell="D458" sqref="D458"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A756" workbookViewId="0">
+      <selection activeCell="D773" sqref="D773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7940,13 +8054,19 @@
     <row r="238" spans="1:5">
       <c r="A238" s="38"/>
       <c r="B238" s="40"/>
-      <c r="C238" s="16"/>
-      <c r="D238" s="23"/>
-      <c r="E238" s="7"/>
+      <c r="C238" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D238" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="E238" s="7" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="36" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B239" s="39" t="s">
         <v>150</v>
@@ -7955,10 +8075,10 @@
         <v>14</v>
       </c>
       <c r="D239" s="23" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7968,10 +8088,10 @@
         <v>14</v>
       </c>
       <c r="D240" s="23" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E240" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7981,10 +8101,10 @@
         <v>14</v>
       </c>
       <c r="D241" s="23" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7994,10 +8114,10 @@
         <v>14</v>
       </c>
       <c r="D242" s="23" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -8007,10 +8127,10 @@
         <v>14</v>
       </c>
       <c r="D243" s="23" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -8020,10 +8140,10 @@
         <v>14</v>
       </c>
       <c r="D244" s="23" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E244" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -8033,10 +8153,10 @@
         <v>14</v>
       </c>
       <c r="D245" s="23" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E245" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -8046,25 +8166,25 @@
         <v>14</v>
       </c>
       <c r="D246" s="23" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="37"/>
       <c r="B247" s="36" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C247" s="41" t="s">
         <v>14</v>
       </c>
       <c r="D247" s="23" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E247" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -8074,10 +8194,10 @@
         <v>7</v>
       </c>
       <c r="D248" s="23" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -8087,10 +8207,10 @@
         <v>7</v>
       </c>
       <c r="D249" s="23" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E249" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -8100,10 +8220,10 @@
         <v>14</v>
       </c>
       <c r="D250" s="23" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E250" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -8113,10 +8233,10 @@
         <v>14</v>
       </c>
       <c r="D251" s="23" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E251" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -8126,10 +8246,10 @@
         <v>14</v>
       </c>
       <c r="D252" s="23" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E252" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -8139,10 +8259,10 @@
         <v>14</v>
       </c>
       <c r="D253" s="23" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E253" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -8154,10 +8274,10 @@
         <v>14</v>
       </c>
       <c r="D254" s="23" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -8167,10 +8287,10 @@
         <v>14</v>
       </c>
       <c r="D255" s="23" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E255" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -8180,10 +8300,10 @@
         <v>14</v>
       </c>
       <c r="D256" s="23" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E256" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -8193,10 +8313,10 @@
         <v>14</v>
       </c>
       <c r="D257" s="23" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -8206,10 +8326,10 @@
         <v>14</v>
       </c>
       <c r="D258" s="23" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E258" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -8219,10 +8339,10 @@
         <v>14</v>
       </c>
       <c r="D259" s="23" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E259" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -8232,10 +8352,10 @@
         <v>14</v>
       </c>
       <c r="D260" s="23" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E260" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -8245,10 +8365,10 @@
         <v>14</v>
       </c>
       <c r="D261" s="23" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E261" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -8258,10 +8378,10 @@
         <v>14</v>
       </c>
       <c r="D262" s="23" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E262" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -8274,7 +8394,7 @@
         <v>93</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -8284,10 +8404,10 @@
         <v>14</v>
       </c>
       <c r="D264" s="23" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -8297,10 +8417,10 @@
         <v>14</v>
       </c>
       <c r="D265" s="23" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E265" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -8310,10 +8430,10 @@
         <v>14</v>
       </c>
       <c r="D266" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="E266" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="E266" s="7" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -8323,10 +8443,10 @@
         <v>14</v>
       </c>
       <c r="D267" s="23" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E267" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -8336,10 +8456,10 @@
         <v>14</v>
       </c>
       <c r="D268" s="23" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E268" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -8349,10 +8469,10 @@
         <v>14</v>
       </c>
       <c r="D269" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="E269" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="E269" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -8362,10 +8482,10 @@
         <v>14</v>
       </c>
       <c r="D270" s="23" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E270" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -8375,10 +8495,10 @@
         <v>14</v>
       </c>
       <c r="D271" s="23" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E271" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -8388,10 +8508,10 @@
         <v>14</v>
       </c>
       <c r="D272" s="23" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -8404,7 +8524,7 @@
         <v>75</v>
       </c>
       <c r="E273" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -8414,18 +8534,18 @@
         <v>14</v>
       </c>
       <c r="D274" s="23" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E274" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="36" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B275" s="39" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C275" s="41" t="s">
         <v>14</v>
@@ -8434,7 +8554,7 @@
         <v>75</v>
       </c>
       <c r="E275" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -8446,10 +8566,10 @@
         <v>21</v>
       </c>
       <c r="D276" s="23" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E276" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -8459,10 +8579,10 @@
         <v>21</v>
       </c>
       <c r="D277" s="23" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E277" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -8472,10 +8592,10 @@
         <v>21</v>
       </c>
       <c r="D278" s="23" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E278" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -8485,10 +8605,10 @@
         <v>14</v>
       </c>
       <c r="D279" s="23" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E279" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -8501,7 +8621,7 @@
         <v>276</v>
       </c>
       <c r="E280" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -8514,7 +8634,7 @@
         <v>275</v>
       </c>
       <c r="E281" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -8524,25 +8644,25 @@
         <v>14</v>
       </c>
       <c r="D282" s="23" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E282" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="37"/>
       <c r="B283" s="36" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C283" s="41" t="s">
         <v>14</v>
       </c>
       <c r="D283" s="23" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -8552,10 +8672,10 @@
         <v>14</v>
       </c>
       <c r="D284" s="23" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E284" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -8568,7 +8688,7 @@
         <v>203</v>
       </c>
       <c r="E285" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -8583,7 +8703,7 @@
         <v>197</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -8596,7 +8716,7 @@
         <v>210</v>
       </c>
       <c r="E287" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -8609,7 +8729,7 @@
         <v>213</v>
       </c>
       <c r="E288" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -8622,7 +8742,7 @@
         <v>93</v>
       </c>
       <c r="E289" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8632,10 +8752,10 @@
         <v>14</v>
       </c>
       <c r="D290" s="23" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E290" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8645,10 +8765,10 @@
         <v>14</v>
       </c>
       <c r="D291" s="23" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8658,18 +8778,18 @@
         <v>14</v>
       </c>
       <c r="D292" s="23" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="36" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B293" s="16" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C293" s="41" t="s">
         <v>14</v>
@@ -8678,22 +8798,22 @@
         <v>75</v>
       </c>
       <c r="E293" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="37"/>
       <c r="B294" s="36" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C294" s="41" t="s">
         <v>14</v>
       </c>
       <c r="D294" s="23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E294" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8703,10 +8823,10 @@
         <v>14</v>
       </c>
       <c r="D295" s="23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E295" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8716,10 +8836,10 @@
         <v>14</v>
       </c>
       <c r="D296" s="23" t="s">
-        <v>146</v>
+        <v>554</v>
       </c>
       <c r="E296" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8732,7 +8852,7 @@
         <v>203</v>
       </c>
       <c r="E297" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8745,7 +8865,7 @@
         <v>204</v>
       </c>
       <c r="E298" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8758,7 +8878,7 @@
         <v>206</v>
       </c>
       <c r="E299" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8768,10 +8888,10 @@
         <v>14</v>
       </c>
       <c r="D300" s="23" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E300" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8781,10 +8901,10 @@
         <v>14</v>
       </c>
       <c r="D301" s="23" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E301" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8794,10 +8914,10 @@
         <v>14</v>
       </c>
       <c r="D302" s="23" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E302" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8807,10 +8927,10 @@
         <v>14</v>
       </c>
       <c r="D303" s="23" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E303" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8822,7 +8942,7 @@
         <v>21</v>
       </c>
       <c r="D304" s="23" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="E304" s="7" t="s">
         <v>152</v>
@@ -8835,7 +8955,7 @@
         <v>21</v>
       </c>
       <c r="D305" s="23" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E305" s="7" t="s">
         <v>79</v>
@@ -8848,7 +8968,7 @@
         <v>21</v>
       </c>
       <c r="D306" s="23" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="E306" s="7" t="s">
         <v>82</v>
@@ -8861,7 +8981,7 @@
         <v>21</v>
       </c>
       <c r="D307" s="23" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E307" s="7" t="s">
         <v>85</v>
@@ -8874,10 +8994,10 @@
         <v>21</v>
       </c>
       <c r="D308" s="23" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E308" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8887,7 +9007,7 @@
         <v>21</v>
       </c>
       <c r="D309" s="23" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E309" s="7" t="s">
         <v>433</v>
@@ -8900,10 +9020,10 @@
         <v>21</v>
       </c>
       <c r="D310" s="23" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E310" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8913,10 +9033,10 @@
         <v>14</v>
       </c>
       <c r="D311" s="23" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="E311" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8926,10 +9046,10 @@
         <v>14</v>
       </c>
       <c r="D312" s="23" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E312" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8939,10 +9059,10 @@
         <v>14</v>
       </c>
       <c r="D313" s="23" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="E313" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8952,10 +9072,10 @@
         <v>14</v>
       </c>
       <c r="D314" s="23" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E314" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8965,10 +9085,10 @@
         <v>14</v>
       </c>
       <c r="D315" s="23" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="E315" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8981,7 +9101,7 @@
         <v>276</v>
       </c>
       <c r="E316" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8994,7 +9114,7 @@
         <v>275</v>
       </c>
       <c r="E317" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -9007,7 +9127,7 @@
         <v>171</v>
       </c>
       <c r="E318" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -9020,7 +9140,7 @@
         <v>173</v>
       </c>
       <c r="E319" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -9030,10 +9150,10 @@
         <v>21</v>
       </c>
       <c r="D320" s="23" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="E320" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -9043,10 +9163,10 @@
         <v>21</v>
       </c>
       <c r="D321" s="23" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="E321" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -9056,10 +9176,10 @@
         <v>21</v>
       </c>
       <c r="D322" s="23" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="E322" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -9069,10 +9189,10 @@
         <v>14</v>
       </c>
       <c r="D323" s="23" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E323" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -9082,10 +9202,10 @@
         <v>14</v>
       </c>
       <c r="D324" s="23" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="E324" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -9100,7 +9220,7 @@
         <v>210</v>
       </c>
       <c r="E325" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -9113,7 +9233,7 @@
         <v>213</v>
       </c>
       <c r="E326" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -9126,7 +9246,7 @@
         <v>215</v>
       </c>
       <c r="E327" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -9136,10 +9256,10 @@
         <v>14</v>
       </c>
       <c r="D328" s="23" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="E328" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -9149,10 +9269,10 @@
         <v>14</v>
       </c>
       <c r="D329" s="23" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="E329" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -9162,10 +9282,10 @@
         <v>14</v>
       </c>
       <c r="D330" s="23" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="E330" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -9178,7 +9298,7 @@
         <v>397</v>
       </c>
       <c r="E331" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -9191,7 +9311,7 @@
         <v>93</v>
       </c>
       <c r="E332" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -9204,7 +9324,7 @@
         <v>293</v>
       </c>
       <c r="E333" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -9217,7 +9337,7 @@
         <v>329</v>
       </c>
       <c r="E334" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -9253,10 +9373,10 @@
         <v>14</v>
       </c>
       <c r="D337" s="23" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="E337" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -9266,16 +9386,16 @@
         <v>14</v>
       </c>
       <c r="D338" s="23" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="E338" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="37"/>
       <c r="B339" s="36" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C339" s="16" t="s">
         <v>14</v>
@@ -9294,7 +9414,7 @@
         <v>14</v>
       </c>
       <c r="D340" s="23" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E340" s="7" t="s">
         <v>306</v>
@@ -9315,25 +9435,25 @@
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="37" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B342" s="39" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C342" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D342" s="23" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="E342" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="37"/>
       <c r="B343" s="39" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C343" s="16" t="s">
         <v>14</v>
@@ -9342,13 +9462,13 @@
         <v>75</v>
       </c>
       <c r="E343" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="37"/>
       <c r="B344" s="39" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C344" s="16" t="s">
         <v>14</v>
@@ -9380,10 +9500,10 @@
         <v>14</v>
       </c>
       <c r="D346" s="23" t="s">
-        <v>617</v>
+        <v>554</v>
       </c>
       <c r="E346" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -9395,10 +9515,10 @@
         <v>14</v>
       </c>
       <c r="D347" s="23" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E347" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -9408,10 +9528,10 @@
         <v>14</v>
       </c>
       <c r="D348" s="23" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E348" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9421,10 +9541,10 @@
         <v>14</v>
       </c>
       <c r="D349" s="23" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E349" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -9434,10 +9554,10 @@
         <v>14</v>
       </c>
       <c r="D350" s="23" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E350" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9447,10 +9567,10 @@
         <v>14</v>
       </c>
       <c r="D351" s="23" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E351" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9460,10 +9580,10 @@
         <v>14</v>
       </c>
       <c r="D352" s="23" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E352" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9473,10 +9593,10 @@
         <v>14</v>
       </c>
       <c r="D353" s="23" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E353" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9486,10 +9606,10 @@
         <v>14</v>
       </c>
       <c r="D354" s="23" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E354" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9499,10 +9619,10 @@
         <v>14</v>
       </c>
       <c r="D355" s="23" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E355" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9512,22 +9632,22 @@
         <v>14</v>
       </c>
       <c r="D356" s="23" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E356" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="37"/>
       <c r="B357" s="39" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C357" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D357" s="23" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E357" s="7" t="s">
         <v>233</v>
@@ -9540,10 +9660,10 @@
         <v>14</v>
       </c>
       <c r="D358" s="23" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E358" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9555,10 +9675,10 @@
         <v>14</v>
       </c>
       <c r="D359" s="23" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E359" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9568,10 +9688,10 @@
         <v>14</v>
       </c>
       <c r="D360" s="23" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E360" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9581,15 +9701,15 @@
         <v>14</v>
       </c>
       <c r="D361" s="23" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E361" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="36" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B362" s="36" t="s">
         <v>150</v>
@@ -9598,10 +9718,10 @@
         <v>14</v>
       </c>
       <c r="D362" s="23" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E362" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9611,10 +9731,10 @@
         <v>14</v>
       </c>
       <c r="D363" s="23" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E363" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9624,10 +9744,10 @@
         <v>14</v>
       </c>
       <c r="D364" s="23" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E364" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9637,10 +9757,10 @@
         <v>14</v>
       </c>
       <c r="D365" s="23" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E365" s="7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9650,10 +9770,10 @@
         <v>14</v>
       </c>
       <c r="D366" s="23" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E366" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9668,7 +9788,7 @@
         <v>93</v>
       </c>
       <c r="E367" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9678,15 +9798,15 @@
         <v>14</v>
       </c>
       <c r="D368" s="23" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E368" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="36" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B369" s="36" t="s">
         <v>150</v>
@@ -9695,10 +9815,10 @@
         <v>14</v>
       </c>
       <c r="D369" s="23" t="s">
-        <v>656</v>
+        <v>620</v>
       </c>
       <c r="E369" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9708,7 +9828,7 @@
         <v>14</v>
       </c>
       <c r="D370" s="23" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
       <c r="E370" s="7" t="s">
         <v>659</v>
@@ -9724,7 +9844,7 @@
         <v>660</v>
       </c>
       <c r="E371" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9752,7 +9872,7 @@
         <v>197</v>
       </c>
       <c r="E373" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9784,7 +9904,7 @@
     <row r="376" spans="1:5">
       <c r="A376" s="37"/>
       <c r="B376" s="39" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C376" s="16" t="s">
         <v>14</v>
@@ -9806,7 +9926,7 @@
         <v>667</v>
       </c>
       <c r="E377" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9844,7 +9964,7 @@
     <row r="380" spans="1:5">
       <c r="A380" s="37"/>
       <c r="B380" s="36" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C380" s="16" t="s">
         <v>14</v>
@@ -9853,7 +9973,7 @@
         <v>142</v>
       </c>
       <c r="E380" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9866,7 +9986,7 @@
         <v>144</v>
       </c>
       <c r="E381" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9879,7 +9999,7 @@
         <v>146</v>
       </c>
       <c r="E382" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9889,7 +10009,7 @@
         <v>14</v>
       </c>
       <c r="D383" s="23" t="s">
-        <v>617</v>
+        <v>554</v>
       </c>
       <c r="E383" s="7" t="s">
         <v>674</v>
@@ -9967,7 +10087,7 @@
         <v>14</v>
       </c>
       <c r="D389" s="23" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E389" s="7" t="s">
         <v>681</v>
@@ -9980,7 +10100,7 @@
         <v>14</v>
       </c>
       <c r="D390" s="23" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E390" s="7" t="s">
         <v>682</v>
@@ -10006,7 +10126,7 @@
         <v>14</v>
       </c>
       <c r="D392" s="23" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E392" s="7" t="s">
         <v>685</v>
@@ -10037,7 +10157,7 @@
         <v>688</v>
       </c>
       <c r="E394" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -10128,7 +10248,7 @@
         <v>276</v>
       </c>
       <c r="E401" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -10141,7 +10261,7 @@
         <v>275</v>
       </c>
       <c r="E402" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -10154,7 +10274,7 @@
         <v>168</v>
       </c>
       <c r="E403" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -10167,7 +10287,7 @@
         <v>166</v>
       </c>
       <c r="E404" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -10180,7 +10300,7 @@
         <v>347</v>
       </c>
       <c r="E405" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -10193,7 +10313,7 @@
         <v>173</v>
       </c>
       <c r="E406" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -10212,13 +10332,13 @@
     <row r="408" spans="1:5">
       <c r="A408" s="37"/>
       <c r="B408" s="37" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C408" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D408" s="23" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E408" s="7" t="s">
         <v>306</v>
@@ -10231,7 +10351,7 @@
         <v>14</v>
       </c>
       <c r="D409" s="23" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E409" s="7" t="s">
         <v>251</v>
@@ -10244,10 +10364,10 @@
         <v>14</v>
       </c>
       <c r="D410" s="23" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E410" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10272,7 +10392,7 @@
         <v>14</v>
       </c>
       <c r="D412" s="23" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E412" s="7" t="s">
         <v>703</v>
@@ -10324,7 +10444,7 @@
         <v>14</v>
       </c>
       <c r="D416" s="23" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="E416" s="7" t="s">
         <v>707</v>
@@ -10337,7 +10457,7 @@
         <v>14</v>
       </c>
       <c r="D417" s="23" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="E417" s="7" t="s">
         <v>708</v>
@@ -10363,7 +10483,7 @@
         <v>14</v>
       </c>
       <c r="D419" s="23" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="E419" s="7" t="s">
         <v>711</v>
@@ -10418,7 +10538,7 @@
         <v>716</v>
       </c>
       <c r="E423" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10426,7 +10546,7 @@
         <v>717</v>
       </c>
       <c r="B424" s="36" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C424" s="16" t="s">
         <v>14</v>
@@ -10445,7 +10565,7 @@
         <v>14</v>
       </c>
       <c r="D425" s="23" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E425" s="7" t="s">
         <v>682</v>
@@ -10486,7 +10606,7 @@
         <v>14</v>
       </c>
       <c r="D428" s="23" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="E428" s="7" t="s">
         <v>708</v>
@@ -10525,7 +10645,7 @@
         <v>723</v>
       </c>
       <c r="B431" s="36" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C431" s="16" t="s">
         <v>14</v>
@@ -10601,7 +10721,7 @@
         <v>730</v>
       </c>
       <c r="E436" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -10679,7 +10799,7 @@
         <v>347</v>
       </c>
       <c r="E442" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -10692,13 +10812,13 @@
         <v>173</v>
       </c>
       <c r="E443" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="444" spans="1:5">
       <c r="A444" s="37"/>
       <c r="B444" s="37" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C444" s="16" t="s">
         <v>14</v>
@@ -10720,7 +10840,7 @@
         <v>230</v>
       </c>
       <c r="E445" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -10813,7 +10933,7 @@
         <v>293</v>
       </c>
       <c r="E452" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -11153,7 +11273,7 @@
     <row r="475" spans="1:5">
       <c r="A475" s="37"/>
       <c r="B475" s="36" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C475" s="16" t="s">
         <v>14</v>
@@ -11237,7 +11357,7 @@
         <v>14</v>
       </c>
       <c r="D481" s="23" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E481" s="7" t="s">
         <v>814</v>
@@ -11541,7 +11661,7 @@
         <v>858</v>
       </c>
       <c r="E504" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -11619,7 +11739,7 @@
         <v>865</v>
       </c>
       <c r="E510" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -11632,7 +11752,7 @@
         <v>866</v>
       </c>
       <c r="E511" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -11658,7 +11778,7 @@
         <v>869</v>
       </c>
       <c r="E513" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -11671,7 +11791,7 @@
         <v>870</v>
       </c>
       <c r="E514" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -11865,10 +11985,10 @@
         <v>14</v>
       </c>
       <c r="D529" s="23" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E529" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -11878,10 +11998,10 @@
         <v>14</v>
       </c>
       <c r="D530" s="23" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E530" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -11894,7 +12014,7 @@
         <v>894</v>
       </c>
       <c r="E531" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -11904,10 +12024,10 @@
         <v>14</v>
       </c>
       <c r="D532" s="23" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E532" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -11917,10 +12037,10 @@
         <v>14</v>
       </c>
       <c r="D533" s="23" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E533" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -11930,10 +12050,10 @@
         <v>14</v>
       </c>
       <c r="D534" s="23" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E534" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -12013,7 +12133,7 @@
         <v>230</v>
       </c>
       <c r="E540" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -12036,7 +12156,7 @@
         <v>14</v>
       </c>
       <c r="D542" s="23" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E542" s="7" t="s">
         <v>905</v>
@@ -12049,7 +12169,7 @@
         <v>14</v>
       </c>
       <c r="D543" s="23" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E543" s="7" t="s">
         <v>906</v>
@@ -12181,7 +12301,7 @@
         <v>14</v>
       </c>
       <c r="D553" s="23" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="E553" s="7" t="s">
         <v>916</v>
@@ -12194,7 +12314,7 @@
         <v>14</v>
       </c>
       <c r="D554" s="23" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="E554" s="7" t="s">
         <v>917</v>
@@ -12207,7 +12327,7 @@
         <v>14</v>
       </c>
       <c r="D555" s="23" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="E555" s="7" t="s">
         <v>918</v>
@@ -12483,7 +12603,7 @@
         <v>957</v>
       </c>
       <c r="E576" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -12509,7 +12629,7 @@
         <v>959</v>
       </c>
       <c r="E578" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -12608,7 +12728,7 @@
         <v>974</v>
       </c>
       <c r="B586" s="36" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C586" s="16" t="s">
         <v>14</v>
@@ -12681,7 +12801,7 @@
         <v>14</v>
       </c>
       <c r="D591" s="23" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E591" s="7" t="s">
         <v>978</v>
@@ -12697,7 +12817,7 @@
         <v>979</v>
       </c>
       <c r="E592" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -12720,7 +12840,7 @@
         <v>14</v>
       </c>
       <c r="D594" s="23" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E594" s="7" t="s">
         <v>982</v>
@@ -12736,7 +12856,7 @@
         <v>983</v>
       </c>
       <c r="E595" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -12746,10 +12866,10 @@
         <v>14</v>
       </c>
       <c r="D596" s="23" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E596" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="597" spans="1:5">
@@ -12764,7 +12884,7 @@
         <v>984</v>
       </c>
       <c r="E597" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="598" spans="1:5">
@@ -12818,7 +12938,7 @@
         <v>959</v>
       </c>
       <c r="E601" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -12837,7 +12957,7 @@
     <row r="603" spans="1:5">
       <c r="A603" s="37"/>
       <c r="B603" s="36" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C603" s="16" t="s">
         <v>14</v>
@@ -12846,7 +12966,7 @@
         <v>230</v>
       </c>
       <c r="E603" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="604" spans="1:5">
@@ -12856,7 +12976,7 @@
         <v>14</v>
       </c>
       <c r="D604" s="23" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E604" s="7" t="s">
         <v>233</v>
@@ -12912,7 +13032,7 @@
         <v>990</v>
       </c>
       <c r="B608" s="36" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C608" s="16" t="s">
         <v>14</v>
@@ -13018,7 +13138,7 @@
     <row r="616" spans="1:5">
       <c r="A616" s="37"/>
       <c r="B616" s="36" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C616" s="16" t="s">
         <v>14</v>
@@ -13027,7 +13147,7 @@
         <v>230</v>
       </c>
       <c r="E616" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="617" spans="1:5">
@@ -13055,7 +13175,7 @@
         <v>1000</v>
       </c>
       <c r="E618" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="619" spans="1:5">
@@ -13200,7 +13320,7 @@
         <v>293</v>
       </c>
       <c r="E629" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="630" spans="1:5">
@@ -13213,7 +13333,7 @@
         <v>1006</v>
       </c>
       <c r="E630" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="631" spans="1:5">
@@ -13386,7 +13506,7 @@
         <v>1024</v>
       </c>
       <c r="E643" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="644" spans="1:5">
@@ -13424,7 +13544,7 @@
         <v>14</v>
       </c>
       <c r="D646" s="23" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E646" s="7" t="s">
         <v>978</v>
@@ -13463,16 +13583,16 @@
         <v>14</v>
       </c>
       <c r="D649" s="23" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E649" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="650" spans="1:5">
       <c r="A650" s="37"/>
       <c r="B650" s="36" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C650" s="16" t="s">
         <v>14</v>
@@ -13481,7 +13601,7 @@
         <v>230</v>
       </c>
       <c r="E650" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -13509,7 +13629,7 @@
         <v>959</v>
       </c>
       <c r="E652" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="653" spans="1:5">
@@ -13565,7 +13685,7 @@
         <v>1031</v>
       </c>
       <c r="E656" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="657" spans="1:5">
@@ -13584,7 +13704,7 @@
     <row r="658" spans="1:5">
       <c r="A658" s="37"/>
       <c r="B658" s="36" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C658" s="16" t="s">
         <v>14</v>
@@ -13593,7 +13713,7 @@
         <v>230</v>
       </c>
       <c r="E658" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -13673,7 +13793,7 @@
         <v>959</v>
       </c>
       <c r="E664" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -13729,13 +13849,13 @@
         <v>1041</v>
       </c>
       <c r="E668" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="669" spans="1:5">
       <c r="A669" s="37"/>
       <c r="B669" s="39" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C669" s="16" t="s">
         <v>14</v>
@@ -13955,7 +14075,7 @@
         <v>14</v>
       </c>
       <c r="D685" s="23" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E685" s="7" t="s">
         <v>978</v>
@@ -13971,7 +14091,7 @@
         <v>979</v>
       </c>
       <c r="E686" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="687" spans="1:5">
@@ -13981,7 +14101,7 @@
         <v>14</v>
       </c>
       <c r="D687" s="23" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E687" s="7" t="s">
         <v>982</v>
@@ -13997,7 +14117,7 @@
         <v>983</v>
       </c>
       <c r="E688" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="689" spans="1:5">
@@ -14007,10 +14127,10 @@
         <v>14</v>
       </c>
       <c r="D689" s="23" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E689" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="690" spans="1:5">
@@ -14025,7 +14145,7 @@
         <v>293</v>
       </c>
       <c r="E690" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="691" spans="1:5">
@@ -14038,7 +14158,7 @@
         <v>1066</v>
       </c>
       <c r="E691" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="692" spans="1:5">
@@ -14135,7 +14255,7 @@
         <v>1078</v>
       </c>
       <c r="E698" s="27" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="699" spans="1:5">
@@ -14387,7 +14507,7 @@
         <v>14</v>
       </c>
       <c r="D717" s="23" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E717" s="7" t="s">
         <v>978</v>
@@ -14426,10 +14546,10 @@
         <v>14</v>
       </c>
       <c r="D720" s="23" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E720" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="721" spans="1:5">
@@ -14444,7 +14564,7 @@
         <v>1066</v>
       </c>
       <c r="E721" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="722" spans="1:5">
@@ -14455,224 +14575,2767 @@
       <c r="E722" s="7"/>
     </row>
     <row r="723" spans="1:5">
-      <c r="A723" s="16"/>
-      <c r="B723" s="16"/>
-      <c r="C723" s="16"/>
-      <c r="D723" s="23"/>
-      <c r="E723" s="7"/>
+      <c r="A723" s="43" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B723" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C723" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D723" s="23" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E723" s="7" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="724" spans="1:5">
-      <c r="A724" s="16"/>
-      <c r="B724" s="16"/>
-      <c r="C724" s="16"/>
-      <c r="D724" s="23"/>
-      <c r="E724" s="7"/>
+      <c r="A724" s="44"/>
+      <c r="B724" s="37"/>
+      <c r="C724" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D724" s="23" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E724" s="7" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="725" spans="1:5">
-      <c r="A725" s="16"/>
-      <c r="B725" s="16"/>
-      <c r="C725" s="16"/>
-      <c r="D725" s="23"/>
-      <c r="E725" s="7"/>
+      <c r="A725" s="44"/>
+      <c r="B725" s="37"/>
+      <c r="C725" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D725" s="23" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E725" s="7" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="726" spans="1:5">
-      <c r="A726" s="16"/>
-      <c r="B726" s="16"/>
-      <c r="C726" s="16"/>
-      <c r="D726" s="23"/>
-      <c r="E726" s="7"/>
+      <c r="A726" s="44"/>
+      <c r="B726" s="37"/>
+      <c r="C726" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D726" s="23" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E726" s="7" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="727" spans="1:5">
-      <c r="A727" s="16"/>
-      <c r="B727" s="16"/>
-      <c r="C727" s="16"/>
-      <c r="D727" s="23"/>
-      <c r="E727" s="7"/>
+      <c r="A727" s="44"/>
+      <c r="B727" s="37"/>
+      <c r="C727" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D727" s="23" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E727" s="7" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="728" spans="1:5">
-      <c r="A728" s="16"/>
-      <c r="B728" s="16"/>
-      <c r="C728" s="16"/>
-      <c r="D728" s="23"/>
-      <c r="E728" s="7"/>
+      <c r="A728" s="44"/>
+      <c r="B728" s="37"/>
+      <c r="C728" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D728" s="23" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E728" s="7" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="729" spans="1:5">
-      <c r="A729" s="16"/>
-      <c r="B729" s="16"/>
-      <c r="C729" s="16"/>
-      <c r="D729" s="23"/>
-      <c r="E729" s="7"/>
+      <c r="A729" s="44"/>
+      <c r="B729" s="37"/>
+      <c r="C729" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D729" s="23" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E729" s="7" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="730" spans="1:5">
-      <c r="A730" s="16"/>
-      <c r="B730" s="16"/>
-      <c r="C730" s="16"/>
-      <c r="D730" s="23"/>
-      <c r="E730" s="7"/>
+      <c r="A730" s="44"/>
+      <c r="B730" s="37"/>
+      <c r="C730" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D730" s="23" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E730" s="7" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="731" spans="1:5">
-      <c r="A731" s="16"/>
-      <c r="B731" s="16"/>
-      <c r="C731" s="16"/>
-      <c r="D731" s="23"/>
-      <c r="E731" s="7"/>
+      <c r="A731" s="44"/>
+      <c r="B731" s="37"/>
+      <c r="C731" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D731" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="E731" s="7" t="s">
+        <v>1118</v>
+      </c>
     </row>
     <row r="732" spans="1:5">
-      <c r="A732" s="16"/>
-      <c r="B732" s="16"/>
-      <c r="C732" s="16"/>
-      <c r="D732" s="23"/>
-      <c r="E732" s="7"/>
+      <c r="A732" s="44"/>
+      <c r="B732" s="37"/>
+      <c r="C732" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D732" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="E732" s="7" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="733" spans="1:5">
-      <c r="A733" s="16"/>
-      <c r="B733" s="16"/>
-      <c r="C733" s="16"/>
-      <c r="D733" s="23"/>
-      <c r="E733" s="7"/>
+      <c r="A733" s="44"/>
+      <c r="B733" s="37"/>
+      <c r="C733" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D733" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="E733" s="7" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="734" spans="1:5">
-      <c r="A734" s="16"/>
-      <c r="B734" s="16"/>
-      <c r="C734" s="16"/>
-      <c r="D734" s="23"/>
-      <c r="E734" s="7"/>
+      <c r="A734" s="44"/>
+      <c r="B734" s="37"/>
+      <c r="C734" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D734" s="23" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E734" s="7" t="s">
+        <v>1120</v>
+      </c>
     </row>
     <row r="735" spans="1:5">
-      <c r="A735" s="16"/>
-      <c r="B735" s="16"/>
-      <c r="C735" s="16"/>
-      <c r="D735" s="23"/>
-      <c r="E735" s="7"/>
+      <c r="A735" s="44"/>
+      <c r="B735" s="37"/>
+      <c r="C735" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D735" s="23" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E735" s="7" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="736" spans="1:5">
-      <c r="A736" s="16"/>
-      <c r="B736" s="16"/>
-      <c r="C736" s="16"/>
-      <c r="D736" s="23"/>
-      <c r="E736" s="7"/>
+      <c r="A736" s="44"/>
+      <c r="B736" s="37"/>
+      <c r="C736" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D736" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="E736" s="7" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="737" spans="1:5">
-      <c r="A737" s="16"/>
-      <c r="B737" s="16"/>
-      <c r="C737" s="16"/>
-      <c r="D737" s="23"/>
-      <c r="E737" s="7"/>
+      <c r="A737" s="44"/>
+      <c r="B737" s="37"/>
+      <c r="C737" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D737" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="E737" s="7" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="738" spans="1:5">
-      <c r="A738" s="16"/>
-      <c r="B738" s="16"/>
-      <c r="C738" s="16"/>
-      <c r="D738" s="23"/>
-      <c r="E738" s="7"/>
+      <c r="A738" s="44"/>
+      <c r="B738" s="37"/>
+      <c r="C738" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D738" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E738" s="7" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="739" spans="1:5">
-      <c r="A739" s="16"/>
-      <c r="B739" s="16"/>
-      <c r="C739" s="16"/>
-      <c r="D739" s="23"/>
-      <c r="E739" s="7"/>
+      <c r="A739" s="44"/>
+      <c r="B739" s="37"/>
+      <c r="C739" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D739" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="E739" s="7" t="s">
+        <v>1122</v>
+      </c>
     </row>
     <row r="740" spans="1:5">
-      <c r="A740" s="16"/>
-      <c r="B740" s="16"/>
-      <c r="C740" s="16"/>
-      <c r="D740" s="23"/>
-      <c r="E740" s="7"/>
+      <c r="A740" s="44"/>
+      <c r="B740" s="37"/>
+      <c r="C740" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D740" s="23" t="s">
+        <v>736</v>
+      </c>
+      <c r="E740" s="7" t="s">
+        <v>1123</v>
+      </c>
     </row>
     <row r="741" spans="1:5">
-      <c r="A741" s="16"/>
-      <c r="B741" s="16"/>
-      <c r="C741" s="16"/>
-      <c r="D741" s="23"/>
-      <c r="E741" s="7"/>
+      <c r="A741" s="44"/>
+      <c r="B741" s="37"/>
+      <c r="C741" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D741" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="E741" s="7" t="s">
+        <v>1124</v>
+      </c>
     </row>
     <row r="742" spans="1:5">
-      <c r="A742" s="16"/>
-      <c r="B742" s="16"/>
-      <c r="C742" s="16"/>
-      <c r="D742" s="23"/>
-      <c r="E742" s="7"/>
+      <c r="A742" s="44"/>
+      <c r="B742" s="37"/>
+      <c r="C742" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D742" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="E742" s="7" t="s">
+        <v>1125</v>
+      </c>
     </row>
     <row r="743" spans="1:5">
-      <c r="A743" s="16"/>
-      <c r="B743" s="16"/>
-      <c r="C743" s="16"/>
-      <c r="D743" s="23"/>
-      <c r="E743" s="7"/>
+      <c r="A743" s="44"/>
+      <c r="B743" s="36" t="s">
+        <v>471</v>
+      </c>
+      <c r="C743" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D743" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E743" s="7" t="s">
+        <v>1126</v>
+      </c>
     </row>
     <row r="744" spans="1:5">
-      <c r="A744" s="16"/>
-      <c r="B744" s="16"/>
-      <c r="C744" s="16"/>
-      <c r="D744" s="23"/>
-      <c r="E744" s="7"/>
+      <c r="A744" s="44"/>
+      <c r="B744" s="37"/>
+      <c r="C744" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D744" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E744" s="7" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="745" spans="1:5">
-      <c r="A745" s="16"/>
-      <c r="B745" s="16"/>
-      <c r="C745" s="16"/>
-      <c r="D745" s="23"/>
-      <c r="E745" s="7"/>
+      <c r="A745" s="44"/>
+      <c r="B745" s="37"/>
+      <c r="C745" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D745" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="E745" s="7" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="746" spans="1:5">
-      <c r="A746" s="16"/>
-      <c r="B746" s="16"/>
-      <c r="C746" s="16"/>
-      <c r="D746" s="23"/>
-      <c r="E746" s="7"/>
+      <c r="A746" s="44"/>
+      <c r="B746" s="37"/>
+      <c r="C746" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D746" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E746" s="7" t="s">
+        <v>1126</v>
+      </c>
     </row>
     <row r="747" spans="1:5">
-      <c r="A747" s="16"/>
-      <c r="B747" s="16"/>
-      <c r="C747" s="16"/>
-      <c r="D747" s="23"/>
-      <c r="E747" s="7"/>
+      <c r="A747" s="44"/>
+      <c r="B747" s="37"/>
+      <c r="C747" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D747" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="E747" s="7" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="748" spans="1:5">
-      <c r="A748" s="16"/>
-      <c r="B748" s="16"/>
-      <c r="C748" s="16"/>
-      <c r="D748" s="23"/>
-      <c r="E748" s="7"/>
+      <c r="A748" s="44"/>
+      <c r="B748" s="37"/>
+      <c r="C748" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D748" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E748" s="7" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="749" spans="1:5">
-      <c r="A749" s="16"/>
-      <c r="B749" s="16"/>
-      <c r="C749" s="16"/>
-      <c r="D749" s="23"/>
-      <c r="E749" s="7"/>
+      <c r="A749" s="44"/>
+      <c r="B749" s="37"/>
+      <c r="C749" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D749" s="23" t="s">
+        <v>559</v>
+      </c>
+      <c r="E749" s="7" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="750" spans="1:5">
-      <c r="A750" s="16"/>
-      <c r="B750" s="16"/>
-      <c r="C750" s="16"/>
-      <c r="D750" s="23"/>
-      <c r="E750" s="7"/>
+      <c r="A750" s="44"/>
+      <c r="B750" s="37"/>
+      <c r="C750" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D750" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="E750" s="7" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="751" spans="1:5">
-      <c r="A751" s="16"/>
-      <c r="B751" s="16"/>
-      <c r="C751" s="16"/>
-      <c r="D751" s="23"/>
-      <c r="E751" s="7"/>
+      <c r="A751" s="44"/>
+      <c r="B751" s="37"/>
+      <c r="C751" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D751" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="E751" s="7" t="s">
+        <v>1128</v>
+      </c>
     </row>
     <row r="752" spans="1:5">
-      <c r="A752" s="16"/>
-      <c r="B752" s="16"/>
-      <c r="C752" s="16"/>
-      <c r="D752" s="23"/>
-      <c r="E752" s="7"/>
+      <c r="A752" s="44"/>
+      <c r="B752" s="38"/>
+      <c r="C752" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D752" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="E752" s="27" t="s">
+        <v>1129</v>
+      </c>
     </row>
     <row r="753" spans="1:5">
-      <c r="A753" s="16"/>
-      <c r="B753" s="16"/>
-      <c r="C753" s="16"/>
-      <c r="D753" s="23"/>
-      <c r="E753" s="7"/>
+      <c r="A753" s="44"/>
+      <c r="B753" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C753" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D753" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E753" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5">
+      <c r="A754" s="44"/>
+      <c r="B754" s="44"/>
+      <c r="C754" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D754" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="E754" s="7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5">
+      <c r="A755" s="44"/>
+      <c r="B755" s="44"/>
+      <c r="C755" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D755" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="E755" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5">
+      <c r="A756" s="44"/>
+      <c r="B756" s="44"/>
+      <c r="C756" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D756" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="E756" s="7" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5">
+      <c r="A757" s="44"/>
+      <c r="B757" s="44"/>
+      <c r="C757" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D757" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="E757" s="7" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5">
+      <c r="A758" s="44"/>
+      <c r="B758" s="44"/>
+      <c r="C758" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D758" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="E758" s="7" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5">
+      <c r="A759" s="44"/>
+      <c r="B759" s="44"/>
+      <c r="C759" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D759" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="E759" s="7" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5">
+      <c r="A760" s="44"/>
+      <c r="B760" s="44"/>
+      <c r="C760" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D760" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="E760" s="7" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5">
+      <c r="A761" s="44"/>
+      <c r="B761" s="44"/>
+      <c r="C761" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D761" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E761" s="7" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5">
+      <c r="A762" s="44"/>
+      <c r="B762" s="44"/>
+      <c r="C762" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D762" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E762" s="7" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5">
+      <c r="A763" s="44"/>
+      <c r="B763" s="44"/>
+      <c r="C763" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D763" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="E763" s="7" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5">
+      <c r="A764" s="44"/>
+      <c r="B764" s="44"/>
+      <c r="C764" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D764" s="23" t="s">
+        <v>600</v>
+      </c>
+      <c r="E764" s="7" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5">
+      <c r="A765" s="44"/>
+      <c r="B765" s="44"/>
+      <c r="C765" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D765" s="23" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E765" s="7" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5">
+      <c r="A766" s="44"/>
+      <c r="B766" s="44"/>
+      <c r="C766" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D766" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="E766" s="7" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5">
+      <c r="A767" s="44"/>
+      <c r="B767" s="44"/>
+      <c r="C767" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D767" s="23" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E767" s="7" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5">
+      <c r="A768" s="44"/>
+      <c r="B768" s="44"/>
+      <c r="C768" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D768" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="E768" s="7" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5">
+      <c r="A769" s="44"/>
+      <c r="B769" s="44"/>
+      <c r="C769" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D769" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="E769" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5">
+      <c r="A770" s="45"/>
+      <c r="B770" s="45"/>
+      <c r="C770" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D770" s="23" t="s">
+        <v>960</v>
+      </c>
+      <c r="E770" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5">
+      <c r="A771" s="16"/>
+      <c r="B771" s="16"/>
+      <c r="C771" s="16"/>
+      <c r="D771" s="23"/>
+      <c r="E771" s="7"/>
+    </row>
+    <row r="772" spans="1:5">
+      <c r="A772" s="16"/>
+      <c r="B772" s="16"/>
+      <c r="C772" s="16"/>
+      <c r="D772" s="23"/>
+      <c r="E772" s="7"/>
+    </row>
+    <row r="773" spans="1:5">
+      <c r="A773" s="16"/>
+      <c r="B773" s="16"/>
+      <c r="C773" s="16"/>
+      <c r="D773" s="23"/>
+      <c r="E773" s="7"/>
+    </row>
+    <row r="774" spans="1:5">
+      <c r="A774" s="16"/>
+      <c r="B774" s="16"/>
+      <c r="C774" s="16"/>
+      <c r="D774" s="23"/>
+      <c r="E774" s="7"/>
+    </row>
+    <row r="775" spans="1:5">
+      <c r="A775" s="16"/>
+      <c r="B775" s="16"/>
+      <c r="C775" s="16"/>
+      <c r="D775" s="23"/>
+      <c r="E775" s="7"/>
+    </row>
+    <row r="776" spans="1:5">
+      <c r="A776" s="16"/>
+      <c r="B776" s="16"/>
+      <c r="C776" s="16"/>
+      <c r="D776" s="23"/>
+      <c r="E776" s="7"/>
+    </row>
+    <row r="777" spans="1:5">
+      <c r="A777" s="16"/>
+      <c r="B777" s="16"/>
+      <c r="C777" s="16"/>
+      <c r="D777" s="23"/>
+      <c r="E777" s="7"/>
+    </row>
+    <row r="778" spans="1:5">
+      <c r="A778" s="16"/>
+      <c r="B778" s="16"/>
+      <c r="C778" s="16"/>
+      <c r="D778" s="23"/>
+      <c r="E778" s="7"/>
+    </row>
+    <row r="779" spans="1:5">
+      <c r="A779" s="16"/>
+      <c r="B779" s="16"/>
+      <c r="C779" s="16"/>
+      <c r="D779" s="23"/>
+      <c r="E779" s="7"/>
+    </row>
+    <row r="780" spans="1:5">
+      <c r="A780" s="16"/>
+      <c r="B780" s="16"/>
+      <c r="C780" s="16"/>
+      <c r="D780" s="23"/>
+      <c r="E780" s="7"/>
+    </row>
+    <row r="781" spans="1:5">
+      <c r="A781" s="16"/>
+      <c r="B781" s="16"/>
+      <c r="C781" s="16"/>
+      <c r="D781" s="23"/>
+      <c r="E781" s="7"/>
+    </row>
+    <row r="782" spans="1:5">
+      <c r="A782" s="16"/>
+      <c r="B782" s="16"/>
+      <c r="C782" s="16"/>
+      <c r="D782" s="23"/>
+      <c r="E782" s="7"/>
+    </row>
+    <row r="783" spans="1:5">
+      <c r="A783" s="16"/>
+      <c r="B783" s="16"/>
+      <c r="C783" s="16"/>
+      <c r="D783" s="23"/>
+      <c r="E783" s="7"/>
+    </row>
+    <row r="784" spans="1:5">
+      <c r="A784" s="16"/>
+      <c r="B784" s="16"/>
+      <c r="C784" s="16"/>
+      <c r="D784" s="23"/>
+      <c r="E784" s="7"/>
+    </row>
+    <row r="785" spans="1:5">
+      <c r="A785" s="16"/>
+      <c r="B785" s="16"/>
+      <c r="C785" s="16"/>
+      <c r="D785" s="23"/>
+      <c r="E785" s="7"/>
+    </row>
+    <row r="786" spans="1:5">
+      <c r="A786" s="16"/>
+      <c r="B786" s="16"/>
+      <c r="C786" s="16"/>
+      <c r="D786" s="23"/>
+      <c r="E786" s="7"/>
+    </row>
+    <row r="787" spans="1:5">
+      <c r="A787" s="16"/>
+      <c r="B787" s="16"/>
+      <c r="C787" s="16"/>
+      <c r="D787" s="23"/>
+      <c r="E787" s="7"/>
+    </row>
+    <row r="788" spans="1:5">
+      <c r="A788" s="16"/>
+      <c r="B788" s="16"/>
+      <c r="C788" s="16"/>
+      <c r="D788" s="23"/>
+      <c r="E788" s="7"/>
+    </row>
+    <row r="789" spans="1:5">
+      <c r="A789" s="16"/>
+      <c r="B789" s="16"/>
+      <c r="C789" s="16"/>
+      <c r="D789" s="23"/>
+      <c r="E789" s="7"/>
+    </row>
+    <row r="790" spans="1:5">
+      <c r="A790" s="16"/>
+      <c r="B790" s="16"/>
+      <c r="C790" s="16"/>
+      <c r="D790" s="23"/>
+      <c r="E790" s="7"/>
+    </row>
+    <row r="791" spans="1:5">
+      <c r="A791" s="16"/>
+      <c r="B791" s="16"/>
+      <c r="C791" s="16"/>
+      <c r="D791" s="23"/>
+      <c r="E791" s="7"/>
+    </row>
+    <row r="792" spans="1:5">
+      <c r="A792" s="16"/>
+      <c r="B792" s="16"/>
+      <c r="C792" s="16"/>
+      <c r="D792" s="23"/>
+      <c r="E792" s="7"/>
+    </row>
+    <row r="793" spans="1:5">
+      <c r="A793" s="16"/>
+      <c r="B793" s="16"/>
+      <c r="C793" s="16"/>
+      <c r="D793" s="23"/>
+      <c r="E793" s="7"/>
+    </row>
+    <row r="794" spans="1:5">
+      <c r="A794" s="16"/>
+      <c r="B794" s="16"/>
+      <c r="C794" s="16"/>
+      <c r="D794" s="23"/>
+      <c r="E794" s="7"/>
+    </row>
+    <row r="795" spans="1:5">
+      <c r="A795" s="16"/>
+      <c r="B795" s="16"/>
+      <c r="C795" s="16"/>
+      <c r="D795" s="23"/>
+      <c r="E795" s="7"/>
+    </row>
+    <row r="796" spans="1:5">
+      <c r="A796" s="16"/>
+      <c r="B796" s="16"/>
+      <c r="C796" s="16"/>
+      <c r="D796" s="23"/>
+      <c r="E796" s="7"/>
+    </row>
+    <row r="797" spans="1:5">
+      <c r="A797" s="16"/>
+      <c r="B797" s="16"/>
+      <c r="C797" s="16"/>
+      <c r="D797" s="23"/>
+      <c r="E797" s="7"/>
+    </row>
+    <row r="798" spans="1:5">
+      <c r="A798" s="16"/>
+      <c r="B798" s="16"/>
+      <c r="C798" s="16"/>
+      <c r="D798" s="23"/>
+      <c r="E798" s="7"/>
+    </row>
+    <row r="799" spans="1:5">
+      <c r="A799" s="16"/>
+      <c r="B799" s="16"/>
+      <c r="C799" s="16"/>
+      <c r="D799" s="23"/>
+      <c r="E799" s="7"/>
+    </row>
+    <row r="800" spans="1:5">
+      <c r="A800" s="16"/>
+      <c r="B800" s="16"/>
+      <c r="C800" s="16"/>
+      <c r="D800" s="23"/>
+      <c r="E800" s="7"/>
+    </row>
+    <row r="801" spans="1:5">
+      <c r="A801" s="16"/>
+      <c r="B801" s="16"/>
+      <c r="C801" s="16"/>
+      <c r="D801" s="23"/>
+      <c r="E801" s="7"/>
+    </row>
+    <row r="802" spans="1:5">
+      <c r="A802" s="16"/>
+      <c r="B802" s="16"/>
+      <c r="C802" s="16"/>
+      <c r="D802" s="23"/>
+      <c r="E802" s="7"/>
+    </row>
+    <row r="803" spans="1:5">
+      <c r="A803" s="16"/>
+      <c r="B803" s="16"/>
+      <c r="C803" s="16"/>
+      <c r="D803" s="23"/>
+      <c r="E803" s="7"/>
+    </row>
+    <row r="804" spans="1:5">
+      <c r="A804" s="16"/>
+      <c r="B804" s="16"/>
+      <c r="C804" s="16"/>
+      <c r="D804" s="23"/>
+      <c r="E804" s="7"/>
+    </row>
+    <row r="805" spans="1:5">
+      <c r="A805" s="16"/>
+      <c r="B805" s="16"/>
+      <c r="C805" s="16"/>
+      <c r="D805" s="23"/>
+      <c r="E805" s="7"/>
+    </row>
+    <row r="806" spans="1:5">
+      <c r="A806" s="16"/>
+      <c r="B806" s="16"/>
+      <c r="C806" s="16"/>
+      <c r="D806" s="23"/>
+      <c r="E806" s="7"/>
+    </row>
+    <row r="807" spans="1:5">
+      <c r="A807" s="16"/>
+      <c r="B807" s="16"/>
+      <c r="C807" s="16"/>
+      <c r="D807" s="23"/>
+      <c r="E807" s="7"/>
+    </row>
+    <row r="808" spans="1:5">
+      <c r="A808" s="16"/>
+      <c r="B808" s="16"/>
+      <c r="C808" s="16"/>
+      <c r="D808" s="23"/>
+      <c r="E808" s="7"/>
+    </row>
+    <row r="809" spans="1:5">
+      <c r="A809" s="16"/>
+      <c r="B809" s="16"/>
+      <c r="C809" s="16"/>
+      <c r="D809" s="23"/>
+      <c r="E809" s="7"/>
+    </row>
+    <row r="810" spans="1:5">
+      <c r="A810" s="16"/>
+      <c r="B810" s="16"/>
+      <c r="C810" s="16"/>
+      <c r="D810" s="23"/>
+      <c r="E810" s="7"/>
+    </row>
+    <row r="811" spans="1:5">
+      <c r="A811" s="16"/>
+      <c r="B811" s="16"/>
+      <c r="C811" s="16"/>
+      <c r="D811" s="23"/>
+      <c r="E811" s="7"/>
+    </row>
+    <row r="812" spans="1:5">
+      <c r="A812" s="16"/>
+      <c r="B812" s="16"/>
+      <c r="C812" s="16"/>
+      <c r="D812" s="23"/>
+      <c r="E812" s="7"/>
+    </row>
+    <row r="813" spans="1:5">
+      <c r="A813" s="16"/>
+      <c r="B813" s="16"/>
+      <c r="C813" s="16"/>
+      <c r="D813" s="23"/>
+      <c r="E813" s="7"/>
+    </row>
+    <row r="814" spans="1:5">
+      <c r="A814" s="16"/>
+      <c r="B814" s="16"/>
+      <c r="C814" s="16"/>
+      <c r="D814" s="23"/>
+      <c r="E814" s="7"/>
+    </row>
+    <row r="815" spans="1:5">
+      <c r="A815" s="16"/>
+      <c r="B815" s="16"/>
+      <c r="C815" s="16"/>
+      <c r="D815" s="23"/>
+      <c r="E815" s="7"/>
+    </row>
+    <row r="816" spans="1:5">
+      <c r="A816" s="16"/>
+      <c r="B816" s="16"/>
+      <c r="C816" s="16"/>
+      <c r="D816" s="23"/>
+      <c r="E816" s="7"/>
+    </row>
+    <row r="817" spans="1:5">
+      <c r="A817" s="16"/>
+      <c r="B817" s="16"/>
+      <c r="C817" s="16"/>
+      <c r="D817" s="23"/>
+      <c r="E817" s="7"/>
+    </row>
+    <row r="818" spans="1:5">
+      <c r="A818" s="16"/>
+      <c r="B818" s="16"/>
+      <c r="C818" s="16"/>
+      <c r="D818" s="23"/>
+      <c r="E818" s="7"/>
+    </row>
+    <row r="819" spans="1:5">
+      <c r="A819" s="16"/>
+      <c r="B819" s="16"/>
+      <c r="C819" s="16"/>
+      <c r="D819" s="23"/>
+      <c r="E819" s="7"/>
+    </row>
+    <row r="820" spans="1:5">
+      <c r="A820" s="16"/>
+      <c r="B820" s="16"/>
+      <c r="C820" s="16"/>
+      <c r="D820" s="23"/>
+      <c r="E820" s="7"/>
+    </row>
+    <row r="821" spans="1:5">
+      <c r="A821" s="16"/>
+      <c r="B821" s="16"/>
+      <c r="C821" s="16"/>
+      <c r="D821" s="23"/>
+      <c r="E821" s="7"/>
+    </row>
+    <row r="822" spans="1:5">
+      <c r="A822" s="16"/>
+      <c r="B822" s="16"/>
+      <c r="C822" s="16"/>
+      <c r="D822" s="23"/>
+      <c r="E822" s="7"/>
+    </row>
+    <row r="823" spans="1:5">
+      <c r="A823" s="16"/>
+      <c r="B823" s="16"/>
+      <c r="C823" s="16"/>
+      <c r="D823" s="23"/>
+      <c r="E823" s="7"/>
+    </row>
+    <row r="824" spans="1:5">
+      <c r="A824" s="16"/>
+      <c r="B824" s="16"/>
+      <c r="C824" s="16"/>
+      <c r="D824" s="23"/>
+      <c r="E824" s="7"/>
+    </row>
+    <row r="825" spans="1:5">
+      <c r="A825" s="16"/>
+      <c r="B825" s="16"/>
+      <c r="C825" s="16"/>
+      <c r="D825" s="23"/>
+      <c r="E825" s="7"/>
+    </row>
+    <row r="826" spans="1:5">
+      <c r="A826" s="16"/>
+      <c r="B826" s="16"/>
+      <c r="C826" s="16"/>
+      <c r="D826" s="23"/>
+      <c r="E826" s="7"/>
+    </row>
+    <row r="827" spans="1:5">
+      <c r="A827" s="16"/>
+      <c r="B827" s="16"/>
+      <c r="C827" s="16"/>
+      <c r="D827" s="23"/>
+      <c r="E827" s="7"/>
+    </row>
+    <row r="828" spans="1:5">
+      <c r="A828" s="16"/>
+      <c r="B828" s="16"/>
+      <c r="C828" s="16"/>
+      <c r="D828" s="23"/>
+      <c r="E828" s="7"/>
+    </row>
+    <row r="829" spans="1:5">
+      <c r="A829" s="16"/>
+      <c r="B829" s="16"/>
+      <c r="C829" s="16"/>
+      <c r="D829" s="23"/>
+      <c r="E829" s="7"/>
+    </row>
+    <row r="830" spans="1:5">
+      <c r="A830" s="16"/>
+      <c r="B830" s="16"/>
+      <c r="C830" s="16"/>
+      <c r="D830" s="23"/>
+      <c r="E830" s="7"/>
+    </row>
+    <row r="831" spans="1:5">
+      <c r="A831" s="16"/>
+      <c r="B831" s="16"/>
+      <c r="C831" s="16"/>
+      <c r="D831" s="23"/>
+      <c r="E831" s="7"/>
+    </row>
+    <row r="832" spans="1:5">
+      <c r="A832" s="16"/>
+      <c r="B832" s="16"/>
+      <c r="C832" s="16"/>
+      <c r="D832" s="23"/>
+      <c r="E832" s="7"/>
+    </row>
+    <row r="833" spans="1:5">
+      <c r="A833" s="16"/>
+      <c r="B833" s="16"/>
+      <c r="C833" s="16"/>
+      <c r="D833" s="23"/>
+      <c r="E833" s="7"/>
+    </row>
+    <row r="834" spans="1:5">
+      <c r="A834" s="16"/>
+      <c r="B834" s="16"/>
+      <c r="C834" s="16"/>
+      <c r="D834" s="23"/>
+      <c r="E834" s="7"/>
+    </row>
+    <row r="835" spans="1:5">
+      <c r="A835" s="16"/>
+      <c r="B835" s="16"/>
+      <c r="C835" s="16"/>
+      <c r="D835" s="23"/>
+      <c r="E835" s="7"/>
+    </row>
+    <row r="836" spans="1:5">
+      <c r="A836" s="16"/>
+      <c r="B836" s="16"/>
+      <c r="C836" s="16"/>
+      <c r="D836" s="23"/>
+      <c r="E836" s="7"/>
+    </row>
+    <row r="837" spans="1:5">
+      <c r="A837" s="16"/>
+      <c r="B837" s="16"/>
+      <c r="C837" s="16"/>
+      <c r="D837" s="23"/>
+      <c r="E837" s="7"/>
+    </row>
+    <row r="838" spans="1:5">
+      <c r="A838" s="16"/>
+      <c r="B838" s="16"/>
+      <c r="C838" s="16"/>
+      <c r="D838" s="23"/>
+      <c r="E838" s="7"/>
+    </row>
+    <row r="839" spans="1:5">
+      <c r="A839" s="16"/>
+      <c r="B839" s="16"/>
+      <c r="C839" s="16"/>
+      <c r="D839" s="23"/>
+      <c r="E839" s="7"/>
+    </row>
+    <row r="840" spans="1:5">
+      <c r="A840" s="16"/>
+      <c r="B840" s="16"/>
+      <c r="C840" s="16"/>
+      <c r="D840" s="23"/>
+      <c r="E840" s="7"/>
+    </row>
+    <row r="841" spans="1:5">
+      <c r="A841" s="16"/>
+      <c r="B841" s="16"/>
+      <c r="C841" s="16"/>
+      <c r="D841" s="23"/>
+      <c r="E841" s="7"/>
+    </row>
+    <row r="842" spans="1:5">
+      <c r="A842" s="16"/>
+      <c r="B842" s="16"/>
+      <c r="C842" s="16"/>
+      <c r="D842" s="23"/>
+      <c r="E842" s="7"/>
+    </row>
+    <row r="843" spans="1:5">
+      <c r="A843" s="16"/>
+      <c r="B843" s="16"/>
+      <c r="C843" s="16"/>
+      <c r="D843" s="23"/>
+      <c r="E843" s="7"/>
+    </row>
+    <row r="844" spans="1:5">
+      <c r="A844" s="16"/>
+      <c r="B844" s="16"/>
+      <c r="C844" s="16"/>
+      <c r="D844" s="23"/>
+      <c r="E844" s="7"/>
+    </row>
+    <row r="845" spans="1:5">
+      <c r="A845" s="16"/>
+      <c r="B845" s="16"/>
+      <c r="C845" s="16"/>
+      <c r="D845" s="23"/>
+      <c r="E845" s="7"/>
+    </row>
+    <row r="846" spans="1:5">
+      <c r="A846" s="16"/>
+      <c r="B846" s="16"/>
+      <c r="C846" s="16"/>
+      <c r="D846" s="23"/>
+      <c r="E846" s="7"/>
+    </row>
+    <row r="847" spans="1:5">
+      <c r="A847" s="16"/>
+      <c r="B847" s="16"/>
+      <c r="C847" s="16"/>
+      <c r="D847" s="23"/>
+      <c r="E847" s="7"/>
+    </row>
+    <row r="848" spans="1:5">
+      <c r="A848" s="16"/>
+      <c r="B848" s="16"/>
+      <c r="C848" s="16"/>
+      <c r="D848" s="23"/>
+      <c r="E848" s="7"/>
+    </row>
+    <row r="849" spans="1:5">
+      <c r="A849" s="16"/>
+      <c r="B849" s="16"/>
+      <c r="C849" s="16"/>
+      <c r="D849" s="23"/>
+      <c r="E849" s="7"/>
+    </row>
+    <row r="850" spans="1:5">
+      <c r="A850" s="16"/>
+      <c r="B850" s="16"/>
+      <c r="C850" s="16"/>
+      <c r="D850" s="23"/>
+      <c r="E850" s="7"/>
+    </row>
+    <row r="851" spans="1:5">
+      <c r="A851" s="16"/>
+      <c r="B851" s="16"/>
+      <c r="C851" s="16"/>
+      <c r="D851" s="23"/>
+      <c r="E851" s="7"/>
+    </row>
+    <row r="852" spans="1:5">
+      <c r="A852" s="16"/>
+      <c r="B852" s="16"/>
+      <c r="C852" s="16"/>
+      <c r="D852" s="23"/>
+      <c r="E852" s="7"/>
+    </row>
+    <row r="853" spans="1:5">
+      <c r="A853" s="16"/>
+      <c r="B853" s="16"/>
+      <c r="C853" s="16"/>
+      <c r="D853" s="23"/>
+      <c r="E853" s="7"/>
+    </row>
+    <row r="854" spans="1:5">
+      <c r="A854" s="16"/>
+      <c r="B854" s="16"/>
+      <c r="C854" s="16"/>
+      <c r="D854" s="23"/>
+      <c r="E854" s="7"/>
+    </row>
+    <row r="855" spans="1:5">
+      <c r="A855" s="16"/>
+      <c r="B855" s="16"/>
+      <c r="C855" s="16"/>
+      <c r="D855" s="23"/>
+      <c r="E855" s="7"/>
+    </row>
+    <row r="856" spans="1:5">
+      <c r="A856" s="16"/>
+      <c r="B856" s="16"/>
+      <c r="C856" s="16"/>
+      <c r="D856" s="23"/>
+      <c r="E856" s="7"/>
+    </row>
+    <row r="857" spans="1:5">
+      <c r="A857" s="16"/>
+      <c r="B857" s="16"/>
+      <c r="C857" s="16"/>
+      <c r="D857" s="23"/>
+      <c r="E857" s="7"/>
+    </row>
+    <row r="858" spans="1:5">
+      <c r="A858" s="16"/>
+      <c r="B858" s="16"/>
+      <c r="C858" s="16"/>
+      <c r="D858" s="23"/>
+      <c r="E858" s="7"/>
+    </row>
+    <row r="859" spans="1:5">
+      <c r="A859" s="16"/>
+      <c r="B859" s="16"/>
+      <c r="C859" s="16"/>
+      <c r="D859" s="23"/>
+      <c r="E859" s="7"/>
+    </row>
+    <row r="860" spans="1:5">
+      <c r="A860" s="16"/>
+      <c r="B860" s="16"/>
+      <c r="C860" s="16"/>
+      <c r="D860" s="23"/>
+      <c r="E860" s="7"/>
+    </row>
+    <row r="861" spans="1:5">
+      <c r="A861" s="16"/>
+      <c r="B861" s="16"/>
+      <c r="C861" s="16"/>
+      <c r="D861" s="23"/>
+      <c r="E861" s="7"/>
+    </row>
+    <row r="862" spans="1:5">
+      <c r="A862" s="16"/>
+      <c r="B862" s="16"/>
+      <c r="C862" s="16"/>
+      <c r="D862" s="23"/>
+      <c r="E862" s="7"/>
+    </row>
+    <row r="863" spans="1:5">
+      <c r="A863" s="16"/>
+      <c r="B863" s="16"/>
+      <c r="C863" s="16"/>
+      <c r="D863" s="23"/>
+      <c r="E863" s="7"/>
+    </row>
+    <row r="864" spans="1:5">
+      <c r="A864" s="16"/>
+      <c r="B864" s="16"/>
+      <c r="C864" s="16"/>
+      <c r="D864" s="23"/>
+      <c r="E864" s="7"/>
+    </row>
+    <row r="865" spans="1:5">
+      <c r="A865" s="16"/>
+      <c r="B865" s="16"/>
+      <c r="C865" s="16"/>
+      <c r="D865" s="23"/>
+      <c r="E865" s="7"/>
+    </row>
+    <row r="866" spans="1:5">
+      <c r="A866" s="16"/>
+      <c r="B866" s="16"/>
+      <c r="C866" s="16"/>
+      <c r="D866" s="23"/>
+      <c r="E866" s="7"/>
+    </row>
+    <row r="867" spans="1:5">
+      <c r="A867" s="16"/>
+      <c r="B867" s="16"/>
+      <c r="C867" s="16"/>
+      <c r="D867" s="23"/>
+      <c r="E867" s="7"/>
+    </row>
+    <row r="868" spans="1:5">
+      <c r="A868" s="16"/>
+      <c r="B868" s="16"/>
+      <c r="C868" s="16"/>
+      <c r="D868" s="23"/>
+      <c r="E868" s="7"/>
+    </row>
+    <row r="869" spans="1:5">
+      <c r="A869" s="16"/>
+      <c r="B869" s="16"/>
+      <c r="C869" s="16"/>
+      <c r="D869" s="23"/>
+      <c r="E869" s="7"/>
+    </row>
+    <row r="870" spans="1:5">
+      <c r="A870" s="16"/>
+      <c r="B870" s="16"/>
+      <c r="C870" s="16"/>
+      <c r="D870" s="23"/>
+      <c r="E870" s="7"/>
+    </row>
+    <row r="871" spans="1:5">
+      <c r="A871" s="16"/>
+      <c r="B871" s="16"/>
+      <c r="C871" s="16"/>
+      <c r="D871" s="23"/>
+      <c r="E871" s="7"/>
+    </row>
+    <row r="872" spans="1:5">
+      <c r="A872" s="16"/>
+      <c r="B872" s="16"/>
+      <c r="C872" s="16"/>
+      <c r="D872" s="23"/>
+      <c r="E872" s="7"/>
+    </row>
+    <row r="873" spans="1:5">
+      <c r="A873" s="16"/>
+      <c r="B873" s="16"/>
+      <c r="C873" s="16"/>
+      <c r="D873" s="23"/>
+      <c r="E873" s="7"/>
+    </row>
+    <row r="874" spans="1:5">
+      <c r="A874" s="16"/>
+      <c r="B874" s="16"/>
+      <c r="C874" s="16"/>
+      <c r="D874" s="23"/>
+      <c r="E874" s="7"/>
+    </row>
+    <row r="875" spans="1:5">
+      <c r="A875" s="16"/>
+      <c r="B875" s="16"/>
+      <c r="C875" s="16"/>
+      <c r="D875" s="23"/>
+      <c r="E875" s="7"/>
+    </row>
+    <row r="876" spans="1:5">
+      <c r="A876" s="16"/>
+      <c r="B876" s="16"/>
+      <c r="C876" s="16"/>
+      <c r="D876" s="23"/>
+      <c r="E876" s="7"/>
+    </row>
+    <row r="877" spans="1:5">
+      <c r="A877" s="16"/>
+      <c r="B877" s="16"/>
+      <c r="C877" s="16"/>
+      <c r="D877" s="23"/>
+      <c r="E877" s="7"/>
+    </row>
+    <row r="878" spans="1:5">
+      <c r="A878" s="16"/>
+      <c r="B878" s="16"/>
+      <c r="C878" s="16"/>
+      <c r="D878" s="23"/>
+      <c r="E878" s="7"/>
+    </row>
+    <row r="879" spans="1:5">
+      <c r="A879" s="16"/>
+      <c r="B879" s="16"/>
+      <c r="C879" s="16"/>
+      <c r="D879" s="23"/>
+      <c r="E879" s="7"/>
+    </row>
+    <row r="880" spans="1:5">
+      <c r="A880" s="16"/>
+      <c r="B880" s="16"/>
+      <c r="C880" s="16"/>
+      <c r="D880" s="23"/>
+      <c r="E880" s="7"/>
+    </row>
+    <row r="881" spans="1:5">
+      <c r="A881" s="16"/>
+      <c r="B881" s="16"/>
+      <c r="C881" s="16"/>
+      <c r="D881" s="23"/>
+      <c r="E881" s="7"/>
+    </row>
+    <row r="882" spans="1:5">
+      <c r="A882" s="16"/>
+      <c r="B882" s="16"/>
+      <c r="C882" s="16"/>
+      <c r="D882" s="23"/>
+      <c r="E882" s="7"/>
+    </row>
+    <row r="883" spans="1:5">
+      <c r="A883" s="16"/>
+      <c r="B883" s="16"/>
+      <c r="C883" s="16"/>
+      <c r="D883" s="23"/>
+      <c r="E883" s="7"/>
+    </row>
+    <row r="884" spans="1:5">
+      <c r="A884" s="16"/>
+      <c r="B884" s="16"/>
+      <c r="C884" s="16"/>
+      <c r="D884" s="23"/>
+      <c r="E884" s="7"/>
+    </row>
+    <row r="885" spans="1:5">
+      <c r="A885" s="16"/>
+      <c r="B885" s="16"/>
+      <c r="C885" s="16"/>
+      <c r="D885" s="23"/>
+      <c r="E885" s="7"/>
+    </row>
+    <row r="886" spans="1:5">
+      <c r="A886" s="16"/>
+      <c r="B886" s="16"/>
+      <c r="C886" s="16"/>
+      <c r="D886" s="23"/>
+      <c r="E886" s="7"/>
+    </row>
+    <row r="887" spans="1:5">
+      <c r="A887" s="16"/>
+      <c r="B887" s="16"/>
+      <c r="C887" s="16"/>
+      <c r="D887" s="23"/>
+      <c r="E887" s="7"/>
+    </row>
+    <row r="888" spans="1:5">
+      <c r="A888" s="16"/>
+      <c r="B888" s="16"/>
+      <c r="C888" s="16"/>
+      <c r="D888" s="23"/>
+      <c r="E888" s="7"/>
+    </row>
+    <row r="889" spans="1:5">
+      <c r="A889" s="16"/>
+      <c r="B889" s="16"/>
+      <c r="C889" s="16"/>
+      <c r="D889" s="23"/>
+      <c r="E889" s="7"/>
+    </row>
+    <row r="890" spans="1:5">
+      <c r="A890" s="16"/>
+      <c r="B890" s="16"/>
+      <c r="C890" s="16"/>
+      <c r="D890" s="23"/>
+      <c r="E890" s="7"/>
+    </row>
+    <row r="891" spans="1:5">
+      <c r="A891" s="16"/>
+      <c r="B891" s="16"/>
+      <c r="C891" s="16"/>
+      <c r="D891" s="23"/>
+      <c r="E891" s="7"/>
+    </row>
+    <row r="892" spans="1:5">
+      <c r="A892" s="16"/>
+      <c r="B892" s="16"/>
+      <c r="C892" s="16"/>
+      <c r="D892" s="23"/>
+      <c r="E892" s="7"/>
+    </row>
+    <row r="893" spans="1:5">
+      <c r="A893" s="16"/>
+      <c r="B893" s="16"/>
+      <c r="C893" s="16"/>
+      <c r="D893" s="23"/>
+      <c r="E893" s="7"/>
+    </row>
+    <row r="894" spans="1:5">
+      <c r="A894" s="16"/>
+      <c r="B894" s="16"/>
+      <c r="C894" s="16"/>
+      <c r="D894" s="23"/>
+      <c r="E894" s="7"/>
+    </row>
+    <row r="895" spans="1:5">
+      <c r="A895" s="16"/>
+      <c r="B895" s="16"/>
+      <c r="C895" s="16"/>
+      <c r="D895" s="23"/>
+      <c r="E895" s="7"/>
+    </row>
+    <row r="896" spans="1:5">
+      <c r="A896" s="16"/>
+      <c r="B896" s="16"/>
+      <c r="C896" s="16"/>
+      <c r="D896" s="23"/>
+      <c r="E896" s="7"/>
+    </row>
+    <row r="897" spans="1:5">
+      <c r="A897" s="16"/>
+      <c r="B897" s="16"/>
+      <c r="C897" s="16"/>
+      <c r="D897" s="23"/>
+      <c r="E897" s="7"/>
+    </row>
+    <row r="898" spans="1:5">
+      <c r="A898" s="16"/>
+      <c r="B898" s="16"/>
+      <c r="C898" s="16"/>
+      <c r="D898" s="23"/>
+      <c r="E898" s="7"/>
+    </row>
+    <row r="899" spans="1:5">
+      <c r="A899" s="16"/>
+      <c r="B899" s="16"/>
+      <c r="C899" s="16"/>
+      <c r="D899" s="23"/>
+      <c r="E899" s="7"/>
+    </row>
+    <row r="900" spans="1:5">
+      <c r="A900" s="16"/>
+      <c r="B900" s="16"/>
+      <c r="C900" s="16"/>
+      <c r="D900" s="23"/>
+      <c r="E900" s="7"/>
+    </row>
+    <row r="901" spans="1:5">
+      <c r="A901" s="16"/>
+      <c r="B901" s="16"/>
+      <c r="C901" s="16"/>
+      <c r="D901" s="23"/>
+      <c r="E901" s="7"/>
+    </row>
+    <row r="902" spans="1:5">
+      <c r="A902" s="16"/>
+      <c r="B902" s="16"/>
+      <c r="C902" s="16"/>
+      <c r="D902" s="23"/>
+      <c r="E902" s="7"/>
+    </row>
+    <row r="903" spans="1:5">
+      <c r="A903" s="16"/>
+      <c r="B903" s="16"/>
+      <c r="C903" s="16"/>
+      <c r="D903" s="23"/>
+      <c r="E903" s="7"/>
+    </row>
+    <row r="904" spans="1:5">
+      <c r="A904" s="16"/>
+      <c r="B904" s="16"/>
+      <c r="C904" s="16"/>
+      <c r="D904" s="23"/>
+      <c r="E904" s="7"/>
+    </row>
+    <row r="905" spans="1:5">
+      <c r="A905" s="16"/>
+      <c r="B905" s="16"/>
+      <c r="C905" s="16"/>
+      <c r="D905" s="23"/>
+      <c r="E905" s="7"/>
+    </row>
+    <row r="906" spans="1:5">
+      <c r="A906" s="16"/>
+      <c r="B906" s="16"/>
+      <c r="C906" s="16"/>
+      <c r="D906" s="23"/>
+      <c r="E906" s="7"/>
+    </row>
+    <row r="907" spans="1:5">
+      <c r="A907" s="16"/>
+      <c r="B907" s="16"/>
+      <c r="C907" s="16"/>
+      <c r="D907" s="23"/>
+      <c r="E907" s="7"/>
+    </row>
+    <row r="908" spans="1:5">
+      <c r="A908" s="16"/>
+      <c r="B908" s="16"/>
+      <c r="C908" s="16"/>
+      <c r="D908" s="23"/>
+      <c r="E908" s="7"/>
+    </row>
+    <row r="909" spans="1:5">
+      <c r="A909" s="16"/>
+      <c r="B909" s="16"/>
+      <c r="C909" s="16"/>
+      <c r="D909" s="23"/>
+      <c r="E909" s="7"/>
+    </row>
+    <row r="910" spans="1:5">
+      <c r="A910" s="16"/>
+      <c r="B910" s="16"/>
+      <c r="C910" s="16"/>
+      <c r="D910" s="23"/>
+      <c r="E910" s="7"/>
+    </row>
+    <row r="911" spans="1:5">
+      <c r="A911" s="16"/>
+      <c r="B911" s="16"/>
+      <c r="C911" s="16"/>
+      <c r="D911" s="23"/>
+      <c r="E911" s="7"/>
+    </row>
+    <row r="912" spans="1:5">
+      <c r="A912" s="16"/>
+      <c r="B912" s="16"/>
+      <c r="C912" s="16"/>
+      <c r="D912" s="23"/>
+      <c r="E912" s="7"/>
+    </row>
+    <row r="913" spans="1:5">
+      <c r="A913" s="16"/>
+      <c r="B913" s="16"/>
+      <c r="C913" s="16"/>
+      <c r="D913" s="23"/>
+      <c r="E913" s="7"/>
+    </row>
+    <row r="914" spans="1:5">
+      <c r="A914" s="16"/>
+      <c r="B914" s="16"/>
+      <c r="C914" s="16"/>
+      <c r="D914" s="23"/>
+      <c r="E914" s="7"/>
+    </row>
+    <row r="915" spans="1:5">
+      <c r="A915" s="16"/>
+      <c r="B915" s="16"/>
+      <c r="C915" s="16"/>
+      <c r="D915" s="23"/>
+      <c r="E915" s="7"/>
+    </row>
+    <row r="916" spans="1:5">
+      <c r="A916" s="16"/>
+      <c r="B916" s="16"/>
+      <c r="C916" s="16"/>
+      <c r="D916" s="23"/>
+      <c r="E916" s="7"/>
+    </row>
+    <row r="917" spans="1:5">
+      <c r="A917" s="16"/>
+      <c r="B917" s="16"/>
+      <c r="C917" s="16"/>
+      <c r="D917" s="23"/>
+      <c r="E917" s="7"/>
+    </row>
+    <row r="918" spans="1:5">
+      <c r="A918" s="16"/>
+      <c r="B918" s="16"/>
+      <c r="C918" s="16"/>
+      <c r="D918" s="23"/>
+      <c r="E918" s="7"/>
+    </row>
+    <row r="919" spans="1:5">
+      <c r="A919" s="16"/>
+      <c r="B919" s="16"/>
+      <c r="C919" s="16"/>
+      <c r="D919" s="23"/>
+      <c r="E919" s="7"/>
+    </row>
+    <row r="920" spans="1:5">
+      <c r="A920" s="16"/>
+      <c r="B920" s="16"/>
+      <c r="C920" s="16"/>
+      <c r="D920" s="23"/>
+      <c r="E920" s="7"/>
+    </row>
+    <row r="921" spans="1:5">
+      <c r="A921" s="16"/>
+      <c r="B921" s="16"/>
+      <c r="C921" s="16"/>
+      <c r="D921" s="23"/>
+      <c r="E921" s="7"/>
+    </row>
+    <row r="922" spans="1:5">
+      <c r="A922" s="16"/>
+      <c r="B922" s="16"/>
+      <c r="C922" s="16"/>
+      <c r="D922" s="23"/>
+      <c r="E922" s="7"/>
+    </row>
+    <row r="923" spans="1:5">
+      <c r="A923" s="16"/>
+      <c r="B923" s="16"/>
+      <c r="C923" s="16"/>
+      <c r="D923" s="23"/>
+      <c r="E923" s="7"/>
+    </row>
+    <row r="924" spans="1:5">
+      <c r="A924" s="16"/>
+      <c r="B924" s="16"/>
+      <c r="C924" s="16"/>
+      <c r="D924" s="23"/>
+      <c r="E924" s="7"/>
+    </row>
+    <row r="925" spans="1:5">
+      <c r="A925" s="16"/>
+      <c r="B925" s="16"/>
+      <c r="C925" s="16"/>
+      <c r="D925" s="23"/>
+      <c r="E925" s="7"/>
+    </row>
+    <row r="926" spans="1:5">
+      <c r="A926" s="16"/>
+      <c r="B926" s="16"/>
+      <c r="C926" s="16"/>
+      <c r="D926" s="23"/>
+      <c r="E926" s="7"/>
+    </row>
+    <row r="927" spans="1:5">
+      <c r="A927" s="16"/>
+      <c r="B927" s="16"/>
+      <c r="C927" s="16"/>
+      <c r="D927" s="23"/>
+      <c r="E927" s="7"/>
+    </row>
+    <row r="928" spans="1:5">
+      <c r="A928" s="16"/>
+      <c r="B928" s="16"/>
+      <c r="C928" s="16"/>
+      <c r="D928" s="23"/>
+      <c r="E928" s="7"/>
+    </row>
+    <row r="929" spans="1:5">
+      <c r="A929" s="16"/>
+      <c r="B929" s="16"/>
+      <c r="C929" s="16"/>
+      <c r="D929" s="23"/>
+      <c r="E929" s="7"/>
+    </row>
+    <row r="930" spans="1:5">
+      <c r="A930" s="16"/>
+      <c r="B930" s="16"/>
+      <c r="C930" s="16"/>
+      <c r="D930" s="23"/>
+      <c r="E930" s="7"/>
+    </row>
+    <row r="931" spans="1:5">
+      <c r="A931" s="16"/>
+      <c r="B931" s="16"/>
+      <c r="C931" s="16"/>
+      <c r="D931" s="23"/>
+      <c r="E931" s="7"/>
+    </row>
+    <row r="932" spans="1:5">
+      <c r="A932" s="16"/>
+      <c r="B932" s="16"/>
+      <c r="C932" s="16"/>
+      <c r="D932" s="23"/>
+      <c r="E932" s="7"/>
+    </row>
+    <row r="933" spans="1:5">
+      <c r="A933" s="16"/>
+      <c r="B933" s="16"/>
+      <c r="C933" s="16"/>
+      <c r="D933" s="23"/>
+      <c r="E933" s="7"/>
+    </row>
+    <row r="934" spans="1:5">
+      <c r="A934" s="16"/>
+      <c r="B934" s="16"/>
+      <c r="C934" s="16"/>
+      <c r="D934" s="23"/>
+      <c r="E934" s="7"/>
+    </row>
+    <row r="935" spans="1:5">
+      <c r="A935" s="16"/>
+      <c r="B935" s="16"/>
+      <c r="C935" s="16"/>
+      <c r="D935" s="23"/>
+      <c r="E935" s="7"/>
+    </row>
+    <row r="936" spans="1:5">
+      <c r="A936" s="16"/>
+      <c r="B936" s="16"/>
+      <c r="C936" s="16"/>
+      <c r="D936" s="23"/>
+      <c r="E936" s="7"/>
+    </row>
+    <row r="937" spans="1:5">
+      <c r="A937" s="16"/>
+      <c r="B937" s="16"/>
+      <c r="C937" s="16"/>
+      <c r="D937" s="23"/>
+      <c r="E937" s="7"/>
+    </row>
+    <row r="938" spans="1:5">
+      <c r="A938" s="16"/>
+      <c r="B938" s="16"/>
+      <c r="C938" s="16"/>
+      <c r="D938" s="23"/>
+      <c r="E938" s="7"/>
+    </row>
+    <row r="939" spans="1:5">
+      <c r="A939" s="16"/>
+      <c r="B939" s="16"/>
+      <c r="C939" s="16"/>
+      <c r="D939" s="23"/>
+      <c r="E939" s="7"/>
+    </row>
+    <row r="940" spans="1:5">
+      <c r="A940" s="16"/>
+      <c r="B940" s="16"/>
+      <c r="C940" s="16"/>
+      <c r="D940" s="23"/>
+      <c r="E940" s="7"/>
+    </row>
+    <row r="941" spans="1:5">
+      <c r="A941" s="16"/>
+      <c r="B941" s="16"/>
+      <c r="C941" s="16"/>
+      <c r="D941" s="23"/>
+      <c r="E941" s="7"/>
+    </row>
+    <row r="942" spans="1:5">
+      <c r="A942" s="16"/>
+      <c r="B942" s="16"/>
+      <c r="C942" s="16"/>
+      <c r="D942" s="23"/>
+      <c r="E942" s="7"/>
+    </row>
+    <row r="943" spans="1:5">
+      <c r="A943" s="16"/>
+      <c r="B943" s="16"/>
+      <c r="C943" s="16"/>
+      <c r="D943" s="23"/>
+      <c r="E943" s="7"/>
+    </row>
+    <row r="944" spans="1:5">
+      <c r="A944" s="16"/>
+      <c r="B944" s="16"/>
+      <c r="C944" s="16"/>
+      <c r="D944" s="23"/>
+      <c r="E944" s="7"/>
+    </row>
+    <row r="945" spans="1:5">
+      <c r="A945" s="16"/>
+      <c r="B945" s="16"/>
+      <c r="C945" s="16"/>
+      <c r="D945" s="23"/>
+      <c r="E945" s="7"/>
+    </row>
+    <row r="946" spans="1:5">
+      <c r="A946" s="16"/>
+      <c r="B946" s="16"/>
+      <c r="C946" s="16"/>
+      <c r="D946" s="23"/>
+      <c r="E946" s="7"/>
+    </row>
+    <row r="947" spans="1:5">
+      <c r="A947" s="16"/>
+      <c r="B947" s="16"/>
+      <c r="C947" s="16"/>
+      <c r="D947" s="23"/>
+      <c r="E947" s="7"/>
+    </row>
+    <row r="948" spans="1:5">
+      <c r="A948" s="16"/>
+      <c r="B948" s="16"/>
+      <c r="C948" s="16"/>
+      <c r="D948" s="23"/>
+      <c r="E948" s="7"/>
+    </row>
+    <row r="949" spans="1:5">
+      <c r="A949" s="16"/>
+      <c r="B949" s="16"/>
+      <c r="C949" s="16"/>
+      <c r="D949" s="23"/>
+      <c r="E949" s="7"/>
+    </row>
+    <row r="950" spans="1:5">
+      <c r="A950" s="16"/>
+      <c r="B950" s="16"/>
+      <c r="C950" s="16"/>
+      <c r="D950" s="23"/>
+      <c r="E950" s="7"/>
+    </row>
+    <row r="951" spans="1:5">
+      <c r="A951" s="16"/>
+      <c r="B951" s="16"/>
+      <c r="C951" s="16"/>
+      <c r="D951" s="23"/>
+      <c r="E951" s="7"/>
+    </row>
+    <row r="952" spans="1:5">
+      <c r="A952" s="16"/>
+      <c r="B952" s="16"/>
+      <c r="C952" s="16"/>
+      <c r="D952" s="23"/>
+      <c r="E952" s="7"/>
+    </row>
+    <row r="953" spans="1:5">
+      <c r="A953" s="16"/>
+      <c r="B953" s="16"/>
+      <c r="C953" s="16"/>
+      <c r="D953" s="23"/>
+      <c r="E953" s="7"/>
+    </row>
+    <row r="954" spans="1:5">
+      <c r="A954" s="16"/>
+      <c r="B954" s="16"/>
+      <c r="C954" s="16"/>
+      <c r="D954" s="23"/>
+      <c r="E954" s="7"/>
+    </row>
+    <row r="955" spans="1:5">
+      <c r="A955" s="16"/>
+      <c r="B955" s="16"/>
+      <c r="C955" s="16"/>
+      <c r="D955" s="23"/>
+      <c r="E955" s="7"/>
+    </row>
+    <row r="956" spans="1:5">
+      <c r="A956" s="16"/>
+      <c r="B956" s="16"/>
+      <c r="C956" s="16"/>
+      <c r="D956" s="23"/>
+      <c r="E956" s="7"/>
+    </row>
+    <row r="957" spans="1:5">
+      <c r="A957" s="16"/>
+      <c r="B957" s="16"/>
+      <c r="C957" s="16"/>
+      <c r="D957" s="23"/>
+      <c r="E957" s="7"/>
+    </row>
+    <row r="958" spans="1:5">
+      <c r="A958" s="16"/>
+      <c r="B958" s="16"/>
+      <c r="C958" s="16"/>
+      <c r="D958" s="23"/>
+      <c r="E958" s="7"/>
+    </row>
+    <row r="959" spans="1:5">
+      <c r="A959" s="16"/>
+      <c r="B959" s="16"/>
+      <c r="C959" s="16"/>
+      <c r="D959" s="23"/>
+      <c r="E959" s="7"/>
+    </row>
+    <row r="960" spans="1:5">
+      <c r="A960" s="16"/>
+      <c r="B960" s="16"/>
+      <c r="C960" s="16"/>
+      <c r="D960" s="23"/>
+      <c r="E960" s="7"/>
+    </row>
+    <row r="961" spans="1:5">
+      <c r="A961" s="16"/>
+      <c r="B961" s="16"/>
+      <c r="C961" s="16"/>
+      <c r="D961" s="23"/>
+      <c r="E961" s="7"/>
+    </row>
+    <row r="962" spans="1:5">
+      <c r="A962" s="16"/>
+      <c r="B962" s="16"/>
+      <c r="C962" s="16"/>
+      <c r="D962" s="23"/>
+      <c r="E962" s="7"/>
+    </row>
+    <row r="963" spans="1:5">
+      <c r="A963" s="16"/>
+      <c r="B963" s="16"/>
+      <c r="C963" s="16"/>
+      <c r="D963" s="23"/>
+      <c r="E963" s="7"/>
+    </row>
+    <row r="964" spans="1:5">
+      <c r="A964" s="16"/>
+      <c r="B964" s="16"/>
+      <c r="C964" s="16"/>
+      <c r="D964" s="23"/>
+      <c r="E964" s="7"/>
+    </row>
+    <row r="965" spans="1:5">
+      <c r="A965" s="16"/>
+      <c r="B965" s="16"/>
+      <c r="C965" s="16"/>
+      <c r="D965" s="23"/>
+      <c r="E965" s="7"/>
+    </row>
+    <row r="966" spans="1:5">
+      <c r="A966" s="16"/>
+      <c r="B966" s="16"/>
+      <c r="C966" s="16"/>
+      <c r="D966" s="23"/>
+      <c r="E966" s="7"/>
+    </row>
+    <row r="967" spans="1:5">
+      <c r="A967" s="16"/>
+      <c r="B967" s="16"/>
+      <c r="C967" s="16"/>
+      <c r="D967" s="23"/>
+      <c r="E967" s="7"/>
+    </row>
+    <row r="968" spans="1:5">
+      <c r="A968" s="16"/>
+      <c r="B968" s="16"/>
+      <c r="C968" s="16"/>
+      <c r="D968" s="23"/>
+      <c r="E968" s="7"/>
+    </row>
+    <row r="969" spans="1:5">
+      <c r="A969" s="16"/>
+      <c r="B969" s="16"/>
+      <c r="C969" s="16"/>
+      <c r="D969" s="23"/>
+      <c r="E969" s="7"/>
+    </row>
+    <row r="970" spans="1:5">
+      <c r="A970" s="16"/>
+      <c r="B970" s="16"/>
+      <c r="C970" s="16"/>
+      <c r="D970" s="23"/>
+      <c r="E970" s="7"/>
+    </row>
+    <row r="971" spans="1:5">
+      <c r="A971" s="16"/>
+      <c r="B971" s="16"/>
+      <c r="C971" s="16"/>
+      <c r="D971" s="23"/>
+      <c r="E971" s="7"/>
+    </row>
+    <row r="972" spans="1:5">
+      <c r="A972" s="16"/>
+      <c r="B972" s="16"/>
+      <c r="C972" s="16"/>
+      <c r="D972" s="23"/>
+      <c r="E972" s="7"/>
+    </row>
+    <row r="973" spans="1:5">
+      <c r="A973" s="16"/>
+      <c r="B973" s="16"/>
+      <c r="C973" s="16"/>
+      <c r="D973" s="23"/>
+      <c r="E973" s="7"/>
+    </row>
+    <row r="974" spans="1:5">
+      <c r="A974" s="16"/>
+      <c r="B974" s="16"/>
+      <c r="C974" s="16"/>
+      <c r="D974" s="23"/>
+      <c r="E974" s="7"/>
+    </row>
+    <row r="975" spans="1:5">
+      <c r="A975" s="16"/>
+      <c r="B975" s="16"/>
+      <c r="C975" s="16"/>
+      <c r="D975" s="23"/>
+      <c r="E975" s="7"/>
+    </row>
+    <row r="976" spans="1:5">
+      <c r="A976" s="16"/>
+      <c r="B976" s="16"/>
+      <c r="C976" s="16"/>
+      <c r="D976" s="23"/>
+      <c r="E976" s="7"/>
+    </row>
+    <row r="977" spans="1:5">
+      <c r="A977" s="16"/>
+      <c r="B977" s="16"/>
+      <c r="C977" s="16"/>
+      <c r="D977" s="23"/>
+      <c r="E977" s="7"/>
+    </row>
+    <row r="978" spans="1:5">
+      <c r="A978" s="16"/>
+      <c r="B978" s="16"/>
+      <c r="C978" s="16"/>
+      <c r="D978" s="23"/>
+      <c r="E978" s="7"/>
+    </row>
+    <row r="979" spans="1:5">
+      <c r="A979" s="16"/>
+      <c r="B979" s="16"/>
+      <c r="C979" s="16"/>
+      <c r="D979" s="23"/>
+      <c r="E979" s="7"/>
+    </row>
+    <row r="980" spans="1:5">
+      <c r="A980" s="16"/>
+      <c r="B980" s="16"/>
+      <c r="C980" s="16"/>
+      <c r="D980" s="23"/>
+      <c r="E980" s="7"/>
+    </row>
+    <row r="981" spans="1:5">
+      <c r="A981" s="16"/>
+      <c r="B981" s="16"/>
+      <c r="C981" s="16"/>
+      <c r="D981" s="23"/>
+      <c r="E981" s="7"/>
+    </row>
+    <row r="982" spans="1:5">
+      <c r="A982" s="16"/>
+      <c r="B982" s="16"/>
+      <c r="C982" s="16"/>
+      <c r="D982" s="23"/>
+      <c r="E982" s="7"/>
+    </row>
+    <row r="983" spans="1:5">
+      <c r="A983" s="16"/>
+      <c r="B983" s="16"/>
+      <c r="C983" s="16"/>
+      <c r="D983" s="23"/>
+      <c r="E983" s="7"/>
+    </row>
+    <row r="984" spans="1:5">
+      <c r="A984" s="16"/>
+      <c r="B984" s="16"/>
+      <c r="C984" s="16"/>
+      <c r="D984" s="23"/>
+      <c r="E984" s="7"/>
+    </row>
+    <row r="985" spans="1:5">
+      <c r="A985" s="16"/>
+      <c r="B985" s="16"/>
+      <c r="C985" s="16"/>
+      <c r="D985" s="23"/>
+      <c r="E985" s="7"/>
+    </row>
+    <row r="986" spans="1:5">
+      <c r="A986" s="16"/>
+      <c r="B986" s="16"/>
+      <c r="C986" s="16"/>
+      <c r="D986" s="23"/>
+      <c r="E986" s="7"/>
+    </row>
+    <row r="987" spans="1:5">
+      <c r="A987" s="16"/>
+      <c r="B987" s="16"/>
+      <c r="C987" s="16"/>
+      <c r="D987" s="23"/>
+      <c r="E987" s="7"/>
+    </row>
+    <row r="988" spans="1:5">
+      <c r="A988" s="16"/>
+      <c r="B988" s="16"/>
+      <c r="C988" s="16"/>
+      <c r="D988" s="23"/>
+      <c r="E988" s="7"/>
+    </row>
+    <row r="989" spans="1:5">
+      <c r="A989" s="16"/>
+      <c r="B989" s="16"/>
+      <c r="C989" s="16"/>
+      <c r="D989" s="23"/>
+      <c r="E989" s="7"/>
+    </row>
+    <row r="990" spans="1:5">
+      <c r="A990" s="16"/>
+      <c r="B990" s="16"/>
+      <c r="C990" s="16"/>
+      <c r="D990" s="23"/>
+      <c r="E990" s="7"/>
+    </row>
+    <row r="991" spans="1:5">
+      <c r="A991" s="16"/>
+      <c r="B991" s="16"/>
+      <c r="C991" s="16"/>
+      <c r="D991" s="23"/>
+      <c r="E991" s="7"/>
+    </row>
+    <row r="992" spans="1:5">
+      <c r="A992" s="16"/>
+      <c r="B992" s="16"/>
+      <c r="C992" s="16"/>
+      <c r="D992" s="23"/>
+      <c r="E992" s="7"/>
+    </row>
+    <row r="993" spans="1:5">
+      <c r="A993" s="16"/>
+      <c r="B993" s="16"/>
+      <c r="C993" s="16"/>
+      <c r="D993" s="23"/>
+      <c r="E993" s="7"/>
+    </row>
+    <row r="994" spans="1:5">
+      <c r="A994" s="16"/>
+      <c r="B994" s="16"/>
+      <c r="C994" s="16"/>
+      <c r="D994" s="23"/>
+      <c r="E994" s="7"/>
+    </row>
+    <row r="995" spans="1:5">
+      <c r="A995" s="16"/>
+      <c r="B995" s="16"/>
+      <c r="C995" s="16"/>
+      <c r="D995" s="23"/>
+      <c r="E995" s="7"/>
+    </row>
+    <row r="996" spans="1:5">
+      <c r="A996" s="16"/>
+      <c r="B996" s="16"/>
+      <c r="C996" s="16"/>
+      <c r="D996" s="23"/>
+      <c r="E996" s="7"/>
+    </row>
+    <row r="997" spans="1:5">
+      <c r="A997" s="16"/>
+      <c r="B997" s="16"/>
+      <c r="C997" s="16"/>
+      <c r="D997" s="23"/>
+      <c r="E997" s="7"/>
+    </row>
+    <row r="998" spans="1:5">
+      <c r="A998" s="16"/>
+      <c r="B998" s="16"/>
+      <c r="C998" s="16"/>
+      <c r="D998" s="23"/>
+      <c r="E998" s="7"/>
+    </row>
+    <row r="999" spans="1:5">
+      <c r="A999" s="16"/>
+      <c r="B999" s="16"/>
+      <c r="C999" s="16"/>
+      <c r="D999" s="23"/>
+      <c r="E999" s="7"/>
+    </row>
+    <row r="1000" spans="1:5">
+      <c r="A1000" s="16"/>
+      <c r="B1000" s="16"/>
+      <c r="C1000" s="16"/>
+      <c r="D1000" s="23"/>
+      <c r="E1000" s="7"/>
+    </row>
+    <row r="1001" spans="1:5">
+      <c r="A1001" s="16"/>
+      <c r="B1001" s="16"/>
+      <c r="C1001" s="16"/>
+      <c r="D1001" s="23"/>
+      <c r="E1001" s="7"/>
+    </row>
+    <row r="1002" spans="1:5">
+      <c r="A1002" s="16"/>
+      <c r="B1002" s="16"/>
+      <c r="C1002" s="16"/>
+      <c r="D1002" s="23"/>
+      <c r="E1002" s="7"/>
+    </row>
+    <row r="1003" spans="1:5">
+      <c r="A1003" s="16"/>
+      <c r="B1003" s="16"/>
+      <c r="C1003" s="16"/>
+      <c r="D1003" s="23"/>
+      <c r="E1003" s="7"/>
+    </row>
+    <row r="1004" spans="1:5">
+      <c r="A1004" s="16"/>
+      <c r="B1004" s="16"/>
+      <c r="C1004" s="16"/>
+      <c r="D1004" s="23"/>
+      <c r="E1004" s="7"/>
+    </row>
+    <row r="1005" spans="1:5">
+      <c r="A1005" s="16"/>
+      <c r="B1005" s="16"/>
+      <c r="C1005" s="16"/>
+      <c r="D1005" s="23"/>
+      <c r="E1005" s="7"/>
+    </row>
+    <row r="1006" spans="1:5">
+      <c r="A1006" s="16"/>
+      <c r="B1006" s="16"/>
+      <c r="C1006" s="16"/>
+      <c r="D1006" s="23"/>
+      <c r="E1006" s="7"/>
+    </row>
+    <row r="1007" spans="1:5">
+      <c r="A1007" s="16"/>
+      <c r="B1007" s="16"/>
+      <c r="C1007" s="16"/>
+      <c r="D1007" s="23"/>
+      <c r="E1007" s="7"/>
+    </row>
+    <row r="1008" spans="1:5">
+      <c r="A1008" s="16"/>
+      <c r="B1008" s="16"/>
+      <c r="C1008" s="16"/>
+      <c r="D1008" s="23"/>
+      <c r="E1008" s="7"/>
+    </row>
+    <row r="1009" spans="1:5">
+      <c r="A1009" s="16"/>
+      <c r="B1009" s="16"/>
+      <c r="C1009" s="16"/>
+      <c r="D1009" s="23"/>
+      <c r="E1009" s="7"/>
+    </row>
+    <row r="1010" spans="1:5">
+      <c r="A1010" s="16"/>
+      <c r="B1010" s="16"/>
+      <c r="C1010" s="16"/>
+      <c r="D1010" s="23"/>
+      <c r="E1010" s="7"/>
+    </row>
+    <row r="1011" spans="1:5">
+      <c r="A1011" s="16"/>
+      <c r="B1011" s="16"/>
+      <c r="C1011" s="16"/>
+      <c r="D1011" s="23"/>
+      <c r="E1011" s="7"/>
+    </row>
+    <row r="1012" spans="1:5">
+      <c r="A1012" s="16"/>
+      <c r="B1012" s="16"/>
+      <c r="C1012" s="16"/>
+      <c r="D1012" s="23"/>
+      <c r="E1012" s="7"/>
+    </row>
+    <row r="1013" spans="1:5">
+      <c r="A1013" s="16"/>
+      <c r="B1013" s="16"/>
+      <c r="C1013" s="16"/>
+      <c r="D1013" s="23"/>
+      <c r="E1013" s="7"/>
+    </row>
+    <row r="1014" spans="1:5">
+      <c r="A1014" s="16"/>
+      <c r="B1014" s="16"/>
+      <c r="C1014" s="16"/>
+      <c r="D1014" s="23"/>
+      <c r="E1014" s="7"/>
+    </row>
+    <row r="1015" spans="1:5">
+      <c r="A1015" s="16"/>
+      <c r="B1015" s="16"/>
+      <c r="C1015" s="16"/>
+      <c r="D1015" s="23"/>
+      <c r="E1015" s="7"/>
+    </row>
+    <row r="1016" spans="1:5">
+      <c r="A1016" s="16"/>
+      <c r="B1016" s="16"/>
+      <c r="C1016" s="16"/>
+      <c r="D1016" s="23"/>
+      <c r="E1016" s="7"/>
+    </row>
+    <row r="1017" spans="1:5">
+      <c r="A1017" s="16"/>
+      <c r="B1017" s="16"/>
+      <c r="C1017" s="16"/>
+      <c r="D1017" s="23"/>
+      <c r="E1017" s="7"/>
+    </row>
+    <row r="1018" spans="1:5">
+      <c r="A1018" s="16"/>
+      <c r="B1018" s="16"/>
+      <c r="C1018" s="16"/>
+      <c r="D1018" s="23"/>
+      <c r="E1018" s="7"/>
+    </row>
+    <row r="1019" spans="1:5">
+      <c r="A1019" s="16"/>
+      <c r="B1019" s="16"/>
+      <c r="C1019" s="16"/>
+      <c r="D1019" s="23"/>
+      <c r="E1019" s="7"/>
+    </row>
+    <row r="1020" spans="1:5">
+      <c r="A1020" s="16"/>
+      <c r="B1020" s="16"/>
+      <c r="C1020" s="16"/>
+      <c r="D1020" s="23"/>
+      <c r="E1020" s="7"/>
+    </row>
+    <row r="1021" spans="1:5">
+      <c r="A1021" s="16"/>
+      <c r="B1021" s="16"/>
+      <c r="C1021" s="16"/>
+      <c r="D1021" s="23"/>
+      <c r="E1021" s="7"/>
+    </row>
+    <row r="1022" spans="1:5">
+      <c r="A1022" s="16"/>
+      <c r="B1022" s="16"/>
+      <c r="C1022" s="16"/>
+      <c r="D1022" s="23"/>
+      <c r="E1022" s="7"/>
+    </row>
+    <row r="1023" spans="1:5">
+      <c r="A1023" s="16"/>
+      <c r="B1023" s="16"/>
+      <c r="C1023" s="16"/>
+      <c r="D1023" s="23"/>
+      <c r="E1023" s="7"/>
+    </row>
+    <row r="1024" spans="1:5">
+      <c r="A1024" s="16"/>
+      <c r="B1024" s="16"/>
+      <c r="C1024" s="16"/>
+      <c r="D1024" s="23"/>
+      <c r="E1024" s="7"/>
+    </row>
+    <row r="1025" spans="1:5">
+      <c r="A1025" s="16"/>
+      <c r="B1025" s="16"/>
+      <c r="C1025" s="16"/>
+      <c r="D1025" s="23"/>
+      <c r="E1025" s="7"/>
+    </row>
+    <row r="1026" spans="1:5">
+      <c r="A1026" s="16"/>
+      <c r="B1026" s="16"/>
+      <c r="C1026" s="16"/>
+      <c r="D1026" s="23"/>
+      <c r="E1026" s="7"/>
+    </row>
+    <row r="1027" spans="1:5">
+      <c r="A1027" s="16"/>
+      <c r="B1027" s="16"/>
+      <c r="C1027" s="16"/>
+      <c r="D1027" s="23"/>
+      <c r="E1027" s="7"/>
+    </row>
+    <row r="1028" spans="1:5">
+      <c r="A1028" s="16"/>
+      <c r="B1028" s="16"/>
+      <c r="C1028" s="16"/>
+      <c r="D1028" s="23"/>
+      <c r="E1028" s="7"/>
+    </row>
+    <row r="1029" spans="1:5">
+      <c r="A1029" s="16"/>
+      <c r="B1029" s="16"/>
+      <c r="C1029" s="16"/>
+      <c r="D1029" s="23"/>
+      <c r="E1029" s="7"/>
+    </row>
+    <row r="1030" spans="1:5">
+      <c r="A1030" s="16"/>
+      <c r="B1030" s="16"/>
+      <c r="C1030" s="16"/>
+      <c r="D1030" s="23"/>
+      <c r="E1030" s="7"/>
+    </row>
+    <row r="1031" spans="1:5">
+      <c r="A1031" s="16"/>
+      <c r="B1031" s="16"/>
+      <c r="C1031" s="16"/>
+      <c r="D1031" s="23"/>
+      <c r="E1031" s="7"/>
+    </row>
+    <row r="1032" spans="1:5">
+      <c r="A1032" s="16"/>
+      <c r="B1032" s="16"/>
+      <c r="C1032" s="16"/>
+      <c r="D1032" s="23"/>
+      <c r="E1032" s="7"/>
+    </row>
+    <row r="1033" spans="1:5">
+      <c r="A1033" s="16"/>
+      <c r="B1033" s="16"/>
+      <c r="C1033" s="16"/>
+      <c r="D1033" s="23"/>
+      <c r="E1033" s="7"/>
+    </row>
+    <row r="1034" spans="1:5">
+      <c r="A1034" s="16"/>
+      <c r="B1034" s="16"/>
+      <c r="C1034" s="16"/>
+      <c r="D1034" s="23"/>
+      <c r="E1034" s="7"/>
+    </row>
+    <row r="1035" spans="1:5">
+      <c r="A1035" s="16"/>
+      <c r="B1035" s="16"/>
+      <c r="C1035" s="16"/>
+      <c r="D1035" s="23"/>
+      <c r="E1035" s="7"/>
+    </row>
+    <row r="1036" spans="1:5">
+      <c r="A1036" s="16"/>
+      <c r="B1036" s="16"/>
+      <c r="C1036" s="16"/>
+      <c r="D1036" s="23"/>
+      <c r="E1036" s="7"/>
+    </row>
+    <row r="1037" spans="1:5">
+      <c r="A1037" s="16"/>
+      <c r="B1037" s="16"/>
+      <c r="C1037" s="16"/>
+      <c r="D1037" s="23"/>
+      <c r="E1037" s="7"/>
+    </row>
+    <row r="1038" spans="1:5">
+      <c r="A1038" s="16"/>
+      <c r="B1038" s="16"/>
+      <c r="C1038" s="16"/>
+      <c r="D1038" s="23"/>
+      <c r="E1038" s="7"/>
+    </row>
+    <row r="1039" spans="1:5">
+      <c r="A1039" s="16"/>
+      <c r="B1039" s="16"/>
+      <c r="C1039" s="16"/>
+      <c r="D1039" s="23"/>
+      <c r="E1039" s="7"/>
+    </row>
+    <row r="1040" spans="1:5">
+      <c r="A1040" s="16"/>
+      <c r="B1040" s="16"/>
+      <c r="C1040" s="16"/>
+      <c r="D1040" s="23"/>
+      <c r="E1040" s="7"/>
+    </row>
+    <row r="1041" spans="1:5">
+      <c r="A1041" s="16"/>
+      <c r="B1041" s="16"/>
+      <c r="C1041" s="16"/>
+      <c r="D1041" s="23"/>
+      <c r="E1041" s="7"/>
+    </row>
+    <row r="1042" spans="1:5">
+      <c r="A1042" s="16"/>
+      <c r="B1042" s="16"/>
+      <c r="C1042" s="16"/>
+      <c r="D1042" s="23"/>
+      <c r="E1042" s="7"/>
+    </row>
+    <row r="1043" spans="1:5">
+      <c r="A1043" s="16"/>
+      <c r="B1043" s="16"/>
+      <c r="C1043" s="16"/>
+      <c r="D1043" s="23"/>
+      <c r="E1043" s="7"/>
+    </row>
+    <row r="1044" spans="1:5">
+      <c r="A1044" s="16"/>
+      <c r="B1044" s="16"/>
+      <c r="C1044" s="16"/>
+      <c r="D1044" s="23"/>
+      <c r="E1044" s="7"/>
+    </row>
+    <row r="1045" spans="1:5">
+      <c r="A1045" s="16"/>
+      <c r="B1045" s="16"/>
+      <c r="C1045" s="16"/>
+      <c r="D1045" s="23"/>
+      <c r="E1045" s="7"/>
+    </row>
+    <row r="1046" spans="1:5">
+      <c r="A1046" s="16"/>
+      <c r="B1046" s="16"/>
+      <c r="C1046" s="16"/>
+      <c r="D1046" s="23"/>
+      <c r="E1046" s="7"/>
+    </row>
+    <row r="1047" spans="1:5">
+      <c r="A1047" s="16"/>
+      <c r="B1047" s="16"/>
+      <c r="C1047" s="16"/>
+      <c r="D1047" s="23"/>
+      <c r="E1047" s="7"/>
+    </row>
+    <row r="1048" spans="1:5">
+      <c r="A1048" s="16"/>
+      <c r="B1048" s="16"/>
+      <c r="C1048" s="16"/>
+      <c r="D1048" s="23"/>
+      <c r="E1048" s="7"/>
+    </row>
+    <row r="1049" spans="1:5">
+      <c r="A1049" s="16"/>
+      <c r="B1049" s="16"/>
+      <c r="C1049" s="16"/>
+      <c r="D1049" s="23"/>
+      <c r="E1049" s="7"/>
+    </row>
+    <row r="1050" spans="1:5">
+      <c r="A1050" s="16"/>
+      <c r="B1050" s="16"/>
+      <c r="C1050" s="16"/>
+      <c r="D1050" s="23"/>
+      <c r="E1050" s="7"/>
+    </row>
+    <row r="1051" spans="1:5">
+      <c r="A1051" s="16"/>
+      <c r="B1051" s="16"/>
+      <c r="C1051" s="16"/>
+      <c r="D1051" s="23"/>
+      <c r="E1051" s="7"/>
+    </row>
+    <row r="1052" spans="1:5">
+      <c r="A1052" s="16"/>
+      <c r="B1052" s="16"/>
+      <c r="C1052" s="16"/>
+      <c r="D1052" s="23"/>
+      <c r="E1052" s="7"/>
+    </row>
+    <row r="1053" spans="1:5">
+      <c r="A1053" s="16"/>
+      <c r="B1053" s="16"/>
+      <c r="C1053" s="16"/>
+      <c r="D1053" s="23"/>
+      <c r="E1053" s="7"/>
+    </row>
+    <row r="1054" spans="1:5">
+      <c r="A1054" s="16"/>
+      <c r="B1054" s="16"/>
+      <c r="C1054" s="16"/>
+      <c r="D1054" s="23"/>
+      <c r="E1054" s="7"/>
+    </row>
+    <row r="1055" spans="1:5">
+      <c r="A1055" s="16"/>
+      <c r="B1055" s="16"/>
+      <c r="C1055" s="16"/>
+      <c r="D1055" s="23"/>
+      <c r="E1055" s="7"/>
+    </row>
+    <row r="1056" spans="1:5">
+      <c r="A1056" s="16"/>
+      <c r="B1056" s="16"/>
+      <c r="C1056" s="16"/>
+      <c r="D1056" s="23"/>
+      <c r="E1056" s="7"/>
+    </row>
+    <row r="1057" spans="1:5">
+      <c r="A1057" s="16"/>
+      <c r="B1057" s="16"/>
+      <c r="C1057" s="16"/>
+      <c r="D1057" s="23"/>
+      <c r="E1057" s="7"/>
+    </row>
+    <row r="1058" spans="1:5">
+      <c r="A1058" s="16"/>
+      <c r="B1058" s="16"/>
+      <c r="C1058" s="16"/>
+      <c r="D1058" s="23"/>
+      <c r="E1058" s="7"/>
+    </row>
+    <row r="1059" spans="1:5">
+      <c r="A1059" s="16"/>
+      <c r="B1059" s="16"/>
+      <c r="C1059" s="16"/>
+      <c r="D1059" s="23"/>
+      <c r="E1059" s="7"/>
+    </row>
+    <row r="1060" spans="1:5">
+      <c r="A1060" s="16"/>
+      <c r="B1060" s="16"/>
+      <c r="C1060" s="16"/>
+      <c r="D1060" s="23"/>
+      <c r="E1060" s="7"/>
+    </row>
+    <row r="1061" spans="1:5">
+      <c r="A1061" s="16"/>
+      <c r="B1061" s="16"/>
+      <c r="C1061" s="16"/>
+      <c r="D1061" s="23"/>
+      <c r="E1061" s="7"/>
+    </row>
+    <row r="1062" spans="1:5">
+      <c r="A1062" s="16"/>
+      <c r="B1062" s="16"/>
+      <c r="C1062" s="16"/>
+      <c r="D1062" s="23"/>
+      <c r="E1062" s="7"/>
+    </row>
+    <row r="1063" spans="1:5">
+      <c r="A1063" s="16"/>
+      <c r="B1063" s="16"/>
+      <c r="C1063" s="16"/>
+      <c r="D1063" s="23"/>
+      <c r="E1063" s="7"/>
+    </row>
+    <row r="1064" spans="1:5">
+      <c r="A1064" s="16"/>
+      <c r="B1064" s="16"/>
+      <c r="C1064" s="16"/>
+      <c r="D1064" s="23"/>
+      <c r="E1064" s="7"/>
+    </row>
+    <row r="1065" spans="1:5">
+      <c r="A1065" s="16"/>
+      <c r="B1065" s="16"/>
+      <c r="C1065" s="16"/>
+      <c r="D1065" s="23"/>
+      <c r="E1065" s="7"/>
+    </row>
+    <row r="1066" spans="1:5">
+      <c r="A1066" s="16"/>
+      <c r="B1066" s="16"/>
+      <c r="C1066" s="16"/>
+      <c r="D1066" s="23"/>
+      <c r="E1066" s="7"/>
+    </row>
+    <row r="1067" spans="1:5">
+      <c r="A1067" s="16"/>
+      <c r="B1067" s="16"/>
+      <c r="C1067" s="16"/>
+      <c r="D1067" s="23"/>
+      <c r="E1067" s="7"/>
+    </row>
+    <row r="1068" spans="1:5">
+      <c r="A1068" s="16"/>
+      <c r="B1068" s="16"/>
+      <c r="C1068" s="16"/>
+      <c r="D1068" s="23"/>
+      <c r="E1068" s="7"/>
+    </row>
+    <row r="1069" spans="1:5">
+      <c r="A1069" s="16"/>
+      <c r="B1069" s="16"/>
+      <c r="C1069" s="16"/>
+      <c r="D1069" s="23"/>
+      <c r="E1069" s="7"/>
+    </row>
+    <row r="1070" spans="1:5">
+      <c r="A1070" s="16"/>
+      <c r="B1070" s="16"/>
+      <c r="C1070" s="16"/>
+      <c r="D1070" s="23"/>
+      <c r="E1070" s="7"/>
+    </row>
+    <row r="1071" spans="1:5">
+      <c r="A1071" s="16"/>
+      <c r="B1071" s="16"/>
+      <c r="C1071" s="16"/>
+      <c r="D1071" s="23"/>
+      <c r="E1071" s="7"/>
+    </row>
+    <row r="1072" spans="1:5">
+      <c r="A1072" s="16"/>
+      <c r="B1072" s="16"/>
+      <c r="C1072" s="16"/>
+      <c r="D1072" s="23"/>
+      <c r="E1072" s="7"/>
+    </row>
+    <row r="1073" spans="1:5">
+      <c r="A1073" s="16"/>
+      <c r="B1073" s="16"/>
+      <c r="C1073" s="16"/>
+      <c r="D1073" s="23"/>
+      <c r="E1073" s="7"/>
+    </row>
+    <row r="1074" spans="1:5">
+      <c r="A1074" s="16"/>
+      <c r="B1074" s="16"/>
+      <c r="C1074" s="16"/>
+      <c r="D1074" s="23"/>
+      <c r="E1074" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="110">
+  <mergeCells count="114">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A20:A24"/>
@@ -14700,6 +17363,7 @@
     <mergeCell ref="A655:A666"/>
     <mergeCell ref="A667:A693"/>
     <mergeCell ref="A694:A721"/>
+    <mergeCell ref="A723:A770"/>
     <mergeCell ref="B12:B18"/>
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B79"/>
@@ -14783,6 +17447,9 @@
     <mergeCell ref="B705:B710"/>
     <mergeCell ref="B711:B715"/>
     <mergeCell ref="B716:B720"/>
+    <mergeCell ref="B723:B742"/>
+    <mergeCell ref="B743:B752"/>
+    <mergeCell ref="B753:B770"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -14796,7 +17463,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -14819,71 +17486,71 @@
     </row>
     <row r="2" ht="14.25" spans="1:3">
       <c r="A2" s="20" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B2" s="21">
-        <v>666666</v>
+        <v>1141</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1142</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>1109</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="20" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B3" s="21">
-        <v>666666</v>
+        <v>1144</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>1142</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>1111</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
       <c r="A4" s="23"/>
-      <c r="B4" s="21">
-        <v>666666</v>
+      <c r="B4" s="21" t="s">
+        <v>1142</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>1112</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:3">
       <c r="A5" s="20" t="s">
-        <v>1113</v>
+        <v>1147</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>1114</v>
+        <v>1148</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>1115</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:3">
       <c r="A6" s="20" t="s">
-        <v>1108</v>
+        <v>1141</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="22" t="s">
-        <v>1116</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:3">
       <c r="A7" s="20" t="s">
-        <v>1108</v>
+        <v>1141</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>1117</v>
+        <v>1151</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>1118</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="22" t="s">
-        <v>1119</v>
+        <v>1153</v>
       </c>
     </row>
   </sheetData>
@@ -14931,7 +17598,7 @@
         <v>15566595533</v>
       </c>
       <c r="C2" t="s">
-        <v>1120</v>
+        <v>1154</v>
       </c>
     </row>
   </sheetData>
@@ -14945,8 +17612,8 @@
   <sheetPr/>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -14962,7 +17629,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1121</v>
+        <v>1155</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -14975,18 +17642,18 @@
         <v>138</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1122</v>
+        <v>1156</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
-        <v>1123</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:5">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>1124</v>
+        <v>1158</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -14995,7 +17662,7 @@
     <row r="4" ht="24" customHeight="1" spans="1:5">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>1125</v>
+        <v>1159</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -15011,7 +17678,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="9" t="s">
-        <v>1126</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:5">
@@ -15034,21 +17701,21 @@
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:5">
       <c r="A8" s="9" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>289</v>
+        <v>1161</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="9" t="s">
-        <v>1127</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:5">
       <c r="A9" s="12"/>
       <c r="B9" s="10" t="s">
-        <v>1128</v>
+        <v>1163</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -15057,7 +17724,7 @@
     <row r="10" ht="21" customHeight="1" spans="1:5">
       <c r="A10" s="15"/>
       <c r="B10" s="10" t="s">
-        <v>1129</v>
+        <v>1164</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -15065,21 +17732,21 @@
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:5">
       <c r="A11" s="9" t="s">
-        <v>1130</v>
+        <v>1165</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1131</v>
+        <v>1166</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="9" t="s">
-        <v>1132</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:5">
       <c r="A12" s="12"/>
       <c r="B12" s="10" t="s">
-        <v>1133</v>
+        <v>1161</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -15088,7 +17755,7 @@
     <row r="13" ht="19" customHeight="1" spans="1:5">
       <c r="A13" s="15"/>
       <c r="B13" s="10" t="s">
-        <v>1134</v>
+        <v>289</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -15099,18 +17766,18 @@
         <v>672</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>1135</v>
+        <v>1168</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="9" t="s">
-        <v>1136</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="12"/>
       <c r="B15" s="10" t="s">
-        <v>1137</v>
+        <v>1170</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -15119,7 +17786,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="12"/>
       <c r="B16" s="10" t="s">
-        <v>1138</v>
+        <v>1171</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -15128,7 +17795,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="15"/>
       <c r="B17" s="10" t="s">
-        <v>1139</v>
+        <v>1172</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -15136,21 +17803,21 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
-        <v>1140</v>
+        <v>1173</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1129</v>
+        <v>1174</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="9" t="s">
-        <v>1141</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="12"/>
       <c r="B19" s="10" t="s">
-        <v>1131</v>
+        <v>1176</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -15159,7 +17826,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="12"/>
       <c r="B20" s="10" t="s">
-        <v>1142</v>
+        <v>1177</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -15168,7 +17835,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="15"/>
       <c r="B21" s="10" t="s">
-        <v>1131</v>
+        <v>1176</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -15184,13 +17851,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="9" t="s">
-        <v>1143</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="23" ht="35" customHeight="1" spans="1:5">
       <c r="A23" s="12"/>
       <c r="B23" s="10" t="s">
-        <v>1144</v>
+        <v>1179</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -15201,18 +17868,18 @@
         <v>807</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>1145</v>
+        <v>1180</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="9" t="s">
-        <v>1146</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="12"/>
       <c r="B25" s="10" t="s">
-        <v>1147</v>
+        <v>1182</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -15221,7 +17888,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="12"/>
       <c r="B26" s="10" t="s">
-        <v>1148</v>
+        <v>1183</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -15230,7 +17897,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="15"/>
       <c r="B27" s="10" t="s">
-        <v>1108</v>
+        <v>1141</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -15238,21 +17905,21 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="9" t="s">
-        <v>1149</v>
+        <v>1184</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1150</v>
+        <v>1185</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="9" t="s">
-        <v>1151</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="12"/>
       <c r="B29" s="10" t="s">
-        <v>1152</v>
+        <v>1187</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -15261,7 +17928,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="12"/>
       <c r="B30" s="10" t="s">
-        <v>1153</v>
+        <v>1188</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -15281,18 +17948,18 @@
         <v>990</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>1154</v>
+        <v>1189</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="9" t="s">
-        <v>1155</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:5">
       <c r="A33" s="12"/>
       <c r="B33" s="10" t="s">
-        <v>1156</v>
+        <v>1191</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -15303,18 +17970,18 @@
         <v>1040</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>1157</v>
+        <v>1192</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="9" t="s">
-        <v>1158</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="12"/>
       <c r="B35" s="10" t="s">
-        <v>1159</v>
+        <v>1194</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -15323,7 +17990,7 @@
     <row r="36" spans="1:5">
       <c r="A36" s="12"/>
       <c r="B36" s="10" t="s">
-        <v>1160</v>
+        <v>1195</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -15332,7 +17999,7 @@
     <row r="37" spans="1:5">
       <c r="A37" s="15"/>
       <c r="B37" s="10" t="s">
-        <v>1161</v>
+        <v>1196</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>

--- a/framfriend/data/TestData/elementDate.xlsx
+++ b/framfriend/data/TestData/elementDate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22800" windowHeight="9360"/>
+    <workbookView windowWidth="22800" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="elementsInfo" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="queryData" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A756:E856"/>
+  <oleSize ref="A774:E874"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="1226">
   <si>
     <t>模块</t>
   </si>
@@ -3441,6 +3441,93 @@
   </si>
   <si>
     <t>新增账号非数字</t>
+  </si>
+  <si>
+    <t>ParmentQuery</t>
+  </si>
+  <si>
+    <t>//*[@id="searchForm"]/div[1]/div/div/ul/li[3]/a</t>
+  </si>
+  <si>
+    <t>己方银行选项一</t>
+  </si>
+  <si>
+    <t>//*[@id="selBankAgentSendPay"]</t>
+  </si>
+  <si>
+    <t>//*[@id="mychart4"]/tbody/tr[1]/td[8]/a[1]</t>
+  </si>
+  <si>
+    <t>详情</t>
+  </si>
+  <si>
+    <t>//*[@id="mychart4"]/tbody/tr[1]/td[8]/a[2]</t>
+  </si>
+  <si>
+    <t>//*[@id="searchBankAgentPayDetail"]</t>
+  </si>
+  <si>
+    <t>详情内查询</t>
+  </si>
+  <si>
+    <t>//*[@id="printSqlConfig"]</t>
+  </si>
+  <si>
+    <t>详情内打印</t>
+  </si>
+  <si>
+    <t>详情内取消</t>
+  </si>
+  <si>
+    <t>//*[@id="searchForm5"]/div[1]/input</t>
+  </si>
+  <si>
+    <t>详情内收款账号</t>
+  </si>
+  <si>
+    <t>//*[@id="searchForm5"]/div[2]/input</t>
+  </si>
+  <si>
+    <t>详情内收款人</t>
+  </si>
+  <si>
+    <t>//*[@id="searchForm5"]/div[3]/input</t>
+  </si>
+  <si>
+    <t>详情内摘要</t>
+  </si>
+  <si>
+    <t>//*[@id="mychart4"]/tbody</t>
+  </si>
+  <si>
+    <t>//*[@id="mychart5"]/tbody</t>
+  </si>
+  <si>
+    <t>不存在查询</t>
+  </si>
+  <si>
+    <t>//*[@id="add_menuDis"]/div/div/div[2]/div[1]/div/div/div[2]/div[1]/div[2]/div[4]/div[1]/span[1]</t>
+  </si>
+  <si>
+    <t>详情不存在查询</t>
+  </si>
+  <si>
+    <t>paydetailedquery</t>
+  </si>
+  <si>
+    <t>//*[@id="searchForm5"]/div[1]/div/button</t>
+  </si>
+  <si>
+    <t>//*[@id="searchForm5"]/div[1]/div/div/ul/li[3]</t>
+  </si>
+  <si>
+    <t>//*[@id="searchBankAgentListQuery"]</t>
+  </si>
+  <si>
+    <t>//*[@id="searchForm5"]/div[4]/input</t>
+  </si>
+  <si>
+    <t>存在查询</t>
   </si>
   <si>
     <t>admin</t>
@@ -3621,7 +3708,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3665,23 +3752,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3694,17 +3772,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3719,6 +3789,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3728,7 +3806,44 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3742,7 +3857,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3764,6 +3879,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3771,39 +3894,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3818,7 +3911,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3830,7 +3971,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3842,109 +4031,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3962,19 +4067,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3986,19 +4079,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4077,6 +4170,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -4103,26 +4220,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4145,32 +4262,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4182,10 +4275,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4194,137 +4287,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4454,14 +4547,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4813,8 +4924,8 @@
   <sheetPr/>
   <dimension ref="A1:E1074"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A756" workbookViewId="0">
-      <selection activeCell="D773" sqref="D773"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A774" workbookViewId="0">
+      <selection activeCell="E795" sqref="E795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -14575,7 +14686,7 @@
       <c r="E722" s="7"/>
     </row>
     <row r="723" spans="1:5">
-      <c r="A723" s="43" t="s">
+      <c r="A723" s="36" t="s">
         <v>1108</v>
       </c>
       <c r="B723" s="36" t="s">
@@ -14592,7 +14703,7 @@
       </c>
     </row>
     <row r="724" spans="1:5">
-      <c r="A724" s="44"/>
+      <c r="A724" s="37"/>
       <c r="B724" s="37"/>
       <c r="C724" s="16" t="s">
         <v>14</v>
@@ -14605,7 +14716,7 @@
       </c>
     </row>
     <row r="725" spans="1:5">
-      <c r="A725" s="44"/>
+      <c r="A725" s="37"/>
       <c r="B725" s="37"/>
       <c r="C725" s="16" t="s">
         <v>14</v>
@@ -14618,7 +14729,7 @@
       </c>
     </row>
     <row r="726" spans="1:5">
-      <c r="A726" s="44"/>
+      <c r="A726" s="37"/>
       <c r="B726" s="37"/>
       <c r="C726" s="16" t="s">
         <v>14</v>
@@ -14631,7 +14742,7 @@
       </c>
     </row>
     <row r="727" spans="1:5">
-      <c r="A727" s="44"/>
+      <c r="A727" s="37"/>
       <c r="B727" s="37"/>
       <c r="C727" s="16" t="s">
         <v>14</v>
@@ -14644,7 +14755,7 @@
       </c>
     </row>
     <row r="728" spans="1:5">
-      <c r="A728" s="44"/>
+      <c r="A728" s="37"/>
       <c r="B728" s="37"/>
       <c r="C728" s="16" t="s">
         <v>14</v>
@@ -14657,7 +14768,7 @@
       </c>
     </row>
     <row r="729" spans="1:5">
-      <c r="A729" s="44"/>
+      <c r="A729" s="37"/>
       <c r="B729" s="37"/>
       <c r="C729" s="16" t="s">
         <v>14</v>
@@ -14670,7 +14781,7 @@
       </c>
     </row>
     <row r="730" spans="1:5">
-      <c r="A730" s="44"/>
+      <c r="A730" s="37"/>
       <c r="B730" s="37"/>
       <c r="C730" s="16" t="s">
         <v>14</v>
@@ -14683,7 +14794,7 @@
       </c>
     </row>
     <row r="731" spans="1:5">
-      <c r="A731" s="44"/>
+      <c r="A731" s="37"/>
       <c r="B731" s="37"/>
       <c r="C731" s="16" t="s">
         <v>14</v>
@@ -14696,7 +14807,7 @@
       </c>
     </row>
     <row r="732" spans="1:5">
-      <c r="A732" s="44"/>
+      <c r="A732" s="37"/>
       <c r="B732" s="37"/>
       <c r="C732" s="16" t="s">
         <v>14</v>
@@ -14709,7 +14820,7 @@
       </c>
     </row>
     <row r="733" spans="1:5">
-      <c r="A733" s="44"/>
+      <c r="A733" s="37"/>
       <c r="B733" s="37"/>
       <c r="C733" s="16" t="s">
         <v>14</v>
@@ -14722,7 +14833,7 @@
       </c>
     </row>
     <row r="734" spans="1:5">
-      <c r="A734" s="44"/>
+      <c r="A734" s="37"/>
       <c r="B734" s="37"/>
       <c r="C734" s="16" t="s">
         <v>14</v>
@@ -14735,7 +14846,7 @@
       </c>
     </row>
     <row r="735" spans="1:5">
-      <c r="A735" s="44"/>
+      <c r="A735" s="37"/>
       <c r="B735" s="37"/>
       <c r="C735" s="16" t="s">
         <v>14</v>
@@ -14748,7 +14859,7 @@
       </c>
     </row>
     <row r="736" spans="1:5">
-      <c r="A736" s="44"/>
+      <c r="A736" s="37"/>
       <c r="B736" s="37"/>
       <c r="C736" s="16" t="s">
         <v>14</v>
@@ -14761,7 +14872,7 @@
       </c>
     </row>
     <row r="737" spans="1:5">
-      <c r="A737" s="44"/>
+      <c r="A737" s="37"/>
       <c r="B737" s="37"/>
       <c r="C737" s="16" t="s">
         <v>14</v>
@@ -14774,7 +14885,7 @@
       </c>
     </row>
     <row r="738" spans="1:5">
-      <c r="A738" s="44"/>
+      <c r="A738" s="37"/>
       <c r="B738" s="37"/>
       <c r="C738" s="16" t="s">
         <v>14</v>
@@ -14787,7 +14898,7 @@
       </c>
     </row>
     <row r="739" spans="1:5">
-      <c r="A739" s="44"/>
+      <c r="A739" s="37"/>
       <c r="B739" s="37"/>
       <c r="C739" s="16" t="s">
         <v>14</v>
@@ -14800,7 +14911,7 @@
       </c>
     </row>
     <row r="740" spans="1:5">
-      <c r="A740" s="44"/>
+      <c r="A740" s="37"/>
       <c r="B740" s="37"/>
       <c r="C740" s="16" t="s">
         <v>14</v>
@@ -14813,7 +14924,7 @@
       </c>
     </row>
     <row r="741" spans="1:5">
-      <c r="A741" s="44"/>
+      <c r="A741" s="37"/>
       <c r="B741" s="37"/>
       <c r="C741" s="16" t="s">
         <v>14</v>
@@ -14826,7 +14937,7 @@
       </c>
     </row>
     <row r="742" spans="1:5">
-      <c r="A742" s="44"/>
+      <c r="A742" s="37"/>
       <c r="B742" s="37"/>
       <c r="C742" s="16" t="s">
         <v>14</v>
@@ -14839,7 +14950,7 @@
       </c>
     </row>
     <row r="743" spans="1:5">
-      <c r="A743" s="44"/>
+      <c r="A743" s="37"/>
       <c r="B743" s="36" t="s">
         <v>471</v>
       </c>
@@ -14854,7 +14965,7 @@
       </c>
     </row>
     <row r="744" spans="1:5">
-      <c r="A744" s="44"/>
+      <c r="A744" s="37"/>
       <c r="B744" s="37"/>
       <c r="C744" s="16" t="s">
         <v>14</v>
@@ -14867,7 +14978,7 @@
       </c>
     </row>
     <row r="745" spans="1:5">
-      <c r="A745" s="44"/>
+      <c r="A745" s="37"/>
       <c r="B745" s="37"/>
       <c r="C745" s="16" t="s">
         <v>14</v>
@@ -14880,7 +14991,7 @@
       </c>
     </row>
     <row r="746" spans="1:5">
-      <c r="A746" s="44"/>
+      <c r="A746" s="37"/>
       <c r="B746" s="37"/>
       <c r="C746" s="16" t="s">
         <v>14</v>
@@ -14893,7 +15004,7 @@
       </c>
     </row>
     <row r="747" spans="1:5">
-      <c r="A747" s="44"/>
+      <c r="A747" s="37"/>
       <c r="B747" s="37"/>
       <c r="C747" s="16" t="s">
         <v>14</v>
@@ -14906,7 +15017,7 @@
       </c>
     </row>
     <row r="748" spans="1:5">
-      <c r="A748" s="44"/>
+      <c r="A748" s="37"/>
       <c r="B748" s="37"/>
       <c r="C748" s="16" t="s">
         <v>14</v>
@@ -14919,7 +15030,7 @@
       </c>
     </row>
     <row r="749" spans="1:5">
-      <c r="A749" s="44"/>
+      <c r="A749" s="37"/>
       <c r="B749" s="37"/>
       <c r="C749" s="16" t="s">
         <v>14</v>
@@ -14932,7 +15043,7 @@
       </c>
     </row>
     <row r="750" spans="1:5">
-      <c r="A750" s="44"/>
+      <c r="A750" s="37"/>
       <c r="B750" s="37"/>
       <c r="C750" s="16" t="s">
         <v>14</v>
@@ -14945,7 +15056,7 @@
       </c>
     </row>
     <row r="751" spans="1:5">
-      <c r="A751" s="44"/>
+      <c r="A751" s="37"/>
       <c r="B751" s="37"/>
       <c r="C751" s="16" t="s">
         <v>14</v>
@@ -14958,7 +15069,7 @@
       </c>
     </row>
     <row r="752" spans="1:5">
-      <c r="A752" s="44"/>
+      <c r="A752" s="37"/>
       <c r="B752" s="38"/>
       <c r="C752" s="16" t="s">
         <v>14</v>
@@ -14971,8 +15082,8 @@
       </c>
     </row>
     <row r="753" spans="1:5">
-      <c r="A753" s="44"/>
-      <c r="B753" s="43" t="s">
+      <c r="A753" s="37"/>
+      <c r="B753" s="36" t="s">
         <v>98</v>
       </c>
       <c r="C753" s="16" t="s">
@@ -14986,8 +15097,8 @@
       </c>
     </row>
     <row r="754" spans="1:5">
-      <c r="A754" s="44"/>
-      <c r="B754" s="44"/>
+      <c r="A754" s="37"/>
+      <c r="B754" s="37"/>
       <c r="C754" s="16" t="s">
         <v>14</v>
       </c>
@@ -14999,8 +15110,8 @@
       </c>
     </row>
     <row r="755" spans="1:5">
-      <c r="A755" s="44"/>
-      <c r="B755" s="44"/>
+      <c r="A755" s="37"/>
+      <c r="B755" s="37"/>
       <c r="C755" s="16" t="s">
         <v>14</v>
       </c>
@@ -15012,8 +15123,8 @@
       </c>
     </row>
     <row r="756" spans="1:5">
-      <c r="A756" s="44"/>
-      <c r="B756" s="44"/>
+      <c r="A756" s="37"/>
+      <c r="B756" s="37"/>
       <c r="C756" s="16" t="s">
         <v>14</v>
       </c>
@@ -15025,8 +15136,8 @@
       </c>
     </row>
     <row r="757" spans="1:5">
-      <c r="A757" s="44"/>
-      <c r="B757" s="44"/>
+      <c r="A757" s="37"/>
+      <c r="B757" s="37"/>
       <c r="C757" s="16" t="s">
         <v>14</v>
       </c>
@@ -15038,8 +15149,8 @@
       </c>
     </row>
     <row r="758" spans="1:5">
-      <c r="A758" s="44"/>
-      <c r="B758" s="44"/>
+      <c r="A758" s="37"/>
+      <c r="B758" s="37"/>
       <c r="C758" s="16" t="s">
         <v>14</v>
       </c>
@@ -15051,8 +15162,8 @@
       </c>
     </row>
     <row r="759" spans="1:5">
-      <c r="A759" s="44"/>
-      <c r="B759" s="44"/>
+      <c r="A759" s="37"/>
+      <c r="B759" s="37"/>
       <c r="C759" s="16" t="s">
         <v>14</v>
       </c>
@@ -15064,8 +15175,8 @@
       </c>
     </row>
     <row r="760" spans="1:5">
-      <c r="A760" s="44"/>
-      <c r="B760" s="44"/>
+      <c r="A760" s="37"/>
+      <c r="B760" s="37"/>
       <c r="C760" s="16" t="s">
         <v>14</v>
       </c>
@@ -15077,8 +15188,8 @@
       </c>
     </row>
     <row r="761" spans="1:5">
-      <c r="A761" s="44"/>
-      <c r="B761" s="44"/>
+      <c r="A761" s="37"/>
+      <c r="B761" s="37"/>
       <c r="C761" s="16" t="s">
         <v>14</v>
       </c>
@@ -15090,8 +15201,8 @@
       </c>
     </row>
     <row r="762" spans="1:5">
-      <c r="A762" s="44"/>
-      <c r="B762" s="44"/>
+      <c r="A762" s="37"/>
+      <c r="B762" s="37"/>
       <c r="C762" s="16" t="s">
         <v>14</v>
       </c>
@@ -15103,8 +15214,8 @@
       </c>
     </row>
     <row r="763" spans="1:5">
-      <c r="A763" s="44"/>
-      <c r="B763" s="44"/>
+      <c r="A763" s="37"/>
+      <c r="B763" s="37"/>
       <c r="C763" s="16" t="s">
         <v>14</v>
       </c>
@@ -15116,8 +15227,8 @@
       </c>
     </row>
     <row r="764" spans="1:5">
-      <c r="A764" s="44"/>
-      <c r="B764" s="44"/>
+      <c r="A764" s="37"/>
+      <c r="B764" s="37"/>
       <c r="C764" s="16" t="s">
         <v>14</v>
       </c>
@@ -15129,8 +15240,8 @@
       </c>
     </row>
     <row r="765" spans="1:5">
-      <c r="A765" s="44"/>
-      <c r="B765" s="44"/>
+      <c r="A765" s="37"/>
+      <c r="B765" s="37"/>
       <c r="C765" s="16" t="s">
         <v>14</v>
       </c>
@@ -15142,8 +15253,8 @@
       </c>
     </row>
     <row r="766" spans="1:5">
-      <c r="A766" s="44"/>
-      <c r="B766" s="44"/>
+      <c r="A766" s="37"/>
+      <c r="B766" s="37"/>
       <c r="C766" s="16" t="s">
         <v>14</v>
       </c>
@@ -15155,8 +15266,8 @@
       </c>
     </row>
     <row r="767" spans="1:5">
-      <c r="A767" s="44"/>
-      <c r="B767" s="44"/>
+      <c r="A767" s="37"/>
+      <c r="B767" s="37"/>
       <c r="C767" s="16" t="s">
         <v>14</v>
       </c>
@@ -15168,8 +15279,8 @@
       </c>
     </row>
     <row r="768" spans="1:5">
-      <c r="A768" s="44"/>
-      <c r="B768" s="44"/>
+      <c r="A768" s="37"/>
+      <c r="B768" s="37"/>
       <c r="C768" s="16" t="s">
         <v>14</v>
       </c>
@@ -15181,8 +15292,8 @@
       </c>
     </row>
     <row r="769" spans="1:5">
-      <c r="A769" s="44"/>
-      <c r="B769" s="44"/>
+      <c r="A769" s="37"/>
+      <c r="B769" s="37"/>
       <c r="C769" s="16" t="s">
         <v>14</v>
       </c>
@@ -15194,8 +15305,8 @@
       </c>
     </row>
     <row r="770" spans="1:5">
-      <c r="A770" s="45"/>
-      <c r="B770" s="45"/>
+      <c r="A770" s="38"/>
+      <c r="B770" s="38"/>
       <c r="C770" s="16" t="s">
         <v>14</v>
       </c>
@@ -15207,189 +15318,355 @@
       </c>
     </row>
     <row r="771" spans="1:5">
-      <c r="A771" s="16"/>
-      <c r="B771" s="16"/>
-      <c r="C771" s="16"/>
-      <c r="D771" s="23"/>
-      <c r="E771" s="7"/>
+      <c r="A771" s="43" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B771" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C771" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D771" s="23" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E771" s="7" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="772" spans="1:5">
-      <c r="A772" s="16"/>
-      <c r="B772" s="16"/>
-      <c r="C772" s="16"/>
-      <c r="D772" s="23"/>
-      <c r="E772" s="7"/>
+      <c r="A772" s="45"/>
+      <c r="B772" s="44"/>
+      <c r="C772" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D772" s="23" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E772" s="7" t="s">
+        <v>1143</v>
+      </c>
     </row>
     <row r="773" spans="1:5">
-      <c r="A773" s="16"/>
-      <c r="B773" s="16"/>
-      <c r="C773" s="16"/>
-      <c r="D773" s="23"/>
-      <c r="E773" s="7"/>
+      <c r="A773" s="45"/>
+      <c r="B773" s="44"/>
+      <c r="C773" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D773" s="23" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E773" s="7" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="774" spans="1:5">
-      <c r="A774" s="16"/>
-      <c r="B774" s="16"/>
-      <c r="C774" s="16"/>
-      <c r="D774" s="23"/>
-      <c r="E774" s="7"/>
+      <c r="A774" s="45"/>
+      <c r="B774" s="44"/>
+      <c r="C774" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D774" s="23" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E774" s="7" t="s">
+        <v>1146</v>
+      </c>
     </row>
     <row r="775" spans="1:5">
-      <c r="A775" s="16"/>
-      <c r="B775" s="16"/>
-      <c r="C775" s="16"/>
-      <c r="D775" s="23"/>
-      <c r="E775" s="7"/>
+      <c r="A775" s="45"/>
+      <c r="B775" s="44"/>
+      <c r="C775" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D775" s="23" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E775" s="7" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="776" spans="1:5">
-      <c r="A776" s="16"/>
-      <c r="B776" s="16"/>
-      <c r="C776" s="16"/>
-      <c r="D776" s="23"/>
-      <c r="E776" s="7"/>
+      <c r="A776" s="45"/>
+      <c r="B776" s="44"/>
+      <c r="C776" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D776" s="23" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E776" s="7" t="s">
+        <v>1149</v>
+      </c>
     </row>
     <row r="777" spans="1:5">
-      <c r="A777" s="16"/>
-      <c r="B777" s="16"/>
-      <c r="C777" s="16"/>
-      <c r="D777" s="23"/>
-      <c r="E777" s="7"/>
+      <c r="A777" s="45"/>
+      <c r="B777" s="44"/>
+      <c r="C777" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D777" s="23" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E777" s="7" t="s">
+        <v>1151</v>
+      </c>
     </row>
     <row r="778" spans="1:5">
-      <c r="A778" s="16"/>
-      <c r="B778" s="16"/>
-      <c r="C778" s="16"/>
-      <c r="D778" s="23"/>
-      <c r="E778" s="7"/>
+      <c r="A778" s="45"/>
+      <c r="B778" s="44"/>
+      <c r="C778" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D778" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="E778" s="7" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="779" spans="1:5">
-      <c r="A779" s="16"/>
-      <c r="B779" s="16"/>
-      <c r="C779" s="16"/>
-      <c r="D779" s="23"/>
-      <c r="E779" s="7"/>
+      <c r="A779" s="45"/>
+      <c r="B779" s="44" t="s">
+        <v>471</v>
+      </c>
+      <c r="C779" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D779" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E779" s="7" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="780" spans="1:5">
-      <c r="A780" s="16"/>
-      <c r="B780" s="16"/>
-      <c r="C780" s="16"/>
-      <c r="D780" s="23"/>
-      <c r="E780" s="7"/>
+      <c r="A780" s="45"/>
+      <c r="B780" s="44"/>
+      <c r="C780" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D780" s="23" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E780" s="7" t="s">
+        <v>1154</v>
+      </c>
     </row>
     <row r="781" spans="1:5">
-      <c r="A781" s="16"/>
-      <c r="B781" s="16"/>
-      <c r="C781" s="16"/>
-      <c r="D781" s="23"/>
-      <c r="E781" s="7"/>
+      <c r="A781" s="45"/>
+      <c r="B781" s="44"/>
+      <c r="C781" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D781" s="23" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E781" s="7" t="s">
+        <v>1156</v>
+      </c>
     </row>
     <row r="782" spans="1:5">
-      <c r="A782" s="16"/>
-      <c r="B782" s="16"/>
-      <c r="C782" s="16"/>
-      <c r="D782" s="23"/>
-      <c r="E782" s="7"/>
+      <c r="A782" s="45"/>
+      <c r="B782" s="44"/>
+      <c r="C782" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D782" s="23" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E782" s="7" t="s">
+        <v>1158</v>
+      </c>
     </row>
     <row r="783" spans="1:5">
-      <c r="A783" s="16"/>
-      <c r="B783" s="16"/>
-      <c r="C783" s="16"/>
-      <c r="D783" s="23"/>
-      <c r="E783" s="7"/>
+      <c r="A783" s="45"/>
+      <c r="B783" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C783" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D783" s="23" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E783" s="7" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="784" spans="1:5">
-      <c r="A784" s="16"/>
-      <c r="B784" s="16"/>
-      <c r="C784" s="16"/>
-      <c r="D784" s="23"/>
-      <c r="E784" s="7"/>
+      <c r="A784" s="45"/>
+      <c r="B784" s="47"/>
+      <c r="C784" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D784" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="E784" s="7" t="s">
+        <v>1146</v>
+      </c>
     </row>
     <row r="785" spans="1:5">
-      <c r="A785" s="16"/>
-      <c r="B785" s="16"/>
-      <c r="C785" s="16"/>
-      <c r="D785" s="23"/>
-      <c r="E785" s="7"/>
+      <c r="A785" s="45"/>
+      <c r="B785" s="47"/>
+      <c r="C785" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D785" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E785" s="7" t="s">
+        <v>1149</v>
+      </c>
     </row>
     <row r="786" spans="1:5">
-      <c r="A786" s="16"/>
-      <c r="B786" s="16"/>
-      <c r="C786" s="16"/>
-      <c r="D786" s="23"/>
-      <c r="E786" s="7"/>
+      <c r="A786" s="45"/>
+      <c r="B786" s="47"/>
+      <c r="C786" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D786" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="E786" s="7" t="s">
+        <v>1161</v>
+      </c>
     </row>
     <row r="787" spans="1:5">
-      <c r="A787" s="16"/>
-      <c r="B787" s="16"/>
-      <c r="C787" s="16"/>
-      <c r="D787" s="23"/>
-      <c r="E787" s="7"/>
+      <c r="A787" s="48"/>
+      <c r="B787" s="49"/>
+      <c r="C787" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D787" s="23" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E787" s="7" t="s">
+        <v>1163</v>
+      </c>
     </row>
     <row r="788" spans="1:5">
-      <c r="A788" s="16"/>
-      <c r="B788" s="16"/>
-      <c r="C788" s="16"/>
-      <c r="D788" s="23"/>
-      <c r="E788" s="7"/>
+      <c r="A788" s="50" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B788" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C788" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D788" s="23" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E788" s="7" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="789" spans="1:5">
-      <c r="A789" s="16"/>
-      <c r="B789" s="16"/>
-      <c r="C789" s="16"/>
-      <c r="D789" s="23"/>
-      <c r="E789" s="7"/>
+      <c r="A789" s="50"/>
+      <c r="B789" s="44"/>
+      <c r="C789" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D789" s="23" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E789" s="7" t="s">
+        <v>1143</v>
+      </c>
     </row>
     <row r="790" spans="1:5">
-      <c r="A790" s="16"/>
-      <c r="B790" s="16"/>
-      <c r="C790" s="16"/>
-      <c r="D790" s="23"/>
-      <c r="E790" s="7"/>
+      <c r="A790" s="50"/>
+      <c r="B790" s="44"/>
+      <c r="C790" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D790" s="23" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E790" s="7" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="791" spans="1:5">
-      <c r="A791" s="16"/>
-      <c r="B791" s="16"/>
-      <c r="C791" s="16"/>
-      <c r="D791" s="23"/>
-      <c r="E791" s="7"/>
+      <c r="A791" s="50"/>
+      <c r="B791" s="44" t="s">
+        <v>471</v>
+      </c>
+      <c r="C791" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D791" s="23" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E791" s="7" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="792" spans="1:5">
-      <c r="A792" s="16"/>
-      <c r="B792" s="16"/>
-      <c r="C792" s="16"/>
-      <c r="D792" s="23"/>
-      <c r="E792" s="7"/>
+      <c r="A792" s="50"/>
+      <c r="B792" s="44"/>
+      <c r="C792" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D792" s="23" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E792" s="7" t="s">
+        <v>1126</v>
+      </c>
     </row>
     <row r="793" spans="1:5">
-      <c r="A793" s="16"/>
-      <c r="B793" s="16"/>
-      <c r="C793" s="16"/>
-      <c r="D793" s="23"/>
-      <c r="E793" s="7"/>
+      <c r="A793" s="50"/>
+      <c r="B793" s="44"/>
+      <c r="C793" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D793" s="23" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E793" s="7" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="794" spans="1:5">
-      <c r="A794" s="16"/>
-      <c r="B794" s="16"/>
-      <c r="C794" s="16"/>
-      <c r="D794" s="23"/>
-      <c r="E794" s="7"/>
+      <c r="A794" s="50"/>
+      <c r="B794" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C794" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D794" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E794" s="7" t="s">
+        <v>1169</v>
+      </c>
     </row>
     <row r="795" spans="1:5">
-      <c r="A795" s="16"/>
-      <c r="B795" s="16"/>
-      <c r="C795" s="16"/>
-      <c r="D795" s="23"/>
-      <c r="E795" s="7"/>
+      <c r="A795" s="50"/>
+      <c r="B795" s="44"/>
+      <c r="C795" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D795" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E795" s="7" t="s">
+        <v>1161</v>
+      </c>
     </row>
     <row r="796" spans="1:5">
-      <c r="A796" s="16"/>
+      <c r="A796" s="51"/>
       <c r="B796" s="16"/>
       <c r="C796" s="16"/>
       <c r="D796" s="23"/>
       <c r="E796" s="7"/>
     </row>
     <row r="797" spans="1:5">
-      <c r="A797" s="16"/>
+      <c r="A797" s="51"/>
       <c r="B797" s="16"/>
       <c r="C797" s="16"/>
       <c r="D797" s="23"/>
@@ -17335,7 +17612,7 @@
       <c r="E1074" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="114">
+  <mergeCells count="122">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A20:A24"/>
@@ -17364,6 +17641,8 @@
     <mergeCell ref="A667:A693"/>
     <mergeCell ref="A694:A721"/>
     <mergeCell ref="A723:A770"/>
+    <mergeCell ref="A771:A787"/>
+    <mergeCell ref="A788:A795"/>
     <mergeCell ref="B12:B18"/>
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B79"/>
@@ -17450,6 +17729,12 @@
     <mergeCell ref="B723:B742"/>
     <mergeCell ref="B743:B752"/>
     <mergeCell ref="B753:B770"/>
+    <mergeCell ref="B771:B778"/>
+    <mergeCell ref="B779:B782"/>
+    <mergeCell ref="B783:B787"/>
+    <mergeCell ref="B788:B790"/>
+    <mergeCell ref="B791:B793"/>
+    <mergeCell ref="B794:B795"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -17486,71 +17771,71 @@
     </row>
     <row r="2" ht="14.25" spans="1:3">
       <c r="A2" s="20" t="s">
-        <v>1141</v>
+        <v>1170</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1142</v>
+        <v>1171</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>1143</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="20" t="s">
-        <v>1144</v>
+        <v>1173</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1142</v>
+        <v>1171</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>1145</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
       <c r="A4" s="23"/>
       <c r="B4" s="21" t="s">
-        <v>1142</v>
+        <v>1171</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>1146</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:3">
       <c r="A5" s="20" t="s">
-        <v>1147</v>
+        <v>1176</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>1148</v>
+        <v>1177</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>1149</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:3">
       <c r="A6" s="20" t="s">
-        <v>1141</v>
+        <v>1170</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="22" t="s">
-        <v>1150</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:3">
       <c r="A7" s="20" t="s">
-        <v>1141</v>
+        <v>1170</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>1151</v>
+        <v>1180</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>1152</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="22" t="s">
-        <v>1153</v>
+        <v>1182</v>
       </c>
     </row>
   </sheetData>
@@ -17598,7 +17883,7 @@
         <v>15566595533</v>
       </c>
       <c r="C2" t="s">
-        <v>1154</v>
+        <v>1183</v>
       </c>
     </row>
   </sheetData>
@@ -17612,7 +17897,7 @@
   <sheetPr/>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -17629,7 +17914,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1155</v>
+        <v>1184</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -17642,18 +17927,18 @@
         <v>138</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1156</v>
+        <v>1185</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
-        <v>1157</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:5">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>1158</v>
+        <v>1187</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -17662,7 +17947,7 @@
     <row r="4" ht="24" customHeight="1" spans="1:5">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>1159</v>
+        <v>1188</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -17678,7 +17963,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="9" t="s">
-        <v>1160</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:5">
@@ -17704,18 +17989,18 @@
         <v>549</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1161</v>
+        <v>1190</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="9" t="s">
-        <v>1162</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:5">
       <c r="A9" s="12"/>
       <c r="B9" s="10" t="s">
-        <v>1163</v>
+        <v>1192</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -17724,7 +18009,7 @@
     <row r="10" ht="21" customHeight="1" spans="1:5">
       <c r="A10" s="15"/>
       <c r="B10" s="10" t="s">
-        <v>1164</v>
+        <v>1193</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -17732,21 +18017,21 @@
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:5">
       <c r="A11" s="9" t="s">
-        <v>1165</v>
+        <v>1194</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1166</v>
+        <v>1195</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="9" t="s">
-        <v>1167</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:5">
       <c r="A12" s="12"/>
       <c r="B12" s="10" t="s">
-        <v>1161</v>
+        <v>1190</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -17766,18 +18051,18 @@
         <v>672</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>1168</v>
+        <v>1197</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="9" t="s">
-        <v>1169</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="12"/>
       <c r="B15" s="10" t="s">
-        <v>1170</v>
+        <v>1199</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -17786,7 +18071,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="12"/>
       <c r="B16" s="10" t="s">
-        <v>1171</v>
+        <v>1200</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -17795,7 +18080,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="15"/>
       <c r="B17" s="10" t="s">
-        <v>1172</v>
+        <v>1201</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -17803,21 +18088,21 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
-        <v>1173</v>
+        <v>1202</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1174</v>
+        <v>1203</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="9" t="s">
-        <v>1175</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="12"/>
       <c r="B19" s="10" t="s">
-        <v>1176</v>
+        <v>1205</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -17826,7 +18111,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="12"/>
       <c r="B20" s="10" t="s">
-        <v>1177</v>
+        <v>1206</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -17835,7 +18120,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="15"/>
       <c r="B21" s="10" t="s">
-        <v>1176</v>
+        <v>1205</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -17851,13 +18136,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="9" t="s">
-        <v>1178</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="23" ht="35" customHeight="1" spans="1:5">
       <c r="A23" s="12"/>
       <c r="B23" s="10" t="s">
-        <v>1179</v>
+        <v>1208</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -17868,18 +18153,18 @@
         <v>807</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>1180</v>
+        <v>1209</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="9" t="s">
-        <v>1181</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="12"/>
       <c r="B25" s="10" t="s">
-        <v>1182</v>
+        <v>1211</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -17888,7 +18173,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="12"/>
       <c r="B26" s="10" t="s">
-        <v>1183</v>
+        <v>1212</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -17897,7 +18182,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="15"/>
       <c r="B27" s="10" t="s">
-        <v>1141</v>
+        <v>1170</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -17905,21 +18190,21 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="9" t="s">
-        <v>1184</v>
+        <v>1213</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1185</v>
+        <v>1214</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="9" t="s">
-        <v>1186</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="12"/>
       <c r="B29" s="10" t="s">
-        <v>1187</v>
+        <v>1216</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -17928,7 +18213,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="12"/>
       <c r="B30" s="10" t="s">
-        <v>1188</v>
+        <v>1217</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -17948,18 +18233,18 @@
         <v>990</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>1189</v>
+        <v>1218</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="9" t="s">
-        <v>1190</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:5">
       <c r="A33" s="12"/>
       <c r="B33" s="10" t="s">
-        <v>1191</v>
+        <v>1220</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -17970,18 +18255,18 @@
         <v>1040</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>1192</v>
+        <v>1221</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="9" t="s">
-        <v>1193</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="12"/>
       <c r="B35" s="10" t="s">
-        <v>1194</v>
+        <v>1223</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -17990,7 +18275,7 @@
     <row r="36" spans="1:5">
       <c r="A36" s="12"/>
       <c r="B36" s="10" t="s">
-        <v>1195</v>
+        <v>1224</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -17999,7 +18284,7 @@
     <row r="37" spans="1:5">
       <c r="A37" s="15"/>
       <c r="B37" s="10" t="s">
-        <v>1196</v>
+        <v>1225</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>

--- a/framfriend/data/TestData/elementDate.xlsx
+++ b/framfriend/data/TestData/elementDate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22800" windowHeight="7515"/>
+    <workbookView windowWidth="19605" windowHeight="8475"/>
   </bookViews>
   <sheets>
     <sheet name="elementsInfo" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="queryData" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A774:E874"/>
+  <oleSize ref="A453:E553"/>
 </workbook>
 </file>
 
@@ -176,7 +176,7 @@
     <t>审批流程</t>
   </si>
   <si>
-    <t>sidebarTree_72_a</t>
+    <t>sidebarTree_74_a</t>
   </si>
   <si>
     <t>合同管理</t>
@@ -2252,7 +2252,7 @@
     <t>contractmanagementul</t>
   </si>
   <si>
-    <t>//*[@id="sidebarTree_70_ul"]</t>
+    <t>//*[@id="sidebarTree_74_ul"]</t>
   </si>
   <si>
     <t>合同管理列表</t>
@@ -2261,7 +2261,7 @@
     <t>register</t>
   </si>
   <si>
-    <t>//*[@id="sidebarTree_71"]</t>
+    <t>//*[@id="sidebarTree_75"]</t>
   </si>
   <si>
     <t>合同登记</t>
@@ -2270,7 +2270,7 @@
     <t>reconciliation</t>
   </si>
   <si>
-    <t>//*[@id="sidebarTree_72"]</t>
+    <t>//*[@id="sidebarTree_76"]</t>
   </si>
   <si>
     <t>批量对账</t>
@@ -2279,7 +2279,7 @@
     <t>gathering</t>
   </si>
   <si>
-    <t>//*[@id="sidebarTree_73"]</t>
+    <t>//*[@id="sidebarTree_77"]</t>
   </si>
   <si>
     <t>合同收款</t>
@@ -2288,7 +2288,7 @@
     <t>expire</t>
   </si>
   <si>
-    <t>//*[@id="sidebarTree_74"]</t>
+    <t>//*[@id="sidebarTree_78"]</t>
   </si>
   <si>
     <t>到期提醒</t>
@@ -2297,7 +2297,7 @@
     <t>recipient</t>
   </si>
   <si>
-    <t>//*[@id="sidebarTree_75"]</t>
+    <t>//*[@id="sidebarTree_79"]</t>
   </si>
   <si>
     <t>预警短信接收人</t>
@@ -2306,7 +2306,7 @@
     <t>analyze</t>
   </si>
   <si>
-    <t>//*[@id="sidebarTree_76"]</t>
+    <t>//*[@id="sidebarTree_80"]</t>
   </si>
   <si>
     <t>年限分析</t>
@@ -2315,7 +2315,7 @@
     <t>unreceived</t>
   </si>
   <si>
-    <t>//*[@id="sidebarTree_77"]</t>
+    <t>//*[@id="sidebarTree_81"]</t>
   </si>
   <si>
     <t>超期未收</t>
@@ -2324,7 +2324,7 @@
     <t>execute</t>
   </si>
   <si>
-    <t>//*[@id="sidebarTree_78"]</t>
+    <t>//*[@id="sidebarTree_82"]</t>
   </si>
   <si>
     <t>执行情况</t>
@@ -2333,7 +2333,7 @@
     <t>standingbook</t>
   </si>
   <si>
-    <t>//*[@id="sidebarTree_79"]</t>
+    <t>//*[@id="sidebarTree_83"]</t>
   </si>
   <si>
     <t>合同台账</t>
@@ -2342,7 +2342,7 @@
     <t>ledger</t>
   </si>
   <si>
-    <t>//*[@id="sidebarTree_80"]</t>
+    <t>//*[@id="sidebarTree_84"]</t>
   </si>
   <si>
     <t>总账</t>
@@ -2351,7 +2351,7 @@
     <t xml:space="preserve">detail </t>
   </si>
   <si>
-    <t>//*[@id="sidebarTree_81"]</t>
+    <t>//*[@id="sidebarTree_85"]</t>
   </si>
   <si>
     <t>明细账</t>
@@ -2360,7 +2360,7 @@
     <t>standingbookul</t>
   </si>
   <si>
-    <t>//*[@id="sidebarTree_79_ul"]</t>
+    <t>//*[@id="sidebarTree_83_ul"]</t>
   </si>
   <si>
     <t>合同台账列表</t>
@@ -2369,7 +2369,7 @@
     <t>Warning</t>
   </si>
   <si>
-    <t>//*[@id="sidebarTree_82"]</t>
+    <t>//*[@id="sidebarTree_86"]</t>
   </si>
   <si>
     <t>合同预警取消</t>
@@ -2378,7 +2378,7 @@
     <t>Warningul</t>
   </si>
   <si>
-    <t>//*[@id="sidebarTree_82_ul"]</t>
+    <t>//*[@id="sidebarTree_86_ul"]</t>
   </si>
   <si>
     <t>合同预警取消列表</t>
@@ -2387,7 +2387,7 @@
     <t>Abnormalwarning</t>
   </si>
   <si>
-    <t>//*[@id="sidebarTree_83"]</t>
+    <t>//*[@id="sidebarTree_87"]</t>
   </si>
   <si>
     <t>异常预警</t>
@@ -2396,7 +2396,7 @@
     <t>earlywarning</t>
   </si>
   <si>
-    <t>//*[@id="sidebarTree_84"]</t>
+    <t>//*[@id="sidebarTree_88"]</t>
   </si>
   <si>
     <t>期限预警</t>
@@ -2405,7 +2405,7 @@
     <t>statistics</t>
   </si>
   <si>
-    <t>//*[@id="sidebarTree_85"]</t>
+    <t>//*[@id="sidebarTree_89"]</t>
   </si>
   <si>
     <t>统计</t>
@@ -2414,7 +2414,7 @@
     <t>statisticsul</t>
   </si>
   <si>
-    <t>//*[@id="sidebarTree_85_ul"]</t>
+    <t>//*[@id="sidebarTree_89_ul"]</t>
   </si>
   <si>
     <t>统计列表</t>
@@ -2423,7 +2423,7 @@
     <t>township</t>
   </si>
   <si>
-    <t>//*[@id="sidebarTree_86"]</t>
+    <t>//*[@id="sidebarTree_90"]</t>
   </si>
   <si>
     <t>镇级统计</t>
@@ -2432,7 +2432,7 @@
     <t>village-level</t>
   </si>
   <si>
-    <t>//*[@id="sidebarTree_87"]</t>
+    <t>//*[@id="sidebarTree_91"]</t>
   </si>
   <si>
     <t>村级统计</t>
@@ -3704,9 +3704,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3759,6 +3759,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3766,15 +3773,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3782,6 +3788,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3797,60 +3857,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3863,16 +3878,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3881,22 +3897,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3911,13 +3911,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3935,121 +3959,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4067,7 +3983,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4079,19 +4061,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4170,37 +4170,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4223,23 +4197,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4261,9 +4220,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4275,10 +4275,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4287,137 +4287,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4550,22 +4550,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4924,8 +4912,8 @@
   <sheetPr/>
   <dimension ref="A1:E1074"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A774" workbookViewId="0">
-      <selection activeCell="E795" sqref="E795"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A453" workbookViewId="0">
+      <selection activeCell="D473" sqref="D473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -15321,7 +15309,7 @@
       <c r="A771" s="43" t="s">
         <v>1141</v>
       </c>
-      <c r="B771" s="44" t="s">
+      <c r="B771" s="39" t="s">
         <v>150</v>
       </c>
       <c r="C771" s="16" t="s">
@@ -15335,8 +15323,8 @@
       </c>
     </row>
     <row r="772" spans="1:5">
-      <c r="A772" s="45"/>
-      <c r="B772" s="44"/>
+      <c r="A772" s="44"/>
+      <c r="B772" s="39"/>
       <c r="C772" s="16" t="s">
         <v>14</v>
       </c>
@@ -15348,8 +15336,8 @@
       </c>
     </row>
     <row r="773" spans="1:5">
-      <c r="A773" s="45"/>
-      <c r="B773" s="44"/>
+      <c r="A773" s="44"/>
+      <c r="B773" s="39"/>
       <c r="C773" s="16" t="s">
         <v>14</v>
       </c>
@@ -15361,8 +15349,8 @@
       </c>
     </row>
     <row r="774" spans="1:5">
-      <c r="A774" s="45"/>
-      <c r="B774" s="44"/>
+      <c r="A774" s="44"/>
+      <c r="B774" s="39"/>
       <c r="C774" s="16" t="s">
         <v>14</v>
       </c>
@@ -15374,8 +15362,8 @@
       </c>
     </row>
     <row r="775" spans="1:5">
-      <c r="A775" s="45"/>
-      <c r="B775" s="44"/>
+      <c r="A775" s="44"/>
+      <c r="B775" s="39"/>
       <c r="C775" s="16" t="s">
         <v>14</v>
       </c>
@@ -15387,8 +15375,8 @@
       </c>
     </row>
     <row r="776" spans="1:5">
-      <c r="A776" s="45"/>
-      <c r="B776" s="44"/>
+      <c r="A776" s="44"/>
+      <c r="B776" s="39"/>
       <c r="C776" s="16" t="s">
         <v>14</v>
       </c>
@@ -15400,8 +15388,8 @@
       </c>
     </row>
     <row r="777" spans="1:5">
-      <c r="A777" s="45"/>
-      <c r="B777" s="44"/>
+      <c r="A777" s="44"/>
+      <c r="B777" s="39"/>
       <c r="C777" s="16" t="s">
         <v>14</v>
       </c>
@@ -15413,8 +15401,8 @@
       </c>
     </row>
     <row r="778" spans="1:5">
-      <c r="A778" s="45"/>
-      <c r="B778" s="44"/>
+      <c r="A778" s="44"/>
+      <c r="B778" s="39"/>
       <c r="C778" s="16" t="s">
         <v>14</v>
       </c>
@@ -15426,8 +15414,8 @@
       </c>
     </row>
     <row r="779" spans="1:5">
-      <c r="A779" s="45"/>
-      <c r="B779" s="44" t="s">
+      <c r="A779" s="44"/>
+      <c r="B779" s="39" t="s">
         <v>471</v>
       </c>
       <c r="C779" s="16" t="s">
@@ -15441,8 +15429,8 @@
       </c>
     </row>
     <row r="780" spans="1:5">
-      <c r="A780" s="45"/>
-      <c r="B780" s="44"/>
+      <c r="A780" s="44"/>
+      <c r="B780" s="39"/>
       <c r="C780" s="16" t="s">
         <v>14</v>
       </c>
@@ -15454,8 +15442,8 @@
       </c>
     </row>
     <row r="781" spans="1:5">
-      <c r="A781" s="45"/>
-      <c r="B781" s="44"/>
+      <c r="A781" s="44"/>
+      <c r="B781" s="39"/>
       <c r="C781" s="16" t="s">
         <v>14</v>
       </c>
@@ -15467,8 +15455,8 @@
       </c>
     </row>
     <row r="782" spans="1:5">
-      <c r="A782" s="45"/>
-      <c r="B782" s="44"/>
+      <c r="A782" s="44"/>
+      <c r="B782" s="39"/>
       <c r="C782" s="16" t="s">
         <v>14</v>
       </c>
@@ -15480,8 +15468,8 @@
       </c>
     </row>
     <row r="783" spans="1:5">
-      <c r="A783" s="45"/>
-      <c r="B783" s="46" t="s">
+      <c r="A783" s="44"/>
+      <c r="B783" s="36" t="s">
         <v>98</v>
       </c>
       <c r="C783" s="16" t="s">
@@ -15495,8 +15483,8 @@
       </c>
     </row>
     <row r="784" spans="1:5">
-      <c r="A784" s="45"/>
-      <c r="B784" s="47"/>
+      <c r="A784" s="44"/>
+      <c r="B784" s="37"/>
       <c r="C784" s="16" t="s">
         <v>14</v>
       </c>
@@ -15508,8 +15496,8 @@
       </c>
     </row>
     <row r="785" spans="1:5">
-      <c r="A785" s="45"/>
-      <c r="B785" s="47"/>
+      <c r="A785" s="44"/>
+      <c r="B785" s="37"/>
       <c r="C785" s="16" t="s">
         <v>14</v>
       </c>
@@ -15521,8 +15509,8 @@
       </c>
     </row>
     <row r="786" spans="1:5">
-      <c r="A786" s="45"/>
-      <c r="B786" s="47"/>
+      <c r="A786" s="44"/>
+      <c r="B786" s="37"/>
       <c r="C786" s="16" t="s">
         <v>14</v>
       </c>
@@ -15534,8 +15522,8 @@
       </c>
     </row>
     <row r="787" spans="1:5">
-      <c r="A787" s="48"/>
-      <c r="B787" s="49"/>
+      <c r="A787" s="45"/>
+      <c r="B787" s="38"/>
       <c r="C787" s="16" t="s">
         <v>14</v>
       </c>
@@ -15547,10 +15535,10 @@
       </c>
     </row>
     <row r="788" spans="1:5">
-      <c r="A788" s="50" t="s">
+      <c r="A788" s="46" t="s">
         <v>1164</v>
       </c>
-      <c r="B788" s="44" t="s">
+      <c r="B788" s="39" t="s">
         <v>150</v>
       </c>
       <c r="C788" s="16" t="s">
@@ -15564,8 +15552,8 @@
       </c>
     </row>
     <row r="789" spans="1:5">
-      <c r="A789" s="50"/>
-      <c r="B789" s="44"/>
+      <c r="A789" s="46"/>
+      <c r="B789" s="39"/>
       <c r="C789" s="16" t="s">
         <v>14</v>
       </c>
@@ -15577,8 +15565,8 @@
       </c>
     </row>
     <row r="790" spans="1:5">
-      <c r="A790" s="50"/>
-      <c r="B790" s="44"/>
+      <c r="A790" s="46"/>
+      <c r="B790" s="39"/>
       <c r="C790" s="16" t="s">
         <v>14</v>
       </c>
@@ -15590,8 +15578,8 @@
       </c>
     </row>
     <row r="791" spans="1:5">
-      <c r="A791" s="50"/>
-      <c r="B791" s="44" t="s">
+      <c r="A791" s="46"/>
+      <c r="B791" s="39" t="s">
         <v>471</v>
       </c>
       <c r="C791" s="16" t="s">
@@ -15605,8 +15593,8 @@
       </c>
     </row>
     <row r="792" spans="1:5">
-      <c r="A792" s="50"/>
-      <c r="B792" s="44"/>
+      <c r="A792" s="46"/>
+      <c r="B792" s="39"/>
       <c r="C792" s="16" t="s">
         <v>14</v>
       </c>
@@ -15618,8 +15606,8 @@
       </c>
     </row>
     <row r="793" spans="1:5">
-      <c r="A793" s="50"/>
-      <c r="B793" s="44"/>
+      <c r="A793" s="46"/>
+      <c r="B793" s="39"/>
       <c r="C793" s="16" t="s">
         <v>14</v>
       </c>
@@ -15631,8 +15619,8 @@
       </c>
     </row>
     <row r="794" spans="1:5">
-      <c r="A794" s="50"/>
-      <c r="B794" s="44" t="s">
+      <c r="A794" s="46"/>
+      <c r="B794" s="39" t="s">
         <v>98</v>
       </c>
       <c r="C794" s="16" t="s">
@@ -15646,8 +15634,8 @@
       </c>
     </row>
     <row r="795" spans="1:5">
-      <c r="A795" s="50"/>
-      <c r="B795" s="44"/>
+      <c r="A795" s="46"/>
+      <c r="B795" s="39"/>
       <c r="C795" s="16" t="s">
         <v>14</v>
       </c>
@@ -15659,14 +15647,14 @@
       </c>
     </row>
     <row r="796" spans="1:5">
-      <c r="A796" s="51"/>
+      <c r="A796" s="47"/>
       <c r="B796" s="16"/>
       <c r="C796" s="16"/>
       <c r="D796" s="23"/>
       <c r="E796" s="7"/>
     </row>
     <row r="797" spans="1:5">
-      <c r="A797" s="51"/>
+      <c r="A797" s="47"/>
       <c r="B797" s="16"/>
       <c r="C797" s="16"/>
       <c r="D797" s="23"/>

--- a/framfriend/data/TestData/elementDate.xlsx
+++ b/framfriend/data/TestData/elementDate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19605" windowHeight="8475"/>
+    <workbookView windowWidth="19365" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="elementsInfo" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="queryData" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A453:E553"/>
+  <oleSize ref="A516:E616"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="1226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="1225">
   <si>
     <t>模块</t>
   </si>
@@ -2720,7 +2720,7 @@
     <t>展开洪山镇</t>
   </si>
   <si>
-    <t>//*[@id="tree_8_span"]</t>
+    <t>//*[@id="tree_3_span"]</t>
   </si>
   <si>
     <t>洪山镇中一项</t>
@@ -2732,9 +2732,6 @@
     <t>洪山镇</t>
   </si>
   <si>
-    <t>//*[@id="mychart1"]/tbody/tr[5]/td[1]/input</t>
-  </si>
-  <si>
     <t>签订日期</t>
   </si>
   <si>
@@ -3647,16 +3644,16 @@
     <t>15864901234</t>
   </si>
   <si>
-    <t xml:space="preserve">Z011 </t>
+    <t>03022</t>
   </si>
   <si>
     <t>合同登记 合同号，合同名称，客户名称、经办人单一查询数据（每一个输入框会循环输入这个4个数据，数据不够可以直接下面添加）</t>
   </si>
   <si>
-    <t>买地</t>
-  </si>
-  <si>
-    <t>王瑞</t>
+    <t>租赁合同</t>
+  </si>
+  <si>
+    <t>丁刚</t>
   </si>
   <si>
     <t>receiptpage</t>
@@ -3704,9 +3701,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3759,28 +3756,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3789,6 +3765,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3819,14 +3809,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3845,6 +3828,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3871,13 +3869,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -3894,7 +3885,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3911,31 +3908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3947,7 +3920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3965,7 +3938,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3983,7 +3956,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3995,31 +4016,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4037,7 +4040,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4049,49 +4088,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4170,15 +4167,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4199,21 +4187,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4254,6 +4227,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -4267,6 +4255,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4275,10 +4272,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4287,133 +4284,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4912,8 +4909,8 @@
   <sheetPr/>
   <dimension ref="A1:E1074"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A453" workbookViewId="0">
-      <selection activeCell="D473" sqref="D473"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A516" workbookViewId="0">
+      <selection activeCell="D541" sqref="D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -12242,7 +12239,7 @@
         <v>14</v>
       </c>
       <c r="D541" s="23" t="s">
-        <v>904</v>
+        <v>232</v>
       </c>
       <c r="E541" s="7" t="s">
         <v>233</v>
@@ -12258,7 +12255,7 @@
         <v>561</v>
       </c>
       <c r="E542" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -12271,7 +12268,7 @@
         <v>563</v>
       </c>
       <c r="E543" s="7" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -12284,7 +12281,7 @@
         <v>686</v>
       </c>
       <c r="E544" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -12294,10 +12291,10 @@
         <v>14</v>
       </c>
       <c r="D545" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="E545" s="7" t="s">
         <v>908</v>
-      </c>
-      <c r="E545" s="7" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -12310,7 +12307,7 @@
         <v>203</v>
       </c>
       <c r="E546" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -12338,7 +12335,7 @@
         <v>99</v>
       </c>
       <c r="E548" s="7" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -12351,7 +12348,7 @@
         <v>213</v>
       </c>
       <c r="E549" s="7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -12364,7 +12361,7 @@
         <v>215</v>
       </c>
       <c r="E550" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -12377,7 +12374,7 @@
         <v>210</v>
       </c>
       <c r="E551" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -12390,7 +12387,7 @@
         <v>213</v>
       </c>
       <c r="E552" s="7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -12403,7 +12400,7 @@
         <v>600</v>
       </c>
       <c r="E553" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -12416,7 +12413,7 @@
         <v>602</v>
       </c>
       <c r="E554" s="7" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -12429,7 +12426,7 @@
         <v>604</v>
       </c>
       <c r="E555" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -12442,7 +12439,7 @@
         <v>712</v>
       </c>
       <c r="E556" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -12452,10 +12449,10 @@
         <v>14</v>
       </c>
       <c r="D557" s="23" t="s">
+        <v>919</v>
+      </c>
+      <c r="E557" s="7" t="s">
         <v>920</v>
-      </c>
-      <c r="E557" s="7" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -12465,10 +12462,10 @@
         <v>14</v>
       </c>
       <c r="D558" s="23" t="s">
+        <v>921</v>
+      </c>
+      <c r="E558" s="7" t="s">
         <v>922</v>
-      </c>
-      <c r="E558" s="7" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -12478,10 +12475,10 @@
         <v>14</v>
       </c>
       <c r="D559" s="23" t="s">
+        <v>923</v>
+      </c>
+      <c r="E559" s="7" t="s">
         <v>924</v>
-      </c>
-      <c r="E559" s="7" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -12491,10 +12488,10 @@
         <v>14</v>
       </c>
       <c r="D560" s="23" t="s">
+        <v>925</v>
+      </c>
+      <c r="E560" s="7" t="s">
         <v>926</v>
-      </c>
-      <c r="E560" s="7" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -12504,10 +12501,10 @@
         <v>14</v>
       </c>
       <c r="D561" s="23" t="s">
+        <v>927</v>
+      </c>
+      <c r="E561" s="7" t="s">
         <v>928</v>
-      </c>
-      <c r="E561" s="7" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -12517,10 +12514,10 @@
         <v>14</v>
       </c>
       <c r="D562" s="23" t="s">
+        <v>929</v>
+      </c>
+      <c r="E562" s="7" t="s">
         <v>930</v>
-      </c>
-      <c r="E562" s="7" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -12530,10 +12527,10 @@
         <v>14</v>
       </c>
       <c r="D563" s="23" t="s">
+        <v>931</v>
+      </c>
+      <c r="E563" s="7" t="s">
         <v>932</v>
-      </c>
-      <c r="E563" s="7" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -12543,10 +12540,10 @@
         <v>14</v>
       </c>
       <c r="D564" s="23" t="s">
+        <v>933</v>
+      </c>
+      <c r="E564" s="7" t="s">
         <v>934</v>
-      </c>
-      <c r="E564" s="7" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -12556,10 +12553,10 @@
         <v>14</v>
       </c>
       <c r="D565" s="23" t="s">
+        <v>935</v>
+      </c>
+      <c r="E565" s="7" t="s">
         <v>936</v>
-      </c>
-      <c r="E565" s="7" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -12569,10 +12566,10 @@
         <v>14</v>
       </c>
       <c r="D566" s="23" t="s">
+        <v>937</v>
+      </c>
+      <c r="E566" s="7" t="s">
         <v>938</v>
-      </c>
-      <c r="E566" s="7" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -12582,10 +12579,10 @@
         <v>14</v>
       </c>
       <c r="D567" s="23" t="s">
+        <v>939</v>
+      </c>
+      <c r="E567" s="7" t="s">
         <v>940</v>
-      </c>
-      <c r="E567" s="7" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -12595,10 +12592,10 @@
         <v>14</v>
       </c>
       <c r="D568" s="23" t="s">
+        <v>941</v>
+      </c>
+      <c r="E568" s="7" t="s">
         <v>942</v>
-      </c>
-      <c r="E568" s="7" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -12608,10 +12605,10 @@
         <v>14</v>
       </c>
       <c r="D569" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="E569" s="7" t="s">
         <v>944</v>
-      </c>
-      <c r="E569" s="7" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -12621,10 +12618,10 @@
         <v>14</v>
       </c>
       <c r="D570" s="23" t="s">
+        <v>945</v>
+      </c>
+      <c r="E570" s="7" t="s">
         <v>946</v>
-      </c>
-      <c r="E570" s="7" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -12634,10 +12631,10 @@
         <v>14</v>
       </c>
       <c r="D571" s="23" t="s">
+        <v>947</v>
+      </c>
+      <c r="E571" s="7" t="s">
         <v>948</v>
-      </c>
-      <c r="E571" s="7" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -12647,10 +12644,10 @@
         <v>14</v>
       </c>
       <c r="D572" s="23" t="s">
+        <v>949</v>
+      </c>
+      <c r="E572" s="7" t="s">
         <v>950</v>
-      </c>
-      <c r="E572" s="7" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -12660,10 +12657,10 @@
         <v>14</v>
       </c>
       <c r="D573" s="26" t="s">
+        <v>951</v>
+      </c>
+      <c r="E573" s="7" t="s">
         <v>952</v>
-      </c>
-      <c r="E573" s="7" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -12673,10 +12670,10 @@
         <v>14</v>
       </c>
       <c r="D574" s="23" t="s">
+        <v>953</v>
+      </c>
+      <c r="E574" s="7" t="s">
         <v>954</v>
-      </c>
-      <c r="E574" s="7" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -12689,7 +12686,7 @@
         <v>345</v>
       </c>
       <c r="E575" s="7" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -12699,7 +12696,7 @@
         <v>14</v>
       </c>
       <c r="D576" s="26" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E576" s="7" t="s">
         <v>609</v>
@@ -12715,7 +12712,7 @@
         <v>293</v>
       </c>
       <c r="E577" s="7" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -12725,7 +12722,7 @@
         <v>14</v>
       </c>
       <c r="D578" s="23" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E578" s="7" t="s">
         <v>644</v>
@@ -12738,10 +12735,10 @@
         <v>14</v>
       </c>
       <c r="D579" s="23" t="s">
+        <v>959</v>
+      </c>
+      <c r="E579" s="7" t="s">
         <v>960</v>
-      </c>
-      <c r="E579" s="7" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -12751,10 +12748,10 @@
         <v>14</v>
       </c>
       <c r="D580" s="23" t="s">
+        <v>961</v>
+      </c>
+      <c r="E580" s="7" t="s">
         <v>962</v>
-      </c>
-      <c r="E580" s="7" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -12764,10 +12761,10 @@
         <v>297</v>
       </c>
       <c r="D581" s="23" t="s">
+        <v>963</v>
+      </c>
+      <c r="E581" s="27" t="s">
         <v>964</v>
-      </c>
-      <c r="E581" s="27" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -12777,10 +12774,10 @@
         <v>14</v>
       </c>
       <c r="D582" s="23" t="s">
+        <v>965</v>
+      </c>
+      <c r="E582" s="7" t="s">
         <v>966</v>
-      </c>
-      <c r="E582" s="7" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -12790,10 +12787,10 @@
         <v>14</v>
       </c>
       <c r="D583" s="23" t="s">
+        <v>967</v>
+      </c>
+      <c r="E583" s="7" t="s">
         <v>968</v>
-      </c>
-      <c r="E583" s="7" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="584" spans="1:5">
@@ -12803,10 +12800,10 @@
         <v>14</v>
       </c>
       <c r="D584" s="23" t="s">
+        <v>969</v>
+      </c>
+      <c r="E584" s="7" t="s">
         <v>970</v>
-      </c>
-      <c r="E584" s="7" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -12816,15 +12813,15 @@
         <v>14</v>
       </c>
       <c r="D585" s="26" t="s">
+        <v>971</v>
+      </c>
+      <c r="E585" s="7" t="s">
         <v>972</v>
-      </c>
-      <c r="E585" s="7" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="586" spans="1:5">
       <c r="A586" s="36" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B586" s="36" t="s">
         <v>471</v>
@@ -12875,7 +12872,7 @@
         <v>815</v>
       </c>
       <c r="E589" s="7" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -12887,10 +12884,10 @@
         <v>14</v>
       </c>
       <c r="D590" s="23" t="s">
+        <v>975</v>
+      </c>
+      <c r="E590" s="7" t="s">
         <v>976</v>
-      </c>
-      <c r="E590" s="7" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="591" spans="1:5">
@@ -12903,7 +12900,7 @@
         <v>627</v>
       </c>
       <c r="E591" s="7" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -12913,7 +12910,7 @@
         <v>14</v>
       </c>
       <c r="D592" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E592" s="7" t="s">
         <v>632</v>
@@ -12926,10 +12923,10 @@
         <v>14</v>
       </c>
       <c r="D593" s="23" t="s">
+        <v>979</v>
+      </c>
+      <c r="E593" s="7" t="s">
         <v>980</v>
-      </c>
-      <c r="E593" s="7" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -12942,7 +12939,7 @@
         <v>629</v>
       </c>
       <c r="E594" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="595" spans="1:5">
@@ -12952,7 +12949,7 @@
         <v>14</v>
       </c>
       <c r="D595" s="23" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E595" s="7" t="s">
         <v>632</v>
@@ -12980,7 +12977,7 @@
         <v>14</v>
       </c>
       <c r="D597" s="23" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E597" s="7" t="s">
         <v>524</v>
@@ -12993,7 +12990,7 @@
         <v>14</v>
       </c>
       <c r="D598" s="23" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E598" s="7" t="s">
         <v>862</v>
@@ -13024,7 +13021,7 @@
         <v>293</v>
       </c>
       <c r="E600" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -13034,7 +13031,7 @@
         <v>14</v>
       </c>
       <c r="D601" s="23" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E601" s="7" t="s">
         <v>644</v>
@@ -13050,7 +13047,7 @@
         <v>343</v>
       </c>
       <c r="E602" s="27" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -13083,7 +13080,7 @@
     </row>
     <row r="605" spans="1:5">
       <c r="A605" s="36" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B605" s="39" t="s">
         <v>98</v>
@@ -13095,7 +13092,7 @@
         <v>738</v>
       </c>
       <c r="E605" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -13120,7 +13117,7 @@
         <v>14</v>
       </c>
       <c r="D607" s="23" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E607" s="7" t="s">
         <v>862</v>
@@ -13128,7 +13125,7 @@
     </row>
     <row r="608" spans="1:5">
       <c r="A608" s="36" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B608" s="36" t="s">
         <v>471</v>
@@ -13153,7 +13150,7 @@
         <v>811</v>
       </c>
       <c r="E609" s="7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="610" spans="1:5">
@@ -13163,10 +13160,10 @@
         <v>14</v>
       </c>
       <c r="D610" s="23" t="s">
+        <v>991</v>
+      </c>
+      <c r="E610" s="7" t="s">
         <v>992</v>
-      </c>
-      <c r="E610" s="7" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="611" spans="1:5">
@@ -13176,7 +13173,7 @@
         <v>14</v>
       </c>
       <c r="D611" s="23" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E611" s="7" t="s">
         <v>845</v>
@@ -13189,10 +13186,10 @@
         <v>14</v>
       </c>
       <c r="D612" s="23" t="s">
+        <v>994</v>
+      </c>
+      <c r="E612" s="7" t="s">
         <v>995</v>
-      </c>
-      <c r="E612" s="7" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="613" spans="1:5">
@@ -13205,7 +13202,7 @@
         <v>200</v>
       </c>
       <c r="E613" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="614" spans="1:5">
@@ -13231,7 +13228,7 @@
         <v>203</v>
       </c>
       <c r="E615" s="7" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -13259,7 +13256,7 @@
         <v>305</v>
       </c>
       <c r="E617" s="7" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -13271,7 +13268,7 @@
         <v>14</v>
       </c>
       <c r="D618" s="23" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E618" s="7" t="s">
         <v>524</v>
@@ -13284,7 +13281,7 @@
         <v>14</v>
       </c>
       <c r="D619" s="23" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E619" s="7" t="s">
         <v>690</v>
@@ -13297,7 +13294,7 @@
         <v>14</v>
       </c>
       <c r="D620" s="23" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E620" s="7" t="s">
         <v>692</v>
@@ -13310,7 +13307,7 @@
         <v>14</v>
       </c>
       <c r="D621" s="23" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E621" s="7" t="s">
         <v>694</v>
@@ -13349,7 +13346,7 @@
         <v>14</v>
       </c>
       <c r="D624" s="23" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E624" s="7" t="s">
         <v>872</v>
@@ -13362,7 +13359,7 @@
         <v>14</v>
       </c>
       <c r="D625" s="23" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E625" s="7" t="s">
         <v>874</v>
@@ -13429,7 +13426,7 @@
         <v>14</v>
       </c>
       <c r="D630" s="23" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E630" s="7" t="s">
         <v>607</v>
@@ -13442,7 +13439,7 @@
         <v>14</v>
       </c>
       <c r="D631" s="23" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E631" s="7" t="s">
         <v>109</v>
@@ -13468,10 +13465,10 @@
         <v>14</v>
       </c>
       <c r="D633" s="23" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E633" s="7" t="s">
         <v>1008</v>
-      </c>
-      <c r="E633" s="7" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="634" spans="1:5">
@@ -13481,10 +13478,10 @@
         <v>14</v>
       </c>
       <c r="D634" s="23" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E634" s="7" t="s">
         <v>1010</v>
-      </c>
-      <c r="E634" s="7" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="635" spans="1:5">
@@ -13494,10 +13491,10 @@
         <v>14</v>
       </c>
       <c r="D635" s="23" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E635" s="7" t="s">
         <v>1012</v>
-      </c>
-      <c r="E635" s="7" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="636" spans="1:5">
@@ -13507,10 +13504,10 @@
         <v>14</v>
       </c>
       <c r="D636" s="23" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E636" s="7" t="s">
         <v>1014</v>
-      </c>
-      <c r="E636" s="7" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="637" spans="1:5">
@@ -13523,7 +13520,7 @@
         <v>210</v>
       </c>
       <c r="E637" s="7" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="638" spans="1:5">
@@ -13533,10 +13530,10 @@
         <v>14</v>
       </c>
       <c r="D638" s="23" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E638" s="7" t="s">
         <v>1017</v>
-      </c>
-      <c r="E638" s="7" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -13546,10 +13543,10 @@
         <v>14</v>
       </c>
       <c r="D639" s="23" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E639" s="7" t="s">
         <v>1019</v>
-      </c>
-      <c r="E639" s="7" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="640" spans="1:5">
@@ -13562,7 +13559,7 @@
         <v>213</v>
       </c>
       <c r="E640" s="7" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="641" spans="1:5">
@@ -13580,7 +13577,7 @@
     </row>
     <row r="642" spans="1:5">
       <c r="A642" s="36" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B642" s="36" t="s">
         <v>150</v>
@@ -13589,7 +13586,7 @@
         <v>14</v>
       </c>
       <c r="D642" s="23" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E642" s="7" t="s">
         <v>192</v>
@@ -13602,7 +13599,7 @@
         <v>14</v>
       </c>
       <c r="D643" s="23" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E643" s="7" t="s">
         <v>524</v>
@@ -13615,7 +13612,7 @@
         <v>14</v>
       </c>
       <c r="D644" s="23" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E644" s="7" t="s">
         <v>862</v>
@@ -13630,10 +13627,10 @@
         <v>14</v>
       </c>
       <c r="D645" s="23" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E645" s="7" t="s">
         <v>1025</v>
-      </c>
-      <c r="E645" s="7" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="646" spans="1:5">
@@ -13646,7 +13643,7 @@
         <v>627</v>
       </c>
       <c r="E646" s="7" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="647" spans="1:5">
@@ -13656,10 +13653,10 @@
         <v>14</v>
       </c>
       <c r="D647" s="23" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E647" s="7" t="s">
         <v>1027</v>
-      </c>
-      <c r="E647" s="7" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -13669,7 +13666,7 @@
         <v>14</v>
       </c>
       <c r="D648" s="23" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E648" s="42">
         <v>2018</v>
@@ -13713,7 +13710,7 @@
         <v>232</v>
       </c>
       <c r="E651" s="7" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="652" spans="1:5">
@@ -13725,7 +13722,7 @@
         <v>14</v>
       </c>
       <c r="D652" s="23" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E652" s="7" t="s">
         <v>540</v>
@@ -13754,12 +13751,12 @@
         <v>738</v>
       </c>
       <c r="E654" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="655" spans="1:5">
       <c r="A655" s="36" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B655" s="36" t="s">
         <v>150</v>
@@ -13781,7 +13778,7 @@
         <v>14</v>
       </c>
       <c r="D656" s="23" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E656" s="7" t="s">
         <v>524</v>
@@ -13794,7 +13791,7 @@
         <v>14</v>
       </c>
       <c r="D657" s="23" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E657" s="7" t="s">
         <v>862</v>
@@ -13825,7 +13822,7 @@
         <v>232</v>
       </c>
       <c r="E659" s="7" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -13835,10 +13832,10 @@
         <v>14</v>
       </c>
       <c r="D660" s="23" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E660" s="7" t="s">
         <v>1032</v>
-      </c>
-      <c r="E660" s="7" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -13848,10 +13845,10 @@
         <v>14</v>
       </c>
       <c r="D661" s="23" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E661" s="7" t="s">
         <v>1034</v>
-      </c>
-      <c r="E661" s="7" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -13861,10 +13858,10 @@
         <v>14</v>
       </c>
       <c r="D662" s="23" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E662" s="7" t="s">
         <v>1036</v>
-      </c>
-      <c r="E662" s="7" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -13874,10 +13871,10 @@
         <v>14</v>
       </c>
       <c r="D663" s="23" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E663" s="7" t="s">
         <v>1038</v>
-      </c>
-      <c r="E663" s="7" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -13889,7 +13886,7 @@
         <v>14</v>
       </c>
       <c r="D664" s="23" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E664" s="7" t="s">
         <v>540</v>
@@ -13918,12 +13915,12 @@
         <v>738</v>
       </c>
       <c r="E666" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="667" spans="1:5">
       <c r="A667" s="36" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B667" s="39" t="s">
         <v>150</v>
@@ -13945,7 +13942,7 @@
         <v>14</v>
       </c>
       <c r="D668" s="23" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E668" s="7" t="s">
         <v>524</v>
@@ -13999,7 +13996,7 @@
         <v>14</v>
       </c>
       <c r="D672" s="23" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E672" s="7" t="s">
         <v>829</v>
@@ -14008,16 +14005,16 @@
     <row r="673" spans="1:5">
       <c r="A673" s="37"/>
       <c r="B673" s="39" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C673" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D673" s="23" t="s">
         <v>1043</v>
       </c>
-      <c r="C673" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D673" s="23" t="s">
+      <c r="E673" s="7" t="s">
         <v>1044</v>
-      </c>
-      <c r="E673" s="7" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -14027,10 +14024,10 @@
         <v>14</v>
       </c>
       <c r="D674" s="23" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E674" s="7" t="s">
         <v>1046</v>
-      </c>
-      <c r="E674" s="7" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -14040,10 +14037,10 @@
         <v>14</v>
       </c>
       <c r="D675" s="23" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E675" s="7" t="s">
         <v>1048</v>
-      </c>
-      <c r="E675" s="7" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -14053,10 +14050,10 @@
         <v>14</v>
       </c>
       <c r="D676" s="23" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E676" s="7" t="s">
         <v>1050</v>
-      </c>
-      <c r="E676" s="7" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -14066,25 +14063,25 @@
         <v>14</v>
       </c>
       <c r="D677" s="23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E677" s="7" t="s">
         <v>1052</v>
-      </c>
-      <c r="E677" s="7" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="678" spans="1:5">
       <c r="A678" s="37"/>
       <c r="B678" s="39" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C678" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D678" s="23" t="s">
         <v>1054</v>
       </c>
-      <c r="C678" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D678" s="23" t="s">
-        <v>1055</v>
-      </c>
       <c r="E678" s="7" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="679" spans="1:5">
@@ -14094,10 +14091,10 @@
         <v>14</v>
       </c>
       <c r="D679" s="23" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E679" s="7" t="s">
         <v>1056</v>
-      </c>
-      <c r="E679" s="7" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="680" spans="1:5">
@@ -14107,10 +14104,10 @@
         <v>14</v>
       </c>
       <c r="D680" s="23" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E680" s="7" t="s">
         <v>1058</v>
-      </c>
-      <c r="E680" s="7" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="681" spans="1:5">
@@ -14120,7 +14117,7 @@
         <v>14</v>
       </c>
       <c r="D681" s="23" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E681" s="7" t="s">
         <v>766</v>
@@ -14133,10 +14130,10 @@
         <v>14</v>
       </c>
       <c r="D682" s="23" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E682" s="7" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="683" spans="1:5">
@@ -14148,10 +14145,10 @@
         <v>14</v>
       </c>
       <c r="D683" s="23" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E683" s="7" t="s">
         <v>1062</v>
-      </c>
-      <c r="E683" s="7" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -14161,10 +14158,10 @@
         <v>14</v>
       </c>
       <c r="D684" s="23" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E684" s="7" t="s">
         <v>1064</v>
-      </c>
-      <c r="E684" s="7" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="685" spans="1:5">
@@ -14177,7 +14174,7 @@
         <v>627</v>
       </c>
       <c r="E685" s="7" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="686" spans="1:5">
@@ -14187,7 +14184,7 @@
         <v>14</v>
       </c>
       <c r="D686" s="23" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E686" s="7" t="s">
         <v>632</v>
@@ -14203,7 +14200,7 @@
         <v>629</v>
       </c>
       <c r="E687" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="688" spans="1:5">
@@ -14213,7 +14210,7 @@
         <v>14</v>
       </c>
       <c r="D688" s="23" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E688" s="7" t="s">
         <v>632</v>
@@ -14254,7 +14251,7 @@
         <v>14</v>
       </c>
       <c r="D691" s="23" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E691" s="7" t="s">
         <v>644</v>
@@ -14267,30 +14264,30 @@
         <v>14</v>
       </c>
       <c r="D692" s="23" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E692" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="693" spans="1:5">
       <c r="A693" s="38"/>
       <c r="B693" s="39" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C693" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D693" s="23" t="s">
         <v>1068</v>
       </c>
-      <c r="C693" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D693" s="23" t="s">
+      <c r="E693" s="7" t="s">
         <v>1069</v>
-      </c>
-      <c r="E693" s="7" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="694" spans="1:5">
       <c r="A694" s="36" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B694" s="36" t="s">
         <v>150</v>
@@ -14312,10 +14309,10 @@
         <v>14</v>
       </c>
       <c r="D695" s="23" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E695" s="7" t="s">
         <v>1072</v>
-      </c>
-      <c r="E695" s="7" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="696" spans="1:5">
@@ -14325,10 +14322,10 @@
         <v>14</v>
       </c>
       <c r="D696" s="23" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E696" s="7" t="s">
         <v>1074</v>
-      </c>
-      <c r="E696" s="7" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="697" spans="1:5">
@@ -14338,10 +14335,10 @@
         <v>14</v>
       </c>
       <c r="D697" s="23" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E697" s="7" t="s">
         <v>1076</v>
-      </c>
-      <c r="E697" s="7" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="698" spans="1:5">
@@ -14351,7 +14348,7 @@
         <v>14</v>
       </c>
       <c r="D698" s="23" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E698" s="27" t="s">
         <v>524</v>
@@ -14360,16 +14357,16 @@
     <row r="699" spans="1:5">
       <c r="A699" s="37"/>
       <c r="B699" s="36" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C699" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D699" s="23" t="s">
         <v>1079</v>
       </c>
-      <c r="C699" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D699" s="23" t="s">
-        <v>1080</v>
-      </c>
       <c r="E699" s="7" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="700" spans="1:5">
@@ -14379,10 +14376,10 @@
         <v>14</v>
       </c>
       <c r="D700" s="23" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E700" s="7" t="s">
         <v>1081</v>
-      </c>
-      <c r="E700" s="7" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="701" spans="1:5">
@@ -14392,10 +14389,10 @@
         <v>14</v>
       </c>
       <c r="D701" s="23" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E701" s="7" t="s">
         <v>1083</v>
-      </c>
-      <c r="E701" s="7" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="702" spans="1:5">
@@ -14405,10 +14402,10 @@
         <v>14</v>
       </c>
       <c r="D702" s="23" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E702" s="7" t="s">
         <v>1085</v>
-      </c>
-      <c r="E702" s="7" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="703" spans="1:5">
@@ -14418,10 +14415,10 @@
         <v>14</v>
       </c>
       <c r="D703" s="23" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E703" s="7" t="s">
         <v>1087</v>
-      </c>
-      <c r="E703" s="7" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="704" spans="1:5">
@@ -14431,25 +14428,25 @@
         <v>14</v>
       </c>
       <c r="D704" s="23" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E704" s="7" t="s">
         <v>1089</v>
-      </c>
-      <c r="E704" s="7" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="705" spans="1:5">
       <c r="A705" s="37"/>
       <c r="B705" s="36" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C705" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D705" s="23" t="s">
         <v>1091</v>
       </c>
-      <c r="C705" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D705" s="23" t="s">
-        <v>1092</v>
-      </c>
       <c r="E705" s="7" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="706" spans="1:5">
@@ -14459,10 +14456,10 @@
         <v>14</v>
       </c>
       <c r="D706" s="23" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E706" s="7" t="s">
         <v>1093</v>
-      </c>
-      <c r="E706" s="7" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="707" spans="1:5">
@@ -14472,10 +14469,10 @@
         <v>14</v>
       </c>
       <c r="D707" s="23" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E707" s="7" t="s">
         <v>1095</v>
-      </c>
-      <c r="E707" s="7" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="708" spans="1:5">
@@ -14485,10 +14482,10 @@
         <v>14</v>
       </c>
       <c r="D708" s="23" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E708" s="7" t="s">
         <v>1097</v>
-      </c>
-      <c r="E708" s="7" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="709" spans="1:5">
@@ -14498,10 +14495,10 @@
         <v>14</v>
       </c>
       <c r="D709" s="23" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E709" s="7" t="s">
         <v>1099</v>
-      </c>
-      <c r="E709" s="7" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="710" spans="1:5">
@@ -14511,25 +14508,25 @@
         <v>14</v>
       </c>
       <c r="D710" s="23" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E710" s="7" t="s">
         <v>1101</v>
-      </c>
-      <c r="E710" s="7" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="711" spans="1:5">
       <c r="A711" s="37"/>
       <c r="B711" s="39" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C711" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D711" s="23" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E711" s="7" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="712" spans="1:5">
@@ -14539,10 +14536,10 @@
         <v>14</v>
       </c>
       <c r="D712" s="23" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E712" s="7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="713" spans="1:5">
@@ -14552,10 +14549,10 @@
         <v>14</v>
       </c>
       <c r="D713" s="23" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E713" s="7" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="714" spans="1:5">
@@ -14565,7 +14562,7 @@
         <v>14</v>
       </c>
       <c r="D714" s="23" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E714" s="7" t="s">
         <v>766</v>
@@ -14578,10 +14575,10 @@
         <v>14</v>
       </c>
       <c r="D715" s="23" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E715" s="7" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="716" spans="1:5">
@@ -14596,7 +14593,7 @@
         <v>142</v>
       </c>
       <c r="E716" s="7" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="717" spans="1:5">
@@ -14609,7 +14606,7 @@
         <v>627</v>
       </c>
       <c r="E717" s="7" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="718" spans="1:5">
@@ -14619,10 +14616,10 @@
         <v>14</v>
       </c>
       <c r="D718" s="23" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E718" s="7" t="s">
         <v>1027</v>
-      </c>
-      <c r="E718" s="7" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="719" spans="1:5">
@@ -14632,7 +14629,7 @@
         <v>14</v>
       </c>
       <c r="D719" s="23" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E719" s="42">
         <v>2018</v>
@@ -14660,7 +14657,7 @@
         <v>14</v>
       </c>
       <c r="D721" s="23" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E721" s="7" t="s">
         <v>540</v>
@@ -14675,7 +14672,7 @@
     </row>
     <row r="723" spans="1:5">
       <c r="A723" s="36" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B723" s="36" t="s">
         <v>150</v>
@@ -14684,7 +14681,7 @@
         <v>14</v>
       </c>
       <c r="D723" s="23" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E723" s="7" t="s">
         <v>445</v>
@@ -14697,7 +14694,7 @@
         <v>14</v>
       </c>
       <c r="D724" s="23" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E724" s="7" t="s">
         <v>524</v>
@@ -14710,7 +14707,7 @@
         <v>14</v>
       </c>
       <c r="D725" s="23" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E725" s="7" t="s">
         <v>690</v>
@@ -14723,7 +14720,7 @@
         <v>14</v>
       </c>
       <c r="D726" s="23" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E726" s="7" t="s">
         <v>692</v>
@@ -14736,7 +14733,7 @@
         <v>14</v>
       </c>
       <c r="D727" s="23" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E727" s="7" t="s">
         <v>694</v>
@@ -14749,7 +14746,7 @@
         <v>14</v>
       </c>
       <c r="D728" s="23" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E728" s="7" t="s">
         <v>571</v>
@@ -14762,10 +14759,10 @@
         <v>14</v>
       </c>
       <c r="D729" s="23" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E729" s="7" t="s">
         <v>1115</v>
-      </c>
-      <c r="E729" s="7" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="730" spans="1:5">
@@ -14775,7 +14772,7 @@
         <v>14</v>
       </c>
       <c r="D730" s="23" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E730" s="7" t="s">
         <v>574</v>
@@ -14791,7 +14788,7 @@
         <v>575</v>
       </c>
       <c r="E731" s="7" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="732" spans="1:5">
@@ -14827,10 +14824,10 @@
         <v>14</v>
       </c>
       <c r="D734" s="23" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E734" s="7" t="s">
         <v>1119</v>
-      </c>
-      <c r="E734" s="7" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="735" spans="1:5">
@@ -14840,7 +14837,7 @@
         <v>14</v>
       </c>
       <c r="D735" s="23" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E735" s="7" t="s">
         <v>531</v>
@@ -14895,7 +14892,7 @@
         <v>734</v>
       </c>
       <c r="E739" s="7" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="740" spans="1:5">
@@ -14908,7 +14905,7 @@
         <v>736</v>
       </c>
       <c r="E740" s="7" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="741" spans="1:5">
@@ -14921,7 +14918,7 @@
         <v>467</v>
       </c>
       <c r="E741" s="7" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="742" spans="1:5">
@@ -14934,7 +14931,7 @@
         <v>595</v>
       </c>
       <c r="E742" s="7" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="743" spans="1:5">
@@ -14949,7 +14946,7 @@
         <v>144</v>
       </c>
       <c r="E743" s="7" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="744" spans="1:5">
@@ -14962,7 +14959,7 @@
         <v>146</v>
       </c>
       <c r="E744" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="745" spans="1:5">
@@ -14988,7 +14985,7 @@
         <v>203</v>
       </c>
       <c r="E746" s="7" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="747" spans="1:5">
@@ -15001,7 +14998,7 @@
         <v>204</v>
       </c>
       <c r="E747" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="748" spans="1:5">
@@ -15053,7 +15050,7 @@
         <v>232</v>
       </c>
       <c r="E751" s="7" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="752" spans="1:5">
@@ -15066,7 +15063,7 @@
         <v>484</v>
       </c>
       <c r="E752" s="27" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="753" spans="1:5">
@@ -15159,7 +15156,7 @@
         <v>610</v>
       </c>
       <c r="E759" s="7" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="760" spans="1:5">
@@ -15172,7 +15169,7 @@
         <v>643</v>
       </c>
       <c r="E760" s="7" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="761" spans="1:5">
@@ -15185,7 +15182,7 @@
         <v>210</v>
       </c>
       <c r="E761" s="7" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="762" spans="1:5">
@@ -15198,7 +15195,7 @@
         <v>213</v>
       </c>
       <c r="E762" s="7" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="763" spans="1:5">
@@ -15211,7 +15208,7 @@
         <v>397</v>
       </c>
       <c r="E763" s="7" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="764" spans="1:5">
@@ -15224,7 +15221,7 @@
         <v>600</v>
       </c>
       <c r="E764" s="7" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="765" spans="1:5">
@@ -15234,10 +15231,10 @@
         <v>14</v>
       </c>
       <c r="D765" s="23" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E765" s="7" t="s">
         <v>1135</v>
-      </c>
-      <c r="E765" s="7" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="766" spans="1:5">
@@ -15250,7 +15247,7 @@
         <v>397</v>
       </c>
       <c r="E766" s="7" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="767" spans="1:5">
@@ -15260,10 +15257,10 @@
         <v>14</v>
       </c>
       <c r="D767" s="23" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E767" s="7" t="s">
         <v>1138</v>
-      </c>
-      <c r="E767" s="7" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="768" spans="1:5">
@@ -15276,7 +15273,7 @@
         <v>215</v>
       </c>
       <c r="E768" s="7" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="769" spans="1:5">
@@ -15299,7 +15296,7 @@
         <v>14</v>
       </c>
       <c r="D770" s="23" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E770" s="7" t="s">
         <v>137</v>
@@ -15307,7 +15304,7 @@
     </row>
     <row r="771" spans="1:5">
       <c r="A771" s="43" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B771" s="39" t="s">
         <v>150</v>
@@ -15316,7 +15313,7 @@
         <v>14</v>
       </c>
       <c r="D771" s="23" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E771" s="7" t="s">
         <v>445</v>
@@ -15329,10 +15326,10 @@
         <v>14</v>
       </c>
       <c r="D772" s="23" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E772" s="7" t="s">
         <v>1142</v>
-      </c>
-      <c r="E772" s="7" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="773" spans="1:5">
@@ -15342,7 +15339,7 @@
         <v>14</v>
       </c>
       <c r="D773" s="23" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E773" s="7" t="s">
         <v>524</v>
@@ -15355,10 +15352,10 @@
         <v>14</v>
       </c>
       <c r="D774" s="23" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E774" s="7" t="s">
         <v>1145</v>
-      </c>
-      <c r="E774" s="7" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="775" spans="1:5">
@@ -15368,7 +15365,7 @@
         <v>14</v>
       </c>
       <c r="D775" s="23" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E775" s="7" t="s">
         <v>654</v>
@@ -15381,10 +15378,10 @@
         <v>14</v>
       </c>
       <c r="D776" s="23" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E776" s="7" t="s">
         <v>1148</v>
-      </c>
-      <c r="E776" s="7" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="777" spans="1:5">
@@ -15394,10 +15391,10 @@
         <v>14</v>
       </c>
       <c r="D777" s="23" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E777" s="7" t="s">
         <v>1150</v>
-      </c>
-      <c r="E777" s="7" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="778" spans="1:5">
@@ -15410,7 +15407,7 @@
         <v>581</v>
       </c>
       <c r="E778" s="7" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="779" spans="1:5">
@@ -15435,10 +15432,10 @@
         <v>14</v>
       </c>
       <c r="D780" s="23" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E780" s="7" t="s">
         <v>1153</v>
-      </c>
-      <c r="E780" s="7" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="781" spans="1:5">
@@ -15448,10 +15445,10 @@
         <v>14</v>
       </c>
       <c r="D781" s="23" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E781" s="7" t="s">
         <v>1155</v>
-      </c>
-      <c r="E781" s="7" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="782" spans="1:5">
@@ -15461,10 +15458,10 @@
         <v>14</v>
       </c>
       <c r="D782" s="23" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E782" s="7" t="s">
         <v>1157</v>
-      </c>
-      <c r="E782" s="7" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="783" spans="1:5">
@@ -15476,7 +15473,7 @@
         <v>14</v>
       </c>
       <c r="D783" s="23" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E783" s="7" t="s">
         <v>524</v>
@@ -15492,7 +15489,7 @@
         <v>544</v>
       </c>
       <c r="E784" s="7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="785" spans="1:5">
@@ -15502,10 +15499,10 @@
         <v>14</v>
       </c>
       <c r="D785" s="23" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E785" s="7" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="786" spans="1:5">
@@ -15518,7 +15515,7 @@
         <v>643</v>
       </c>
       <c r="E786" s="7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="787" spans="1:5">
@@ -15528,15 +15525,15 @@
         <v>14</v>
       </c>
       <c r="D787" s="23" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E787" s="7" t="s">
         <v>1162</v>
-      </c>
-      <c r="E787" s="7" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="788" spans="1:5">
       <c r="A788" s="46" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B788" s="39" t="s">
         <v>150</v>
@@ -15545,7 +15542,7 @@
         <v>14</v>
       </c>
       <c r="D788" s="23" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E788" s="7" t="s">
         <v>445</v>
@@ -15558,10 +15555,10 @@
         <v>14</v>
       </c>
       <c r="D789" s="23" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E789" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="790" spans="1:5">
@@ -15571,7 +15568,7 @@
         <v>14</v>
       </c>
       <c r="D790" s="23" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E790" s="7" t="s">
         <v>524</v>
@@ -15586,10 +15583,10 @@
         <v>14</v>
       </c>
       <c r="D791" s="23" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E791" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="792" spans="1:5">
@@ -15599,10 +15596,10 @@
         <v>14</v>
       </c>
       <c r="D792" s="23" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E792" s="7" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="793" spans="1:5">
@@ -15612,7 +15609,7 @@
         <v>14</v>
       </c>
       <c r="D793" s="23" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E793" s="7" t="s">
         <v>483</v>
@@ -15627,10 +15624,10 @@
         <v>14</v>
       </c>
       <c r="D794" s="23" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E794" s="7" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="795" spans="1:5">
@@ -15643,7 +15640,7 @@
         <v>197</v>
       </c>
       <c r="E795" s="7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="796" spans="1:5">
@@ -17759,71 +17756,71 @@
     </row>
     <row r="2" ht="14.25" spans="1:3">
       <c r="A2" s="20" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>1170</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>1171</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="20" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>1173</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
       <c r="A4" s="23"/>
       <c r="B4" s="21" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:3">
       <c r="A5" s="20" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>1176</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>1177</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:3">
       <c r="A6" s="20" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="22" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:3">
       <c r="A7" s="20" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>1180</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="22" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
   </sheetData>
@@ -17871,7 +17868,7 @@
         <v>15566595533</v>
       </c>
       <c r="C2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
   </sheetData>
@@ -17885,8 +17882,8 @@
   <sheetPr/>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -17902,7 +17899,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -17915,18 +17912,18 @@
         <v>138</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:5">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -17935,7 +17932,7 @@
     <row r="4" ht="24" customHeight="1" spans="1:5">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -17946,12 +17943,12 @@
         <v>262</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="9" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:5">
@@ -17966,7 +17963,7 @@
     <row r="7" ht="18" customHeight="1" spans="1:5">
       <c r="A7" s="15"/>
       <c r="B7" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -17977,18 +17974,18 @@
         <v>549</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="9" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:5">
       <c r="A9" s="12"/>
       <c r="B9" s="10" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -17997,7 +17994,7 @@
     <row r="10" ht="21" customHeight="1" spans="1:5">
       <c r="A10" s="15"/>
       <c r="B10" s="10" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -18005,21 +18002,21 @@
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:5">
       <c r="A11" s="9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>1194</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>1195</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="9" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:5">
       <c r="A12" s="12"/>
       <c r="B12" s="10" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -18039,18 +18036,18 @@
         <v>672</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="9" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="12"/>
       <c r="B15" s="10" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -18059,7 +18056,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="12"/>
       <c r="B16" s="10" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -18068,7 +18065,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="15"/>
       <c r="B17" s="10" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -18076,21 +18073,21 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>1202</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>1203</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="9" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="12"/>
       <c r="B19" s="10" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -18099,7 +18096,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="12"/>
       <c r="B20" s="10" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -18108,7 +18105,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="15"/>
       <c r="B21" s="10" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -18124,13 +18121,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="9" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="23" ht="35" customHeight="1" spans="1:5">
       <c r="A23" s="12"/>
       <c r="B23" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -18141,18 +18138,18 @@
         <v>807</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="9" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="12"/>
       <c r="B25" s="10" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -18161,7 +18158,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="12"/>
       <c r="B26" s="10" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -18170,7 +18167,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="15"/>
       <c r="B27" s="10" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -18178,21 +18175,21 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="9" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>1213</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>1214</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="12"/>
       <c r="B29" s="10" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -18201,7 +18198,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="12"/>
       <c r="B30" s="10" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -18218,21 +18215,21 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="9" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="9" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:5">
       <c r="A33" s="12"/>
       <c r="B33" s="10" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -18240,21 +18237,21 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="9" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="9" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="12"/>
       <c r="B35" s="10" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -18263,7 +18260,7 @@
     <row r="36" spans="1:5">
       <c r="A36" s="12"/>
       <c r="B36" s="10" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -18272,7 +18269,7 @@
     <row r="37" spans="1:5">
       <c r="A37" s="15"/>
       <c r="B37" s="10" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>

--- a/framfriend/data/TestData/elementDate.xlsx
+++ b/framfriend/data/TestData/elementDate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19365" windowHeight="7890"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="elementsInfo" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="queryData" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A516:E616"/>
+  <oleSize ref="A675:E775"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="1224">
   <si>
     <t>模块</t>
   </si>
@@ -3041,9 +3041,6 @@
     <t>//*[@id="updateMessageDig"]/div/div</t>
   </si>
   <si>
-    <t>/html/body/div[7]</t>
-  </si>
-  <si>
     <t>为空验证</t>
   </si>
   <si>
@@ -3215,6 +3212,9 @@
     <t>签订日期止</t>
   </si>
   <si>
+    <t>//*[@id="mychart1"]/tbody</t>
+  </si>
+  <si>
     <t>//*[@id="container-fluid"]/div/div[2]/div/div[2]/div[1]/div[2]/div[4]/div[1]/span[1]</t>
   </si>
   <si>
@@ -3671,13 +3671,10 @@
     <t>崔秀会</t>
   </si>
   <si>
-    <t>测试8</t>
-  </si>
-  <si>
     <t>预警短信接收人姓名，备注单一查询数据（每一个输入框会循环输入这个2个数据，数据不够可以直接下面添加）</t>
   </si>
   <si>
-    <t>哈哈</t>
+    <t>测试人员</t>
   </si>
   <si>
     <t>12130003</t>
@@ -3700,10 +3697,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3756,6 +3753,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3764,21 +3768,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3817,6 +3822,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3838,32 +3859,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3884,20 +3895,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -3908,7 +3905,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3920,13 +3965,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3944,25 +4013,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3974,31 +4043,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4016,37 +4073,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4058,37 +4085,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4167,17 +4164,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4191,52 +4197,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4258,6 +4229,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -4272,10 +4269,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4284,133 +4281,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4909,8 +4906,8 @@
   <sheetPr/>
   <dimension ref="A1:E1074"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="D541" sqref="D541"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A675" workbookViewId="0">
+      <selection activeCell="D690" sqref="D690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -13253,7 +13250,7 @@
         <v>14</v>
       </c>
       <c r="D617" s="23" t="s">
-        <v>305</v>
+        <v>612</v>
       </c>
       <c r="E617" s="7" t="s">
         <v>998</v>
@@ -13465,10 +13462,10 @@
         <v>14</v>
       </c>
       <c r="D633" s="23" t="s">
+        <v>959</v>
+      </c>
+      <c r="E633" s="7" t="s">
         <v>1007</v>
-      </c>
-      <c r="E633" s="7" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="634" spans="1:5">
@@ -13478,10 +13475,10 @@
         <v>14</v>
       </c>
       <c r="D634" s="23" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E634" s="7" t="s">
         <v>1009</v>
-      </c>
-      <c r="E634" s="7" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="635" spans="1:5">
@@ -13491,10 +13488,10 @@
         <v>14</v>
       </c>
       <c r="D635" s="23" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E635" s="7" t="s">
         <v>1011</v>
-      </c>
-      <c r="E635" s="7" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="636" spans="1:5">
@@ -13504,10 +13501,10 @@
         <v>14</v>
       </c>
       <c r="D636" s="23" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E636" s="7" t="s">
         <v>1013</v>
-      </c>
-      <c r="E636" s="7" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="637" spans="1:5">
@@ -13520,7 +13517,7 @@
         <v>210</v>
       </c>
       <c r="E637" s="7" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="638" spans="1:5">
@@ -13530,10 +13527,10 @@
         <v>14</v>
       </c>
       <c r="D638" s="23" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E638" s="7" t="s">
         <v>1016</v>
-      </c>
-      <c r="E638" s="7" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -13543,10 +13540,10 @@
         <v>14</v>
       </c>
       <c r="D639" s="23" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E639" s="7" t="s">
         <v>1018</v>
-      </c>
-      <c r="E639" s="7" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="640" spans="1:5">
@@ -13559,7 +13556,7 @@
         <v>213</v>
       </c>
       <c r="E640" s="7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="641" spans="1:5">
@@ -13577,7 +13574,7 @@
     </row>
     <row r="642" spans="1:5">
       <c r="A642" s="36" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B642" s="36" t="s">
         <v>150</v>
@@ -13586,7 +13583,7 @@
         <v>14</v>
       </c>
       <c r="D642" s="23" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E642" s="7" t="s">
         <v>192</v>
@@ -13599,7 +13596,7 @@
         <v>14</v>
       </c>
       <c r="D643" s="23" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E643" s="7" t="s">
         <v>524</v>
@@ -13627,10 +13624,10 @@
         <v>14</v>
       </c>
       <c r="D645" s="23" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E645" s="7" t="s">
         <v>1024</v>
-      </c>
-      <c r="E645" s="7" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="646" spans="1:5">
@@ -13653,10 +13650,10 @@
         <v>14</v>
       </c>
       <c r="D647" s="23" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E647" s="7" t="s">
         <v>1026</v>
-      </c>
-      <c r="E647" s="7" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -13666,7 +13663,7 @@
         <v>14</v>
       </c>
       <c r="D648" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E648" s="42">
         <v>2018</v>
@@ -13756,7 +13753,7 @@
     </row>
     <row r="655" spans="1:5">
       <c r="A655" s="36" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B655" s="36" t="s">
         <v>150</v>
@@ -13778,7 +13775,7 @@
         <v>14</v>
       </c>
       <c r="D656" s="23" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E656" s="7" t="s">
         <v>524</v>
@@ -13832,10 +13829,10 @@
         <v>14</v>
       </c>
       <c r="D660" s="23" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E660" s="7" t="s">
         <v>1031</v>
-      </c>
-      <c r="E660" s="7" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -13845,10 +13842,10 @@
         <v>14</v>
       </c>
       <c r="D661" s="23" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E661" s="7" t="s">
         <v>1033</v>
-      </c>
-      <c r="E661" s="7" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -13858,10 +13855,10 @@
         <v>14</v>
       </c>
       <c r="D662" s="23" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E662" s="7" t="s">
         <v>1035</v>
-      </c>
-      <c r="E662" s="7" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -13871,10 +13868,10 @@
         <v>14</v>
       </c>
       <c r="D663" s="23" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E663" s="7" t="s">
         <v>1037</v>
-      </c>
-      <c r="E663" s="7" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -13920,7 +13917,7 @@
     </row>
     <row r="667" spans="1:5">
       <c r="A667" s="36" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B667" s="39" t="s">
         <v>150</v>
@@ -13942,7 +13939,7 @@
         <v>14</v>
       </c>
       <c r="D668" s="23" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E668" s="7" t="s">
         <v>524</v>
@@ -13996,7 +13993,7 @@
         <v>14</v>
       </c>
       <c r="D672" s="23" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E672" s="7" t="s">
         <v>829</v>
@@ -14005,16 +14002,16 @@
     <row r="673" spans="1:5">
       <c r="A673" s="37"/>
       <c r="B673" s="39" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C673" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D673" s="23" t="s">
         <v>1042</v>
       </c>
-      <c r="C673" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D673" s="23" t="s">
+      <c r="E673" s="7" t="s">
         <v>1043</v>
-      </c>
-      <c r="E673" s="7" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -14024,10 +14021,10 @@
         <v>14</v>
       </c>
       <c r="D674" s="23" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E674" s="7" t="s">
         <v>1045</v>
-      </c>
-      <c r="E674" s="7" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -14037,10 +14034,10 @@
         <v>14</v>
       </c>
       <c r="D675" s="23" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E675" s="7" t="s">
         <v>1047</v>
-      </c>
-      <c r="E675" s="7" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -14050,10 +14047,10 @@
         <v>14</v>
       </c>
       <c r="D676" s="23" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E676" s="7" t="s">
         <v>1049</v>
-      </c>
-      <c r="E676" s="7" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -14063,25 +14060,25 @@
         <v>14</v>
       </c>
       <c r="D677" s="23" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E677" s="7" t="s">
         <v>1051</v>
-      </c>
-      <c r="E677" s="7" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="678" spans="1:5">
       <c r="A678" s="37"/>
       <c r="B678" s="39" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C678" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D678" s="23" t="s">
         <v>1053</v>
       </c>
-      <c r="C678" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D678" s="23" t="s">
-        <v>1054</v>
-      </c>
       <c r="E678" s="7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="679" spans="1:5">
@@ -14091,10 +14088,10 @@
         <v>14</v>
       </c>
       <c r="D679" s="23" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E679" s="7" t="s">
         <v>1055</v>
-      </c>
-      <c r="E679" s="7" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="680" spans="1:5">
@@ -14104,10 +14101,10 @@
         <v>14</v>
       </c>
       <c r="D680" s="23" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E680" s="7" t="s">
         <v>1057</v>
-      </c>
-      <c r="E680" s="7" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="681" spans="1:5">
@@ -14117,7 +14114,7 @@
         <v>14</v>
       </c>
       <c r="D681" s="23" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E681" s="7" t="s">
         <v>766</v>
@@ -14130,10 +14127,10 @@
         <v>14</v>
       </c>
       <c r="D682" s="23" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E682" s="7" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="683" spans="1:5">
@@ -14145,10 +14142,10 @@
         <v>14</v>
       </c>
       <c r="D683" s="23" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E683" s="7" t="s">
         <v>1061</v>
-      </c>
-      <c r="E683" s="7" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -14158,10 +14155,10 @@
         <v>14</v>
       </c>
       <c r="D684" s="23" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E684" s="7" t="s">
         <v>1063</v>
-      </c>
-      <c r="E684" s="7" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="685" spans="1:5">
@@ -14238,7 +14235,7 @@
         <v>14</v>
       </c>
       <c r="D690" s="23" t="s">
-        <v>293</v>
+        <v>1064</v>
       </c>
       <c r="E690" s="7" t="s">
         <v>540</v>
@@ -14366,7 +14363,7 @@
         <v>1079</v>
       </c>
       <c r="E699" s="7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="700" spans="1:5">
@@ -14446,7 +14443,7 @@
         <v>1091</v>
       </c>
       <c r="E705" s="7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="706" spans="1:5">
@@ -14517,7 +14514,7 @@
     <row r="711" spans="1:5">
       <c r="A711" s="37"/>
       <c r="B711" s="39" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C711" s="16" t="s">
         <v>14</v>
@@ -14526,7 +14523,7 @@
         <v>1102</v>
       </c>
       <c r="E711" s="7" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="712" spans="1:5">
@@ -14539,7 +14536,7 @@
         <v>1103</v>
       </c>
       <c r="E712" s="7" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="713" spans="1:5">
@@ -14552,7 +14549,7 @@
         <v>1104</v>
       </c>
       <c r="E713" s="7" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="714" spans="1:5">
@@ -14578,7 +14575,7 @@
         <v>1106</v>
       </c>
       <c r="E715" s="7" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="716" spans="1:5">
@@ -14593,7 +14590,7 @@
         <v>142</v>
       </c>
       <c r="E716" s="7" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="717" spans="1:5">
@@ -14616,10 +14613,10 @@
         <v>14</v>
       </c>
       <c r="D718" s="23" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E718" s="7" t="s">
         <v>1026</v>
-      </c>
-      <c r="E718" s="7" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="719" spans="1:5">
@@ -14629,7 +14626,7 @@
         <v>14</v>
       </c>
       <c r="D719" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E719" s="42">
         <v>2018</v>
@@ -17883,7 +17880,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -17943,7 +17940,7 @@
         <v>262</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -17963,7 +17960,7 @@
     <row r="7" ht="18" customHeight="1" spans="1:5">
       <c r="A7" s="15"/>
       <c r="B7" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -18218,18 +18215,18 @@
         <v>989</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>1217</v>
+        <v>289</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="9" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:5">
       <c r="A33" s="12"/>
       <c r="B33" s="10" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -18237,21 +18234,21 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="9" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="9" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="12"/>
       <c r="B35" s="10" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -18260,7 +18257,7 @@
     <row r="36" spans="1:5">
       <c r="A36" s="12"/>
       <c r="B36" s="10" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -18269,7 +18266,7 @@
     <row r="37" spans="1:5">
       <c r="A37" s="15"/>
       <c r="B37" s="10" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>

--- a/framfriend/data/TestData/elementDate.xlsx
+++ b/framfriend/data/TestData/elementDate.xlsx
@@ -13,12 +13,12 @@
     <sheet name="queryData" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A399:E499"/>
+  <oleSize ref="A324:E424"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="1235">
   <si>
     <t>模块</t>
   </si>
@@ -1880,123 +1880,129 @@
     <t>pueryinput</t>
   </si>
   <si>
+    <t xml:space="preserve">//*[@id="searchForm"]/div[3]/input[1] </t>
+  </si>
+  <si>
+    <t>开始时间1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="searchForm"]/div[3]/input[2] </t>
+  </si>
+  <si>
+    <t>开始时间2</t>
+  </si>
+  <si>
+    <t>//*[@id="selAllContract"]</t>
+  </si>
+  <si>
+    <t>//*[@id="batchPrint"]</t>
+  </si>
+  <si>
+    <t>批量打印</t>
+  </si>
+  <si>
+    <t>//*[@id="jedate"]/div[2]/div/div[1]/em[1]</t>
+  </si>
+  <si>
+    <t>切换年</t>
+  </si>
+  <si>
+    <t>//*[@id="jedate"]/div[2]/div/div[1]/em[2]</t>
+  </si>
+  <si>
+    <t>切换月</t>
+  </si>
+  <si>
+    <t>//*[@id="jedate"]/div[2]/div/div[2]/table[3]/tbody/tr[3]/td[7]/p/span[1]</t>
+  </si>
+  <si>
+    <t>选择日</t>
+  </si>
+  <si>
+    <t>//*[@id="jedate"]/div[3]/div/span[3]</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>//*[@id="jedate"]/div[3]/div/span[2]</t>
+  </si>
+  <si>
+    <t>现在</t>
+  </si>
+  <si>
+    <t>//*[@id="jedate"]/div[3]/div/span[1]</t>
+  </si>
+  <si>
+    <t>清空</t>
+  </si>
+  <si>
+    <t>//*[@id="mychart4"]/tbody/tr[1]/td[1]/input</t>
+  </si>
+  <si>
+    <t>//*[@id="mychart4"]/thead/tr/th[1]/div[1]/input</t>
+  </si>
+  <si>
+    <t>全选</t>
+  </si>
+  <si>
+    <t>//*[@id="container-fluid"]/div[1]/div/div/div[2]/div[1]/div[2]/div[2]</t>
+  </si>
+  <si>
+    <t>//*[@id="container-fluid"]/div[1]/div/div/div[2]/div[1]/div[2]/div[4]/div[1]/span[1]</t>
+  </si>
+  <si>
+    <t>时间查询验证</t>
+  </si>
+  <si>
+    <t>/html/body/div[4]/div[2]/iframe</t>
+  </si>
+  <si>
+    <t>打印验证</t>
+  </si>
+  <si>
+    <t>detailqueryPage</t>
+  </si>
+  <si>
+    <t>//*[@id="searchForm2"]/div[1]/div/button</t>
+  </si>
+  <si>
+    <t>打开选择银行</t>
+  </si>
+  <si>
+    <t>//*[@id="searchForm2"]/div[1]/div/div/ul/li[2]/a/span[1]</t>
+  </si>
+  <si>
+    <t>选择银行</t>
+  </si>
+  <si>
+    <t>//*[@id="preview_debit"]</t>
+  </si>
+  <si>
+    <t>//*[@id="print_debit"]</t>
+  </si>
+  <si>
+    <t>打印</t>
+  </si>
+  <si>
+    <t>//*[@id="export_debit"]</t>
+  </si>
+  <si>
+    <t>导出</t>
+  </si>
+  <si>
+    <t>batchResultsPage</t>
+  </si>
+  <si>
     <t>//*[@id="searchForm"]/div/input[1]</t>
   </si>
   <si>
-    <t>开始时间1</t>
+    <t>查询日期始</t>
   </si>
   <si>
     <t>//*[@id="searchForm"]/div/input[2]</t>
   </si>
   <si>
-    <t>开始时间2</t>
-  </si>
-  <si>
-    <t>//*[@id="selAllContract"]</t>
-  </si>
-  <si>
-    <t>//*[@id="batchPrint"]</t>
-  </si>
-  <si>
-    <t>批量打印</t>
-  </si>
-  <si>
-    <t>//*[@id="jedate"]/div[2]/div/div[1]/em[1]</t>
-  </si>
-  <si>
-    <t>切换年</t>
-  </si>
-  <si>
-    <t>//*[@id="jedate"]/div[2]/div/div[1]/em[2]</t>
-  </si>
-  <si>
-    <t>切换月</t>
-  </si>
-  <si>
-    <t>//*[@id="jedate"]/div[2]/div/div[2]/table[3]/tbody/tr[3]/td[7]/p/span[1]</t>
-  </si>
-  <si>
-    <t>选择日</t>
-  </si>
-  <si>
-    <t>//*[@id="jedate"]/div[3]/div/span[3]</t>
-  </si>
-  <si>
-    <t>确定</t>
-  </si>
-  <si>
-    <t>//*[@id="jedate"]/div[3]/div/span[2]</t>
-  </si>
-  <si>
-    <t>现在</t>
-  </si>
-  <si>
-    <t>//*[@id="jedate"]/div[3]/div/span[1]</t>
-  </si>
-  <si>
-    <t>清空</t>
-  </si>
-  <si>
-    <t>//*[@id="mychart4"]/tbody/tr[1]/td[1]/input</t>
-  </si>
-  <si>
-    <t>//*[@id="mychart4"]/thead/tr/th[1]/div[1]/input</t>
-  </si>
-  <si>
-    <t>全选</t>
-  </si>
-  <si>
-    <t>//*[@id="container-fluid"]/div[1]/div/div/div[2]/div[1]/div[2]/div[2]</t>
-  </si>
-  <si>
-    <t>//*[@id="container-fluid"]/div[1]/div/div/div[2]/div[1]/div[2]/div[4]/div[1]/span[1]</t>
-  </si>
-  <si>
-    <t>时间查询验证</t>
-  </si>
-  <si>
-    <t>/html/body/div[4]/div[2]/iframe</t>
-  </si>
-  <si>
-    <t>打印验证</t>
-  </si>
-  <si>
-    <t>detailqueryPage</t>
-  </si>
-  <si>
-    <t>//*[@id="searchForm2"]/div[1]/div/button</t>
-  </si>
-  <si>
-    <t>打开选择银行</t>
-  </si>
-  <si>
-    <t>//*[@id="searchForm2"]/div[1]/div/div/ul/li[2]/a/span[1]</t>
-  </si>
-  <si>
-    <t>选择银行</t>
-  </si>
-  <si>
-    <t>//*[@id="preview_debit"]</t>
-  </si>
-  <si>
-    <t>//*[@id="print_debit"]</t>
-  </si>
-  <si>
-    <t>打印</t>
-  </si>
-  <si>
-    <t>//*[@id="export_debit"]</t>
-  </si>
-  <si>
-    <t>导出</t>
-  </si>
-  <si>
-    <t>batchResultsPage</t>
-  </si>
-  <si>
-    <t>查询日期始</t>
-  </si>
-  <si>
     <t>查询日期止</t>
   </si>
   <si>
@@ -2126,6 +2132,9 @@
     <t>数据后查询余额</t>
   </si>
   <si>
+    <t>//*[@id="mychart4"]/tbody/tr[10]/td[1]/input</t>
+  </si>
+  <si>
     <t>新增窗口验证</t>
   </si>
   <si>
@@ -2174,13 +2183,13 @@
     <t>联行号（新增，修改）</t>
   </si>
   <si>
-    <t>//*[@id="defaultForm"]/div[8]/div[1]</t>
+    <t>//*[@id="defaultForm"]/div[6]/div[1]</t>
   </si>
   <si>
     <t>是农商行（新增</t>
   </si>
   <si>
-    <t>//*[@id="defaultForm"]/div[8]/div[2]</t>
+    <t>//*[@id="defaultForm"]/div[6]/div[2]</t>
   </si>
   <si>
     <t>否农商行（新增</t>
@@ -3606,6 +3615,12 @@
   </si>
   <si>
     <t>转账查询 己方银行，对方银行，摘要单一查询数据（每一个输入框会循环输入这个3个数据，数据不够可以直接下面添加）</t>
+  </si>
+  <si>
+    <t>七里村</t>
+  </si>
+  <si>
+    <t>代理中心付七里村款</t>
   </si>
   <si>
     <t>山东临沂</t>
@@ -3770,22 +3785,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3794,37 +3796,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3859,7 +3830,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3868,7 +3845,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3891,14 +3900,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3906,9 +3907,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3923,19 +3938,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3947,25 +3980,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3977,73 +4034,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4061,49 +4064,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4182,6 +4197,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4193,24 +4219,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4241,11 +4249,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4279,6 +4285,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4287,10 +4302,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4299,31 +4314,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4332,100 +4350,97 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4924,8 +4939,8 @@
   <sheetPr/>
   <dimension ref="A1:E1074"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="D413" sqref="D413"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="D348" sqref="D348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -9926,10 +9941,10 @@
         <v>14</v>
       </c>
       <c r="D369" s="26" t="s">
-        <v>620</v>
+        <v>658</v>
       </c>
       <c r="E369" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9939,10 +9954,10 @@
         <v>14</v>
       </c>
       <c r="D370" s="26" t="s">
-        <v>622</v>
+        <v>660</v>
       </c>
       <c r="E370" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9952,7 +9967,7 @@
         <v>21</v>
       </c>
       <c r="D371" s="26" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E371" s="7" t="s">
         <v>524</v>
@@ -9965,10 +9980,10 @@
         <v>21</v>
       </c>
       <c r="D372" s="26" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E372" s="7" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9996,7 +10011,7 @@
         <v>93</v>
       </c>
       <c r="E374" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -10006,10 +10021,10 @@
         <v>14</v>
       </c>
       <c r="D375" s="26" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E375" s="7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -10021,7 +10036,7 @@
         <v>14</v>
       </c>
       <c r="D376" s="26" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E376" s="7" t="s">
         <v>233</v>
@@ -10034,7 +10049,7 @@
         <v>14</v>
       </c>
       <c r="D377" s="26" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="E377" s="7" t="s">
         <v>641</v>
@@ -10042,25 +10057,25 @@
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="17" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B378" s="39" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C378" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D378" s="26" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E378" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="19"/>
       <c r="B379" s="39" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C379" s="16" t="s">
         <v>14</v>
@@ -10069,7 +10084,7 @@
         <v>75</v>
       </c>
       <c r="E379" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -10123,7 +10138,7 @@
         <v>554</v>
       </c>
       <c r="E383" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -10136,7 +10151,7 @@
         <v>200</v>
       </c>
       <c r="E384" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -10149,7 +10164,7 @@
         <v>200</v>
       </c>
       <c r="E385" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -10162,7 +10177,7 @@
         <v>202</v>
       </c>
       <c r="E386" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -10175,7 +10190,7 @@
         <v>203</v>
       </c>
       <c r="E387" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -10185,10 +10200,10 @@
         <v>14</v>
       </c>
       <c r="D388" s="26" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E388" s="7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -10201,7 +10216,7 @@
         <v>206</v>
       </c>
       <c r="E389" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -10214,7 +10229,7 @@
         <v>559</v>
       </c>
       <c r="E390" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -10224,10 +10239,10 @@
         <v>14</v>
       </c>
       <c r="D391" s="26" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="E391" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -10240,7 +10255,7 @@
         <v>559</v>
       </c>
       <c r="E392" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -10253,7 +10268,7 @@
         <v>561</v>
       </c>
       <c r="E393" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -10265,7 +10280,7 @@
         <v>21</v>
       </c>
       <c r="D394" s="26" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E394" s="7" t="s">
         <v>524</v>
@@ -10278,10 +10293,10 @@
         <v>21</v>
       </c>
       <c r="D395" s="26" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E395" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -10291,10 +10306,10 @@
         <v>21</v>
       </c>
       <c r="D396" s="26" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="E396" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -10304,10 +10319,10 @@
         <v>21</v>
       </c>
       <c r="D397" s="26" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E397" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -10317,10 +10332,10 @@
         <v>21</v>
       </c>
       <c r="D398" s="26" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="E398" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -10330,10 +10345,10 @@
         <v>14</v>
       </c>
       <c r="D399" s="26" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E399" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -10343,10 +10358,10 @@
         <v>14</v>
       </c>
       <c r="D400" s="26" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="E400" s="7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -10434,10 +10449,10 @@
         <v>14</v>
       </c>
       <c r="D407" s="26" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="E407" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -10462,7 +10477,7 @@
         <v>14</v>
       </c>
       <c r="D409" s="26" t="s">
-        <v>639</v>
+        <v>704</v>
       </c>
       <c r="E409" s="7" t="s">
         <v>251</v>
@@ -10493,7 +10508,7 @@
         <v>93</v>
       </c>
       <c r="E411" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -10506,7 +10521,7 @@
         <v>544</v>
       </c>
       <c r="E412" s="7" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10519,7 +10534,7 @@
         <v>210</v>
       </c>
       <c r="E413" s="7" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10532,7 +10547,7 @@
         <v>210</v>
       </c>
       <c r="E414" s="7" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10545,7 +10560,7 @@
         <v>99</v>
       </c>
       <c r="E415" s="7" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10558,7 +10573,7 @@
         <v>602</v>
       </c>
       <c r="E416" s="7" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10571,7 +10586,7 @@
         <v>604</v>
       </c>
       <c r="E417" s="7" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10581,10 +10596,10 @@
         <v>14</v>
       </c>
       <c r="D418" s="26" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="E418" s="7" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10597,7 +10612,7 @@
         <v>604</v>
       </c>
       <c r="E419" s="7" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10607,10 +10622,10 @@
         <v>14</v>
       </c>
       <c r="D420" s="29" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="E420" s="7" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10623,7 +10638,7 @@
         <v>343</v>
       </c>
       <c r="E421" s="7" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10636,7 +10651,7 @@
         <v>345</v>
       </c>
       <c r="E422" s="7" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10646,7 +10661,7 @@
         <v>14</v>
       </c>
       <c r="D423" s="26" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="E423" s="7" t="s">
         <v>540</v>
@@ -10654,7 +10669,7 @@
     </row>
     <row r="424" spans="1:5">
       <c r="A424" s="17" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B424" s="17" t="s">
         <v>471</v>
@@ -10666,7 +10681,7 @@
         <v>206</v>
       </c>
       <c r="E424" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10679,7 +10694,7 @@
         <v>559</v>
       </c>
       <c r="E425" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10689,10 +10704,10 @@
         <v>14</v>
       </c>
       <c r="D426" s="26" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="E426" s="7" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10707,7 +10722,7 @@
         <v>397</v>
       </c>
       <c r="E427" s="7" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10720,7 +10735,7 @@
         <v>600</v>
       </c>
       <c r="E428" s="7" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -10732,10 +10747,10 @@
         <v>14</v>
       </c>
       <c r="D429" s="26" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="E429" s="7" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10745,15 +10760,15 @@
         <v>14</v>
       </c>
       <c r="D430" s="26" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="E430" s="7" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="431" spans="1:5">
       <c r="A431" s="17" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="B431" s="17" t="s">
         <v>471</v>
@@ -10765,7 +10780,7 @@
         <v>142</v>
       </c>
       <c r="E431" s="7" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -10778,7 +10793,7 @@
         <v>144</v>
       </c>
       <c r="E432" s="7" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10791,7 +10806,7 @@
         <v>200</v>
       </c>
       <c r="E433" s="7" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -10804,7 +10819,7 @@
         <v>202</v>
       </c>
       <c r="E434" s="7" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -10814,10 +10829,10 @@
         <v>14</v>
       </c>
       <c r="D435" s="26" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="E435" s="7" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -10829,7 +10844,7 @@
         <v>14</v>
       </c>
       <c r="D436" s="26" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="E436" s="7" t="s">
         <v>524</v>
@@ -10842,10 +10857,10 @@
         <v>14</v>
       </c>
       <c r="D437" s="26" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="E437" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -10855,10 +10870,10 @@
         <v>14</v>
       </c>
       <c r="D438" s="26" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="E438" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -10868,10 +10883,10 @@
         <v>14</v>
       </c>
       <c r="D439" s="26" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="E439" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -10881,10 +10896,10 @@
         <v>14</v>
       </c>
       <c r="D440" s="26" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="E440" s="7" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -10894,10 +10909,10 @@
         <v>14</v>
       </c>
       <c r="D441" s="26" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="E441" s="7" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -10966,7 +10981,7 @@
         <v>93</v>
       </c>
       <c r="E446" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -10976,10 +10991,10 @@
         <v>14</v>
       </c>
       <c r="D447" s="26" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="E447" s="7" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -10992,7 +11007,7 @@
         <v>210</v>
       </c>
       <c r="E448" s="7" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -11005,7 +11020,7 @@
         <v>99</v>
       </c>
       <c r="E449" s="7" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -11015,10 +11030,10 @@
         <v>14</v>
       </c>
       <c r="D450" s="26" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="E450" s="7" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -11031,7 +11046,7 @@
         <v>345</v>
       </c>
       <c r="E451" s="7" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -11049,327 +11064,327 @@
     </row>
     <row r="453" spans="1:5">
       <c r="A453" s="17" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B453" s="20" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C453" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D453" s="26" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="E453" s="7" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
     </row>
     <row r="454" spans="1:5">
       <c r="A454" s="19"/>
       <c r="B454" s="16" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C454" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D454" s="26" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="E454" s="7" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="455" spans="1:5">
       <c r="A455" s="19"/>
       <c r="B455" s="16" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C455" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D455" s="26" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="E455" s="7" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="19"/>
       <c r="B456" s="16" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C456" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D456" s="26" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="E456" s="7" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="457" spans="1:5">
       <c r="A457" s="19"/>
       <c r="B457" s="16" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C457" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D457" s="26" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="E457" s="7" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="458" spans="1:5">
       <c r="A458" s="19"/>
       <c r="B458" s="16" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C458" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D458" s="26" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="E458" s="7" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="459" spans="1:5">
       <c r="A459" s="19"/>
       <c r="B459" s="16" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C459" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D459" s="26" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="E459" s="7" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
     </row>
     <row r="460" spans="1:5">
       <c r="A460" s="19"/>
       <c r="B460" s="16" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C460" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D460" s="26" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="E460" s="7" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
     </row>
     <row r="461" spans="1:5">
       <c r="A461" s="19"/>
       <c r="B461" s="16" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="C461" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D461" s="26" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="E461" s="7" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
     </row>
     <row r="462" spans="1:5">
       <c r="A462" s="19"/>
       <c r="B462" s="16" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C462" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D462" s="26" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="E462" s="7" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="463" spans="1:5">
       <c r="A463" s="19"/>
       <c r="B463" s="16" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C463" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D463" s="26" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="E463" s="7" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
     </row>
     <row r="464" spans="1:5">
       <c r="A464" s="19"/>
       <c r="B464" s="16" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="C464" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D464" s="26" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="E464" s="7" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="465" spans="1:5">
       <c r="A465" s="19"/>
       <c r="B465" s="16" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="C465" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D465" s="26" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="E465" s="7" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="466" spans="1:5">
       <c r="A466" s="19"/>
       <c r="B466" s="16" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C466" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D466" s="26" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="E466" s="7" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="467" spans="1:5">
       <c r="A467" s="19"/>
       <c r="B467" s="16" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C467" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D467" s="26" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="E467" s="7" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
     </row>
     <row r="468" spans="1:5">
       <c r="A468" s="19"/>
       <c r="B468" s="16" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C468" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D468" s="26" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="E468" s="7" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="469" spans="1:5">
       <c r="A469" s="19"/>
       <c r="B469" s="16" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="C469" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D469" s="26" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="E469" s="7" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="470" spans="1:5">
       <c r="A470" s="19"/>
       <c r="B470" s="16" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C470" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D470" s="26" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="E470" s="7" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="471" spans="1:5">
       <c r="A471" s="19"/>
       <c r="B471" s="16" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C471" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D471" s="26" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="E471" s="7" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="472" spans="1:5">
       <c r="A472" s="19"/>
       <c r="B472" s="16" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="C472" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D472" s="26" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="E472" s="7" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="473" spans="1:5">
       <c r="A473" s="20"/>
       <c r="B473" s="16" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C473" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D473" s="26" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="E473" s="7" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="17" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B474" s="16" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C474" s="16" t="s">
         <v>14</v>
@@ -11378,7 +11393,7 @@
         <v>75</v>
       </c>
       <c r="E474" s="7" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -11390,10 +11405,10 @@
         <v>14</v>
       </c>
       <c r="D475" s="26" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="E475" s="7" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -11403,10 +11418,10 @@
         <v>14</v>
       </c>
       <c r="D476" s="26" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="E476" s="7" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -11416,10 +11431,10 @@
         <v>14</v>
       </c>
       <c r="D477" s="26" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="E477" s="7" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -11429,10 +11444,10 @@
         <v>14</v>
       </c>
       <c r="D478" s="26" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="E478" s="7" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -11445,7 +11460,7 @@
         <v>200</v>
       </c>
       <c r="E479" s="7" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -11458,7 +11473,7 @@
         <v>203</v>
       </c>
       <c r="E480" s="7" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -11471,7 +11486,7 @@
         <v>559</v>
       </c>
       <c r="E481" s="7" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -11481,10 +11496,10 @@
         <v>14</v>
       </c>
       <c r="D482" s="26" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="E482" s="7" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -11494,10 +11509,10 @@
         <v>14</v>
       </c>
       <c r="D483" s="26" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="E483" s="7" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -11507,10 +11522,10 @@
         <v>14</v>
       </c>
       <c r="D484" s="26" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="E484" s="7" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -11520,10 +11535,10 @@
         <v>14</v>
       </c>
       <c r="D485" s="26" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="E485" s="7" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -11533,10 +11548,10 @@
         <v>14</v>
       </c>
       <c r="D486" s="26" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E486" s="7" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -11546,10 +11561,10 @@
         <v>14</v>
       </c>
       <c r="D487" s="26" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="E487" s="7" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -11559,10 +11574,10 @@
         <v>14</v>
       </c>
       <c r="D488" s="26" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="E488" s="7" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -11572,10 +11587,10 @@
         <v>14</v>
       </c>
       <c r="D489" s="26" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="E489" s="7" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -11585,10 +11600,10 @@
         <v>14</v>
       </c>
       <c r="D490" s="26" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="E490" s="7" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -11598,10 +11613,10 @@
         <v>14</v>
       </c>
       <c r="D491" s="26" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="E491" s="7" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -11611,10 +11626,10 @@
         <v>14</v>
       </c>
       <c r="D492" s="26" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="E492" s="7" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -11624,10 +11639,10 @@
         <v>14</v>
       </c>
       <c r="D493" s="26" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="E493" s="7" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -11640,7 +11655,7 @@
         <v>200</v>
       </c>
       <c r="E494" s="7" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -11653,7 +11668,7 @@
         <v>202</v>
       </c>
       <c r="E495" s="7" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -11666,7 +11681,7 @@
         <v>203</v>
       </c>
       <c r="E496" s="7" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -11679,7 +11694,7 @@
         <v>204</v>
       </c>
       <c r="E497" s="7" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -11689,10 +11704,10 @@
         <v>14</v>
       </c>
       <c r="D498" s="26" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="E498" s="7" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -11702,10 +11717,10 @@
         <v>14</v>
       </c>
       <c r="D499" s="26" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="E499" s="7" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -11715,10 +11730,10 @@
         <v>14</v>
       </c>
       <c r="D500" s="26" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="E500" s="7" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -11730,10 +11745,10 @@
         <v>14</v>
       </c>
       <c r="D501" s="26" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="E501" s="7" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -11743,10 +11758,10 @@
         <v>14</v>
       </c>
       <c r="D502" s="26" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="E502" s="7" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -11756,10 +11771,10 @@
         <v>14</v>
       </c>
       <c r="D503" s="26" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="E503" s="7" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -11769,7 +11784,7 @@
         <v>14</v>
       </c>
       <c r="D504" s="26" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="E504" s="7" t="s">
         <v>524</v>
@@ -11782,10 +11797,10 @@
         <v>14</v>
       </c>
       <c r="D505" s="26" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="E505" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -11795,10 +11810,10 @@
         <v>14</v>
       </c>
       <c r="D506" s="26" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="E506" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -11808,10 +11823,10 @@
         <v>14</v>
       </c>
       <c r="D507" s="26" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="E507" s="7" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -11821,10 +11836,10 @@
         <v>14</v>
       </c>
       <c r="D508" s="26" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="E508" s="7" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -11834,10 +11849,10 @@
         <v>14</v>
       </c>
       <c r="D509" s="26" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="E509" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -11847,7 +11862,7 @@
         <v>14</v>
       </c>
       <c r="D510" s="26" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="E510" s="7" t="s">
         <v>526</v>
@@ -11860,7 +11875,7 @@
         <v>14</v>
       </c>
       <c r="D511" s="26" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="E511" s="7" t="s">
         <v>571</v>
@@ -11873,10 +11888,10 @@
         <v>14</v>
       </c>
       <c r="D512" s="26" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="E512" s="7" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -11886,7 +11901,7 @@
         <v>14</v>
       </c>
       <c r="D513" s="26" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="E513" s="7" t="s">
         <v>531</v>
@@ -11899,7 +11914,7 @@
         <v>14</v>
       </c>
       <c r="D514" s="26" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="E514" s="7" t="s">
         <v>532</v>
@@ -11912,10 +11927,10 @@
         <v>14</v>
       </c>
       <c r="D515" s="26" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="E515" s="7" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -11925,10 +11940,10 @@
         <v>14</v>
       </c>
       <c r="D516" s="26" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="E516" s="7" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -11938,10 +11953,10 @@
         <v>14</v>
       </c>
       <c r="D517" s="26" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="E517" s="7" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -11951,10 +11966,10 @@
         <v>14</v>
       </c>
       <c r="D518" s="26" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="E518" s="7" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -11964,10 +11979,10 @@
         <v>14</v>
       </c>
       <c r="D519" s="26" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="E519" s="7" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -11977,10 +11992,10 @@
         <v>14</v>
       </c>
       <c r="D520" s="26" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="E520" s="7" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -11990,10 +12005,10 @@
         <v>14</v>
       </c>
       <c r="D521" s="26" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="E521" s="7" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -12006,7 +12021,7 @@
         <v>347</v>
       </c>
       <c r="E522" s="7" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -12019,7 +12034,7 @@
         <v>173</v>
       </c>
       <c r="E523" s="7" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -12029,10 +12044,10 @@
         <v>14</v>
       </c>
       <c r="D524" s="26" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="E524" s="7" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -12042,10 +12057,10 @@
         <v>14</v>
       </c>
       <c r="D525" s="26" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="E525" s="7" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -12055,25 +12070,25 @@
         <v>14</v>
       </c>
       <c r="D526" s="26" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="E526" s="7" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
     </row>
     <row r="527" spans="1:5">
       <c r="A527" s="19"/>
       <c r="B527" s="17" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="C527" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D527" s="26" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="E527" s="7" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -12083,10 +12098,10 @@
         <v>14</v>
       </c>
       <c r="D528" s="26" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="E528" s="7" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -12122,7 +12137,7 @@
         <v>14</v>
       </c>
       <c r="D531" s="26" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="E531" s="7" t="s">
         <v>632</v>
@@ -12170,13 +12185,13 @@
     <row r="535" spans="1:5">
       <c r="A535" s="19"/>
       <c r="B535" s="17" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="C535" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D535" s="26" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="E535" s="7" t="s">
         <v>192</v>
@@ -12192,7 +12207,7 @@
         <v>177</v>
       </c>
       <c r="E536" s="7" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -12202,10 +12217,10 @@
         <v>14</v>
       </c>
       <c r="D537" s="26" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="E537" s="7" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -12215,10 +12230,10 @@
         <v>14</v>
       </c>
       <c r="D538" s="26" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="E538" s="7" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -12228,10 +12243,10 @@
         <v>14</v>
       </c>
       <c r="D539" s="26" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="E539" s="7" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -12270,7 +12285,7 @@
         <v>561</v>
       </c>
       <c r="E542" s="7" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -12283,7 +12298,7 @@
         <v>563</v>
       </c>
       <c r="E543" s="7" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -12293,10 +12308,10 @@
         <v>14</v>
       </c>
       <c r="D544" s="29" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="E544" s="7" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -12306,10 +12321,10 @@
         <v>14</v>
       </c>
       <c r="D545" s="26" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="E545" s="7" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -12322,7 +12337,7 @@
         <v>203</v>
       </c>
       <c r="E546" s="7" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -12337,7 +12352,7 @@
         <v>93</v>
       </c>
       <c r="E547" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -12350,7 +12365,7 @@
         <v>99</v>
       </c>
       <c r="E548" s="7" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -12363,7 +12378,7 @@
         <v>213</v>
       </c>
       <c r="E549" s="7" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -12376,7 +12391,7 @@
         <v>215</v>
       </c>
       <c r="E550" s="7" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -12389,7 +12404,7 @@
         <v>210</v>
       </c>
       <c r="E551" s="7" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -12402,7 +12417,7 @@
         <v>213</v>
       </c>
       <c r="E552" s="7" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -12415,7 +12430,7 @@
         <v>600</v>
       </c>
       <c r="E553" s="7" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -12428,7 +12443,7 @@
         <v>602</v>
       </c>
       <c r="E554" s="7" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -12441,7 +12456,7 @@
         <v>604</v>
       </c>
       <c r="E555" s="7" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -12451,10 +12466,10 @@
         <v>14</v>
       </c>
       <c r="D556" s="26" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="E556" s="7" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -12464,10 +12479,10 @@
         <v>14</v>
       </c>
       <c r="D557" s="26" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="E557" s="7" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -12477,10 +12492,10 @@
         <v>14</v>
       </c>
       <c r="D558" s="26" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="E558" s="7" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -12490,10 +12505,10 @@
         <v>14</v>
       </c>
       <c r="D559" s="26" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="E559" s="7" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -12503,10 +12518,10 @@
         <v>14</v>
       </c>
       <c r="D560" s="26" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="E560" s="7" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -12516,10 +12531,10 @@
         <v>14</v>
       </c>
       <c r="D561" s="26" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="E561" s="7" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -12529,10 +12544,10 @@
         <v>14</v>
       </c>
       <c r="D562" s="26" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="E562" s="7" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -12542,10 +12557,10 @@
         <v>14</v>
       </c>
       <c r="D563" s="26" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="E563" s="7" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -12555,10 +12570,10 @@
         <v>14</v>
       </c>
       <c r="D564" s="26" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="E564" s="7" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -12568,10 +12583,10 @@
         <v>14</v>
       </c>
       <c r="D565" s="26" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="E565" s="7" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -12581,10 +12596,10 @@
         <v>14</v>
       </c>
       <c r="D566" s="26" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="E566" s="7" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -12594,10 +12609,10 @@
         <v>14</v>
       </c>
       <c r="D567" s="26" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="E567" s="7" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -12607,10 +12622,10 @@
         <v>14</v>
       </c>
       <c r="D568" s="26" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="E568" s="7" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -12620,10 +12635,10 @@
         <v>14</v>
       </c>
       <c r="D569" s="26" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="E569" s="7" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -12633,10 +12648,10 @@
         <v>14</v>
       </c>
       <c r="D570" s="26" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="E570" s="7" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -12646,10 +12661,10 @@
         <v>14</v>
       </c>
       <c r="D571" s="26" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="E571" s="7" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -12659,10 +12674,10 @@
         <v>14</v>
       </c>
       <c r="D572" s="26" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="E572" s="7" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -12672,10 +12687,10 @@
         <v>14</v>
       </c>
       <c r="D573" s="29" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="E573" s="7" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -12685,10 +12700,10 @@
         <v>14</v>
       </c>
       <c r="D574" s="26" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="E574" s="7" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -12701,7 +12716,7 @@
         <v>345</v>
       </c>
       <c r="E575" s="7" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -12711,7 +12726,7 @@
         <v>14</v>
       </c>
       <c r="D576" s="29" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="E576" s="7" t="s">
         <v>609</v>
@@ -12727,7 +12742,7 @@
         <v>293</v>
       </c>
       <c r="E577" s="7" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -12737,7 +12752,7 @@
         <v>14</v>
       </c>
       <c r="D578" s="26" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="E578" s="7" t="s">
         <v>644</v>
@@ -12750,10 +12765,10 @@
         <v>14</v>
       </c>
       <c r="D579" s="26" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="E579" s="7" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -12763,10 +12778,10 @@
         <v>14</v>
       </c>
       <c r="D580" s="26" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="E580" s="7" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -12776,10 +12791,10 @@
         <v>297</v>
       </c>
       <c r="D581" s="26" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="E581" s="30" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -12789,10 +12804,10 @@
         <v>14</v>
       </c>
       <c r="D582" s="26" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="E582" s="7" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -12802,10 +12817,10 @@
         <v>14</v>
       </c>
       <c r="D583" s="26" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="E583" s="7" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
     </row>
     <row r="584" spans="1:5">
@@ -12815,10 +12830,10 @@
         <v>14</v>
       </c>
       <c r="D584" s="26" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="E584" s="7" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -12828,15 +12843,15 @@
         <v>14</v>
       </c>
       <c r="D585" s="29" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="E585" s="7" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="586" spans="1:5">
       <c r="A586" s="17" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="B586" s="17" t="s">
         <v>471</v>
@@ -12845,10 +12860,10 @@
         <v>14</v>
       </c>
       <c r="D586" s="26" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="E586" s="7" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -12858,10 +12873,10 @@
         <v>14</v>
       </c>
       <c r="D587" s="26" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="E587" s="7" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="588" spans="1:5">
@@ -12871,10 +12886,10 @@
         <v>14</v>
       </c>
       <c r="D588" s="26" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="E588" s="7" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -12884,25 +12899,25 @@
         <v>14</v>
       </c>
       <c r="D589" s="26" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="E589" s="7" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="590" spans="1:5">
       <c r="A590" s="19"/>
       <c r="B590" s="19" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="C590" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D590" s="26" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="E590" s="7" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
     </row>
     <row r="591" spans="1:5">
@@ -12915,7 +12930,7 @@
         <v>627</v>
       </c>
       <c r="E591" s="7" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -12925,7 +12940,7 @@
         <v>14</v>
       </c>
       <c r="D592" s="26" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="E592" s="7" t="s">
         <v>632</v>
@@ -12938,10 +12953,10 @@
         <v>14</v>
       </c>
       <c r="D593" s="26" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="E593" s="7" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -12954,7 +12969,7 @@
         <v>629</v>
       </c>
       <c r="E594" s="7" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
     </row>
     <row r="595" spans="1:5">
@@ -12964,7 +12979,7 @@
         <v>14</v>
       </c>
       <c r="D595" s="26" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="E595" s="7" t="s">
         <v>632</v>
@@ -12992,7 +13007,7 @@
         <v>14</v>
       </c>
       <c r="D597" s="26" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="E597" s="7" t="s">
         <v>524</v>
@@ -13005,10 +13020,10 @@
         <v>14</v>
       </c>
       <c r="D598" s="26" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="E598" s="7" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="599" spans="1:5">
@@ -13023,7 +13038,7 @@
         <v>93</v>
       </c>
       <c r="E599" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -13036,7 +13051,7 @@
         <v>293</v>
       </c>
       <c r="E600" s="7" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -13046,7 +13061,7 @@
         <v>14</v>
       </c>
       <c r="D601" s="26" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="E601" s="7" t="s">
         <v>644</v>
@@ -13062,7 +13077,7 @@
         <v>343</v>
       </c>
       <c r="E602" s="30" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -13095,7 +13110,7 @@
     </row>
     <row r="605" spans="1:5">
       <c r="A605" s="17" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B605" s="39" t="s">
         <v>98</v>
@@ -13104,10 +13119,10 @@
         <v>14</v>
       </c>
       <c r="D605" s="26" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="E605" s="7" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -13119,7 +13134,7 @@
         <v>14</v>
       </c>
       <c r="D606" s="29" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="E606" s="7" t="s">
         <v>192</v>
@@ -13132,15 +13147,15 @@
         <v>14</v>
       </c>
       <c r="D607" s="26" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="E607" s="7" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="608" spans="1:5">
       <c r="A608" s="17" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B608" s="17" t="s">
         <v>471</v>
@@ -13149,10 +13164,10 @@
         <v>14</v>
       </c>
       <c r="D608" s="26" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="E608" s="7" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="609" spans="1:5">
@@ -13162,10 +13177,10 @@
         <v>14</v>
       </c>
       <c r="D609" s="26" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="E609" s="7" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
     </row>
     <row r="610" spans="1:5">
@@ -13175,10 +13190,10 @@
         <v>14</v>
       </c>
       <c r="D610" s="26" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="E610" s="7" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
     </row>
     <row r="611" spans="1:5">
@@ -13188,10 +13203,10 @@
         <v>14</v>
       </c>
       <c r="D611" s="26" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="E611" s="7" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="612" spans="1:5">
@@ -13201,10 +13216,10 @@
         <v>14</v>
       </c>
       <c r="D612" s="26" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="E612" s="7" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
     </row>
     <row r="613" spans="1:5">
@@ -13217,7 +13232,7 @@
         <v>200</v>
       </c>
       <c r="E613" s="7" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
     </row>
     <row r="614" spans="1:5">
@@ -13230,7 +13245,7 @@
         <v>202</v>
       </c>
       <c r="E614" s="7" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="615" spans="1:5">
@@ -13243,7 +13258,7 @@
         <v>203</v>
       </c>
       <c r="E615" s="7" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -13271,7 +13286,7 @@
         <v>612</v>
       </c>
       <c r="E617" s="7" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -13283,7 +13298,7 @@
         <v>14</v>
       </c>
       <c r="D618" s="26" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="E618" s="7" t="s">
         <v>524</v>
@@ -13296,10 +13311,10 @@
         <v>14</v>
       </c>
       <c r="D619" s="26" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="E619" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="620" spans="1:5">
@@ -13309,10 +13324,10 @@
         <v>14</v>
       </c>
       <c r="D620" s="26" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="E620" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="621" spans="1:5">
@@ -13322,10 +13337,10 @@
         <v>14</v>
       </c>
       <c r="D621" s="26" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="E621" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="622" spans="1:5">
@@ -13335,7 +13350,7 @@
         <v>14</v>
       </c>
       <c r="D622" s="26" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="E622" s="7" t="s">
         <v>165</v>
@@ -13348,7 +13363,7 @@
         <v>14</v>
       </c>
       <c r="D623" s="26" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="E623" s="7" t="s">
         <v>167</v>
@@ -13361,10 +13376,10 @@
         <v>14</v>
       </c>
       <c r="D624" s="26" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="E624" s="7" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
     </row>
     <row r="625" spans="1:5">
@@ -13374,10 +13389,10 @@
         <v>14</v>
       </c>
       <c r="D625" s="26" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="E625" s="7" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="626" spans="1:5">
@@ -13390,7 +13405,7 @@
         <v>347</v>
       </c>
       <c r="E626" s="7" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="627" spans="1:5">
@@ -13403,7 +13418,7 @@
         <v>173</v>
       </c>
       <c r="E627" s="7" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
     <row r="628" spans="1:5">
@@ -13418,7 +13433,7 @@
         <v>93</v>
       </c>
       <c r="E628" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -13441,7 +13456,7 @@
         <v>14</v>
       </c>
       <c r="D630" s="26" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="E630" s="7" t="s">
         <v>607</v>
@@ -13454,7 +13469,7 @@
         <v>14</v>
       </c>
       <c r="D631" s="26" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="E631" s="7" t="s">
         <v>109</v>
@@ -13480,10 +13495,10 @@
         <v>14</v>
       </c>
       <c r="D633" s="26" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="E633" s="7" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="634" spans="1:5">
@@ -13493,10 +13508,10 @@
         <v>14</v>
       </c>
       <c r="D634" s="26" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="E634" s="7" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="635" spans="1:5">
@@ -13506,10 +13521,10 @@
         <v>14</v>
       </c>
       <c r="D635" s="26" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="E635" s="7" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="636" spans="1:5">
@@ -13519,10 +13534,10 @@
         <v>14</v>
       </c>
       <c r="D636" s="26" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="E636" s="7" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="637" spans="1:5">
@@ -13535,7 +13550,7 @@
         <v>210</v>
       </c>
       <c r="E637" s="7" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="638" spans="1:5">
@@ -13545,10 +13560,10 @@
         <v>14</v>
       </c>
       <c r="D638" s="26" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="E638" s="7" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -13558,10 +13573,10 @@
         <v>14</v>
       </c>
       <c r="D639" s="26" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="E639" s="7" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="640" spans="1:5">
@@ -13574,7 +13589,7 @@
         <v>213</v>
       </c>
       <c r="E640" s="7" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="641" spans="1:5">
@@ -13592,7 +13607,7 @@
     </row>
     <row r="642" spans="1:5">
       <c r="A642" s="17" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="B642" s="17" t="s">
         <v>150</v>
@@ -13601,7 +13616,7 @@
         <v>14</v>
       </c>
       <c r="D642" s="26" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="E642" s="7" t="s">
         <v>192</v>
@@ -13614,7 +13629,7 @@
         <v>14</v>
       </c>
       <c r="D643" s="26" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="E643" s="7" t="s">
         <v>524</v>
@@ -13627,25 +13642,25 @@
         <v>14</v>
       </c>
       <c r="D644" s="26" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="E644" s="7" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="645" spans="1:5">
       <c r="A645" s="19"/>
       <c r="B645" s="17" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="C645" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D645" s="26" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="E645" s="7" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="646" spans="1:5">
@@ -13658,7 +13673,7 @@
         <v>627</v>
       </c>
       <c r="E646" s="7" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
     </row>
     <row r="647" spans="1:5">
@@ -13668,10 +13683,10 @@
         <v>14</v>
       </c>
       <c r="D647" s="26" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="E647" s="7" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -13681,7 +13696,7 @@
         <v>14</v>
       </c>
       <c r="D648" s="26" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="E648" s="42">
         <v>2018</v>
@@ -13725,7 +13740,7 @@
         <v>232</v>
       </c>
       <c r="E651" s="7" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="652" spans="1:5">
@@ -13737,7 +13752,7 @@
         <v>14</v>
       </c>
       <c r="D652" s="26" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="E652" s="7" t="s">
         <v>540</v>
@@ -13753,7 +13768,7 @@
         <v>93</v>
       </c>
       <c r="E653" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -13763,15 +13778,15 @@
         <v>14</v>
       </c>
       <c r="D654" s="26" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="E654" s="7" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="655" spans="1:5">
       <c r="A655" s="17" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="B655" s="17" t="s">
         <v>150</v>
@@ -13780,7 +13795,7 @@
         <v>14</v>
       </c>
       <c r="D655" s="26" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="E655" s="7" t="s">
         <v>192</v>
@@ -13793,7 +13808,7 @@
         <v>14</v>
       </c>
       <c r="D656" s="26" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="E656" s="7" t="s">
         <v>524</v>
@@ -13806,10 +13821,10 @@
         <v>14</v>
       </c>
       <c r="D657" s="26" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="E657" s="7" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="658" spans="1:5">
@@ -13837,7 +13852,7 @@
         <v>232</v>
       </c>
       <c r="E659" s="7" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -13847,10 +13862,10 @@
         <v>14</v>
       </c>
       <c r="D660" s="26" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="E660" s="7" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -13860,10 +13875,10 @@
         <v>14</v>
       </c>
       <c r="D661" s="26" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="E661" s="7" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -13873,10 +13888,10 @@
         <v>14</v>
       </c>
       <c r="D662" s="26" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="E662" s="7" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -13886,10 +13901,10 @@
         <v>14</v>
       </c>
       <c r="D663" s="26" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="E663" s="7" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -13901,7 +13916,7 @@
         <v>14</v>
       </c>
       <c r="D664" s="26" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="E664" s="7" t="s">
         <v>540</v>
@@ -13917,7 +13932,7 @@
         <v>93</v>
       </c>
       <c r="E665" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -13927,15 +13942,15 @@
         <v>14</v>
       </c>
       <c r="D666" s="26" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="E666" s="7" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="667" spans="1:5">
       <c r="A667" s="17" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="B667" s="39" t="s">
         <v>150</v>
@@ -13944,7 +13959,7 @@
         <v>14</v>
       </c>
       <c r="D667" s="26" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="E667" s="7" t="s">
         <v>192</v>
@@ -13957,7 +13972,7 @@
         <v>14</v>
       </c>
       <c r="D668" s="26" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="E668" s="7" t="s">
         <v>524</v>
@@ -13975,7 +13990,7 @@
         <v>142</v>
       </c>
       <c r="E669" s="7" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="670" spans="1:5">
@@ -13988,7 +14003,7 @@
         <v>144</v>
       </c>
       <c r="E670" s="7" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="671" spans="1:5">
@@ -14001,7 +14016,7 @@
         <v>146</v>
       </c>
       <c r="E671" s="7" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="672" spans="1:5">
@@ -14011,25 +14026,25 @@
         <v>14</v>
       </c>
       <c r="D672" s="26" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="E672" s="7" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="673" spans="1:5">
       <c r="A673" s="19"/>
       <c r="B673" s="39" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="C673" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D673" s="26" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="E673" s="7" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -14039,10 +14054,10 @@
         <v>14</v>
       </c>
       <c r="D674" s="26" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="E674" s="7" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -14052,10 +14067,10 @@
         <v>14</v>
       </c>
       <c r="D675" s="26" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="E675" s="7" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -14065,10 +14080,10 @@
         <v>14</v>
       </c>
       <c r="D676" s="26" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="E676" s="7" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -14078,25 +14093,25 @@
         <v>14</v>
       </c>
       <c r="D677" s="26" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="E677" s="7" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="678" spans="1:5">
       <c r="A678" s="19"/>
       <c r="B678" s="39" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="C678" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D678" s="26" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="E678" s="7" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="679" spans="1:5">
@@ -14106,10 +14121,10 @@
         <v>14</v>
       </c>
       <c r="D679" s="26" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="E679" s="7" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="680" spans="1:5">
@@ -14119,10 +14134,10 @@
         <v>14</v>
       </c>
       <c r="D680" s="26" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="E680" s="7" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="681" spans="1:5">
@@ -14132,10 +14147,10 @@
         <v>14</v>
       </c>
       <c r="D681" s="26" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="E681" s="7" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
     </row>
     <row r="682" spans="1:5">
@@ -14145,25 +14160,25 @@
         <v>14</v>
       </c>
       <c r="D682" s="26" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="E682" s="7" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="683" spans="1:5">
       <c r="A683" s="19"/>
       <c r="B683" s="39" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="C683" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D683" s="26" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="E683" s="7" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -14173,10 +14188,10 @@
         <v>14</v>
       </c>
       <c r="D684" s="26" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="E684" s="7" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="685" spans="1:5">
@@ -14189,7 +14204,7 @@
         <v>627</v>
       </c>
       <c r="E685" s="7" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
     </row>
     <row r="686" spans="1:5">
@@ -14199,7 +14214,7 @@
         <v>14</v>
       </c>
       <c r="D686" s="26" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="E686" s="7" t="s">
         <v>632</v>
@@ -14215,7 +14230,7 @@
         <v>629</v>
       </c>
       <c r="E687" s="7" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
     </row>
     <row r="688" spans="1:5">
@@ -14225,7 +14240,7 @@
         <v>14</v>
       </c>
       <c r="D688" s="26" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="E688" s="7" t="s">
         <v>632</v>
@@ -14253,7 +14268,7 @@
         <v>14</v>
       </c>
       <c r="D690" s="26" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="E690" s="7" t="s">
         <v>540</v>
@@ -14266,7 +14281,7 @@
         <v>14</v>
       </c>
       <c r="D691" s="26" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="E691" s="7" t="s">
         <v>644</v>
@@ -14279,30 +14294,30 @@
         <v>14</v>
       </c>
       <c r="D692" s="26" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="E692" s="7" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
     </row>
     <row r="693" spans="1:5">
       <c r="A693" s="20"/>
       <c r="B693" s="39" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="C693" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D693" s="26" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="E693" s="7" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="694" spans="1:5">
       <c r="A694" s="17" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="B694" s="17" t="s">
         <v>150</v>
@@ -14311,7 +14326,7 @@
         <v>14</v>
       </c>
       <c r="D694" s="26" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="E694" s="7" t="s">
         <v>192</v>
@@ -14324,10 +14339,10 @@
         <v>14</v>
       </c>
       <c r="D695" s="26" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="E695" s="7" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="696" spans="1:5">
@@ -14337,10 +14352,10 @@
         <v>14</v>
       </c>
       <c r="D696" s="26" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E696" s="7" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="697" spans="1:5">
@@ -14350,10 +14365,10 @@
         <v>14</v>
       </c>
       <c r="D697" s="26" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="E697" s="7" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="698" spans="1:5">
@@ -14363,7 +14378,7 @@
         <v>14</v>
       </c>
       <c r="D698" s="26" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="E698" s="30" t="s">
         <v>524</v>
@@ -14372,16 +14387,16 @@
     <row r="699" spans="1:5">
       <c r="A699" s="19"/>
       <c r="B699" s="17" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="C699" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D699" s="26" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="E699" s="7" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="700" spans="1:5">
@@ -14391,10 +14406,10 @@
         <v>14</v>
       </c>
       <c r="D700" s="26" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="E700" s="7" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="701" spans="1:5">
@@ -14404,10 +14419,10 @@
         <v>14</v>
       </c>
       <c r="D701" s="26" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="E701" s="7" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="702" spans="1:5">
@@ -14417,10 +14432,10 @@
         <v>14</v>
       </c>
       <c r="D702" s="26" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="E702" s="7" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="703" spans="1:5">
@@ -14430,10 +14445,10 @@
         <v>14</v>
       </c>
       <c r="D703" s="26" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="E703" s="7" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="704" spans="1:5">
@@ -14443,25 +14458,25 @@
         <v>14</v>
       </c>
       <c r="D704" s="26" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="E704" s="7" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="705" spans="1:5">
       <c r="A705" s="19"/>
       <c r="B705" s="17" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="C705" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D705" s="26" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="E705" s="7" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="706" spans="1:5">
@@ -14471,10 +14486,10 @@
         <v>14</v>
       </c>
       <c r="D706" s="26" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="E706" s="7" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="707" spans="1:5">
@@ -14484,10 +14499,10 @@
         <v>14</v>
       </c>
       <c r="D707" s="26" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="E707" s="7" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="708" spans="1:5">
@@ -14497,10 +14512,10 @@
         <v>14</v>
       </c>
       <c r="D708" s="26" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="E708" s="7" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="709" spans="1:5">
@@ -14510,10 +14525,10 @@
         <v>14</v>
       </c>
       <c r="D709" s="26" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="E709" s="7" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="710" spans="1:5">
@@ -14523,25 +14538,25 @@
         <v>14</v>
       </c>
       <c r="D710" s="26" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="E710" s="7" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="711" spans="1:5">
       <c r="A711" s="19"/>
       <c r="B711" s="39" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="C711" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D711" s="26" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="E711" s="7" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="712" spans="1:5">
@@ -14551,10 +14566,10 @@
         <v>14</v>
       </c>
       <c r="D712" s="26" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="E712" s="7" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="713" spans="1:5">
@@ -14564,10 +14579,10 @@
         <v>14</v>
       </c>
       <c r="D713" s="26" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="E713" s="7" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="714" spans="1:5">
@@ -14577,10 +14592,10 @@
         <v>14</v>
       </c>
       <c r="D714" s="26" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="E714" s="7" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
     </row>
     <row r="715" spans="1:5">
@@ -14590,16 +14605,16 @@
         <v>14</v>
       </c>
       <c r="D715" s="26" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="E715" s="7" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="716" spans="1:5">
       <c r="A716" s="19"/>
       <c r="B716" s="17" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="C716" s="16" t="s">
         <v>14</v>
@@ -14608,7 +14623,7 @@
         <v>142</v>
       </c>
       <c r="E716" s="7" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="717" spans="1:5">
@@ -14621,7 +14636,7 @@
         <v>627</v>
       </c>
       <c r="E717" s="7" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
     </row>
     <row r="718" spans="1:5">
@@ -14631,10 +14646,10 @@
         <v>14</v>
       </c>
       <c r="D718" s="26" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="E718" s="7" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="719" spans="1:5">
@@ -14644,7 +14659,7 @@
         <v>14</v>
       </c>
       <c r="D719" s="26" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="E719" s="42">
         <v>2018</v>
@@ -14672,7 +14687,7 @@
         <v>14</v>
       </c>
       <c r="D721" s="26" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="E721" s="7" t="s">
         <v>540</v>
@@ -14687,7 +14702,7 @@
     </row>
     <row r="723" spans="1:5">
       <c r="A723" s="17" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="B723" s="17" t="s">
         <v>150</v>
@@ -14696,7 +14711,7 @@
         <v>14</v>
       </c>
       <c r="D723" s="26" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="E723" s="7" t="s">
         <v>445</v>
@@ -14709,7 +14724,7 @@
         <v>14</v>
       </c>
       <c r="D724" s="26" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="E724" s="7" t="s">
         <v>524</v>
@@ -14722,10 +14737,10 @@
         <v>14</v>
       </c>
       <c r="D725" s="26" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="E725" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="726" spans="1:5">
@@ -14735,10 +14750,10 @@
         <v>14</v>
       </c>
       <c r="D726" s="26" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="E726" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="727" spans="1:5">
@@ -14748,10 +14763,10 @@
         <v>14</v>
       </c>
       <c r="D727" s="26" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="E727" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="728" spans="1:5">
@@ -14761,7 +14776,7 @@
         <v>14</v>
       </c>
       <c r="D728" s="26" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="E728" s="7" t="s">
         <v>571</v>
@@ -14774,10 +14789,10 @@
         <v>14</v>
       </c>
       <c r="D729" s="26" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="E729" s="7" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="730" spans="1:5">
@@ -14787,7 +14802,7 @@
         <v>14</v>
       </c>
       <c r="D730" s="26" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="E730" s="7" t="s">
         <v>574</v>
@@ -14803,7 +14818,7 @@
         <v>575</v>
       </c>
       <c r="E731" s="7" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="732" spans="1:5">
@@ -14839,10 +14854,10 @@
         <v>14</v>
       </c>
       <c r="D734" s="26" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="E734" s="7" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="735" spans="1:5">
@@ -14852,7 +14867,7 @@
         <v>14</v>
       </c>
       <c r="D735" s="26" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="E735" s="7" t="s">
         <v>531</v>
@@ -14894,7 +14909,7 @@
         <v>173</v>
       </c>
       <c r="E738" s="7" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
     <row r="739" spans="1:5">
@@ -14904,10 +14919,10 @@
         <v>14</v>
       </c>
       <c r="D739" s="26" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="E739" s="7" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="740" spans="1:5">
@@ -14917,10 +14932,10 @@
         <v>14</v>
       </c>
       <c r="D740" s="26" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="E740" s="7" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="741" spans="1:5">
@@ -14933,7 +14948,7 @@
         <v>467</v>
       </c>
       <c r="E741" s="7" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="742" spans="1:5">
@@ -14946,7 +14961,7 @@
         <v>595</v>
       </c>
       <c r="E742" s="7" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="743" spans="1:5">
@@ -14961,7 +14976,7 @@
         <v>144</v>
       </c>
       <c r="E743" s="7" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="744" spans="1:5">
@@ -14974,7 +14989,7 @@
         <v>146</v>
       </c>
       <c r="E744" s="7" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="745" spans="1:5">
@@ -15000,7 +15015,7 @@
         <v>203</v>
       </c>
       <c r="E746" s="7" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="747" spans="1:5">
@@ -15013,7 +15028,7 @@
         <v>204</v>
       </c>
       <c r="E747" s="7" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="748" spans="1:5">
@@ -15039,7 +15054,7 @@
         <v>559</v>
       </c>
       <c r="E749" s="7" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="750" spans="1:5">
@@ -15065,7 +15080,7 @@
         <v>232</v>
       </c>
       <c r="E751" s="7" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="752" spans="1:5">
@@ -15078,7 +15093,7 @@
         <v>484</v>
       </c>
       <c r="E752" s="30" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="753" spans="1:5">
@@ -15119,7 +15134,7 @@
         <v>329</v>
       </c>
       <c r="E755" s="7" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="756" spans="1:5">
@@ -15132,7 +15147,7 @@
         <v>343</v>
       </c>
       <c r="E756" s="7" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="757" spans="1:5">
@@ -15145,7 +15160,7 @@
         <v>345</v>
       </c>
       <c r="E757" s="7" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="758" spans="1:5">
@@ -15171,7 +15186,7 @@
         <v>610</v>
       </c>
       <c r="E759" s="7" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="760" spans="1:5">
@@ -15184,7 +15199,7 @@
         <v>643</v>
       </c>
       <c r="E760" s="7" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="761" spans="1:5">
@@ -15197,7 +15212,7 @@
         <v>210</v>
       </c>
       <c r="E761" s="7" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="762" spans="1:5">
@@ -15210,7 +15225,7 @@
         <v>213</v>
       </c>
       <c r="E762" s="7" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="763" spans="1:5">
@@ -15223,7 +15238,7 @@
         <v>397</v>
       </c>
       <c r="E763" s="7" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="764" spans="1:5">
@@ -15236,7 +15251,7 @@
         <v>600</v>
       </c>
       <c r="E764" s="7" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="765" spans="1:5">
@@ -15246,10 +15261,10 @@
         <v>14</v>
       </c>
       <c r="D765" s="26" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="E765" s="7" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="766" spans="1:5">
@@ -15262,7 +15277,7 @@
         <v>397</v>
       </c>
       <c r="E766" s="7" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="767" spans="1:5">
@@ -15272,10 +15287,10 @@
         <v>14</v>
       </c>
       <c r="D767" s="26" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="E767" s="7" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="768" spans="1:5">
@@ -15288,7 +15303,7 @@
         <v>215</v>
       </c>
       <c r="E768" s="7" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="769" spans="1:5">
@@ -15311,7 +15326,7 @@
         <v>14</v>
       </c>
       <c r="D770" s="26" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="E770" s="7" t="s">
         <v>137</v>
@@ -15319,7 +15334,7 @@
     </row>
     <row r="771" spans="1:5">
       <c r="A771" s="43" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="B771" s="39" t="s">
         <v>150</v>
@@ -15328,7 +15343,7 @@
         <v>14</v>
       </c>
       <c r="D771" s="26" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="E771" s="7" t="s">
         <v>445</v>
@@ -15341,10 +15356,10 @@
         <v>14</v>
       </c>
       <c r="D772" s="26" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="E772" s="7" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="773" spans="1:5">
@@ -15354,7 +15369,7 @@
         <v>14</v>
       </c>
       <c r="D773" s="26" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="E773" s="7" t="s">
         <v>524</v>
@@ -15367,10 +15382,10 @@
         <v>14</v>
       </c>
       <c r="D774" s="26" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="E774" s="7" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="775" spans="1:5">
@@ -15380,7 +15395,7 @@
         <v>14</v>
       </c>
       <c r="D775" s="26" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="E775" s="7" t="s">
         <v>654</v>
@@ -15393,10 +15408,10 @@
         <v>14</v>
       </c>
       <c r="D776" s="26" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="E776" s="7" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="777" spans="1:5">
@@ -15406,10 +15421,10 @@
         <v>14</v>
       </c>
       <c r="D777" s="26" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="E777" s="7" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="778" spans="1:5">
@@ -15422,7 +15437,7 @@
         <v>581</v>
       </c>
       <c r="E778" s="7" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="779" spans="1:5">
@@ -15447,10 +15462,10 @@
         <v>14</v>
       </c>
       <c r="D780" s="26" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="E780" s="7" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="781" spans="1:5">
@@ -15460,10 +15475,10 @@
         <v>14</v>
       </c>
       <c r="D781" s="26" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="E781" s="7" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="782" spans="1:5">
@@ -15473,10 +15488,10 @@
         <v>14</v>
       </c>
       <c r="D782" s="26" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="E782" s="7" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="783" spans="1:5">
@@ -15488,7 +15503,7 @@
         <v>14</v>
       </c>
       <c r="D783" s="26" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="E783" s="7" t="s">
         <v>524</v>
@@ -15504,7 +15519,7 @@
         <v>544</v>
       </c>
       <c r="E784" s="7" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="785" spans="1:5">
@@ -15514,10 +15529,10 @@
         <v>14</v>
       </c>
       <c r="D785" s="26" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="E785" s="7" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="786" spans="1:5">
@@ -15530,7 +15545,7 @@
         <v>643</v>
       </c>
       <c r="E786" s="7" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="787" spans="1:5">
@@ -15540,15 +15555,15 @@
         <v>14</v>
       </c>
       <c r="D787" s="26" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="E787" s="7" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="788" spans="1:5">
       <c r="A788" s="46" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="B788" s="39" t="s">
         <v>150</v>
@@ -15557,7 +15572,7 @@
         <v>14</v>
       </c>
       <c r="D788" s="26" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="E788" s="7" t="s">
         <v>445</v>
@@ -15570,10 +15585,10 @@
         <v>14</v>
       </c>
       <c r="D789" s="26" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="E789" s="7" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="790" spans="1:5">
@@ -15583,7 +15598,7 @@
         <v>14</v>
       </c>
       <c r="D790" s="26" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="E790" s="7" t="s">
         <v>524</v>
@@ -15598,10 +15613,10 @@
         <v>14</v>
       </c>
       <c r="D791" s="26" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="E791" s="7" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="792" spans="1:5">
@@ -15611,10 +15626,10 @@
         <v>14</v>
       </c>
       <c r="D792" s="26" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="E792" s="7" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="793" spans="1:5">
@@ -15624,7 +15639,7 @@
         <v>14</v>
       </c>
       <c r="D793" s="26" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="E793" s="7" t="s">
         <v>483</v>
@@ -15639,10 +15654,10 @@
         <v>14</v>
       </c>
       <c r="D794" s="26" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="E794" s="7" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="795" spans="1:5">
@@ -15655,7 +15670,7 @@
         <v>197</v>
       </c>
       <c r="E795" s="7" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="796" spans="1:5">
@@ -17771,71 +17786,71 @@
     </row>
     <row r="2" ht="14.25" spans="1:3">
       <c r="A2" s="23" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="23" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
       <c r="A4" s="26"/>
       <c r="B4" s="24" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:3">
       <c r="A5" s="23" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:3">
       <c r="A6" s="23" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="25" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:3">
       <c r="A7" s="23" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="26"/>
       <c r="B8" s="27"/>
       <c r="C8" s="25" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
     </row>
   </sheetData>
@@ -17883,7 +17898,7 @@
         <v>15566595533</v>
       </c>
       <c r="C2" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
     </row>
   </sheetData>
@@ -17897,8 +17912,8 @@
   <sheetPr/>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -17914,7 +17929,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -17927,18 +17942,18 @@
         <v>138</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:5">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -17947,7 +17962,7 @@
     <row r="4" ht="24" customHeight="1" spans="1:5">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -17958,12 +17973,12 @@
         <v>262</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="9" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:5">
@@ -17978,7 +17993,7 @@
     <row r="7" ht="18" customHeight="1" spans="1:5">
       <c r="A7" s="15"/>
       <c r="B7" s="6" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -17989,18 +18004,18 @@
         <v>549</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="9" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:5">
       <c r="A9" s="12"/>
       <c r="B9" s="10" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -18009,7 +18024,7 @@
     <row r="10" ht="21" customHeight="1" spans="1:5">
       <c r="A10" s="15"/>
       <c r="B10" s="10" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -18017,21 +18032,21 @@
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:5">
       <c r="A11" s="9" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="9" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:5">
       <c r="A12" s="12"/>
       <c r="B12" s="10" t="s">
-        <v>1189</v>
+        <v>1199</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -18040,7 +18055,7 @@
     <row r="13" ht="19" customHeight="1" spans="1:5">
       <c r="A13" s="15"/>
       <c r="B13" s="10" t="s">
-        <v>289</v>
+        <v>1200</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -18048,21 +18063,21 @@
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:5">
       <c r="A14" s="9" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>1196</v>
+        <v>1201</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="9" t="s">
-        <v>1197</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="12"/>
       <c r="B15" s="10" t="s">
-        <v>1198</v>
+        <v>1203</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -18071,7 +18086,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="12"/>
       <c r="B16" s="10" t="s">
-        <v>1199</v>
+        <v>1204</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -18080,7 +18095,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="15"/>
       <c r="B17" s="10" t="s">
-        <v>1200</v>
+        <v>1205</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -18088,21 +18103,21 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="9" t="s">
-        <v>1201</v>
+        <v>1206</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1202</v>
+        <v>1207</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="9" t="s">
-        <v>1203</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="12"/>
       <c r="B19" s="10" t="s">
-        <v>1204</v>
+        <v>1209</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -18111,7 +18126,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="12"/>
       <c r="B20" s="10" t="s">
-        <v>1205</v>
+        <v>1210</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -18120,7 +18135,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="15"/>
       <c r="B21" s="10" t="s">
-        <v>1206</v>
+        <v>1211</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -18128,7 +18143,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="9" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>289</v>
@@ -18136,13 +18151,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="9" t="s">
-        <v>1207</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="23" ht="35" customHeight="1" spans="1:5">
       <c r="A23" s="12"/>
       <c r="B23" s="10" t="s">
-        <v>1208</v>
+        <v>1213</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -18150,21 +18165,21 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="9" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="9" t="s">
-        <v>1210</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="12"/>
       <c r="B25" s="10" t="s">
-        <v>1211</v>
+        <v>1216</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -18173,7 +18188,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="12"/>
       <c r="B26" s="10" t="s">
-        <v>1212</v>
+        <v>1217</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -18182,7 +18197,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="15"/>
       <c r="B27" s="10" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -18190,21 +18205,21 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="9" t="s">
-        <v>1213</v>
+        <v>1218</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1214</v>
+        <v>1219</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="9" t="s">
-        <v>1215</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="12"/>
       <c r="B29" s="10" t="s">
-        <v>1216</v>
+        <v>1221</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -18213,7 +18228,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="12"/>
       <c r="B30" s="10" t="s">
-        <v>1217</v>
+        <v>1222</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -18230,7 +18245,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="9" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>289</v>
@@ -18238,13 +18253,13 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="9" t="s">
-        <v>1218</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:5">
       <c r="A33" s="12"/>
       <c r="B33" s="10" t="s">
-        <v>1219</v>
+        <v>1224</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -18252,21 +18267,21 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="9" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="9" t="s">
-        <v>1221</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="12"/>
       <c r="B35" s="10" t="s">
-        <v>1222</v>
+        <v>1227</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -18275,7 +18290,7 @@
     <row r="36" spans="1:5">
       <c r="A36" s="12"/>
       <c r="B36" s="10" t="s">
-        <v>1223</v>
+        <v>1228</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -18284,7 +18299,7 @@
     <row r="37" spans="1:5">
       <c r="A37" s="15"/>
       <c r="B37" s="10" t="s">
-        <v>1224</v>
+        <v>1229</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -18292,21 +18307,21 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="17" t="s">
-        <v>1225</v>
+        <v>1230</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1226</v>
+        <v>1231</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
       <c r="E38" s="9" t="s">
-        <v>1227</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="19"/>
       <c r="B39" s="18" t="s">
-        <v>1228</v>
+        <v>1233</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
@@ -18315,7 +18330,7 @@
     <row r="40" spans="1:5">
       <c r="A40" s="20"/>
       <c r="B40" s="18" t="s">
-        <v>1228</v>
+        <v>1233</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
@@ -18323,21 +18338,21 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="17" t="s">
-        <v>1229</v>
+        <v>1234</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
       <c r="E41" s="9" t="s">
-        <v>1227</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="19"/>
       <c r="B42" s="18" t="s">
-        <v>1222</v>
+        <v>1227</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
@@ -18346,7 +18361,7 @@
     <row r="43" spans="1:5">
       <c r="A43" s="20"/>
       <c r="B43" s="18" t="s">
-        <v>1223</v>
+        <v>1228</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
